--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B92E8E-1B00-0A4E-8196-B1EA97C61FC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA474EC-35E2-1A40-B535-ABD6817884CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="598" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="139">
   <si>
     <t>scenario</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>steel</t>
+  </si>
+  <si>
+    <t>CEMCAP-0C</t>
+  </si>
+  <si>
+    <t>cement</t>
   </si>
 </sst>
 </file>
@@ -1245,13 +1251,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B19"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1579,6 +1585,22 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="21">
+        <f>C4</f>
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="21">
+        <f>D4</f>
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:G49">
     <sortCondition ref="A26"/>
@@ -1592,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2015,6 +2037,30 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" si="0"/>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="21">
+        <f>C4</f>
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="21">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <f>E4</f>
+        <v>100</v>
+      </c>
+      <c r="F20" s="21">
+        <f>F4</f>
         <v>2.52E-2</v>
       </c>
     </row>
@@ -2280,13 +2326,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14:B19"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2986,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="46" t="s">
         <v>64</v>
       </c>
@@ -3035,7 +3081,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>81</v>
       </c>
@@ -3085,7 +3131,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>84</v>
       </c>
@@ -3134,6 +3180,74 @@
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="27" t="str">
+        <f>C10</f>
+        <v>diesel</v>
+      </c>
+      <c r="D20" s="27">
+        <f t="shared" ref="D20:Q20" si="4">D10</f>
+        <v>0.37466000000000005</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="4"/>
+        <v>3.4621428571428576</v>
+      </c>
+      <c r="F20" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>dry cleft timber</v>
+      </c>
+      <c r="G20" s="27">
+        <f t="shared" si="4"/>
+        <v>1.7271428571428573</v>
+      </c>
+      <c r="H20" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" si="4"/>
+        <v>1.7271428571428573</v>
+      </c>
+      <c r="J20" s="27">
+        <f t="shared" si="4"/>
+        <v>1.1096428571428574</v>
+      </c>
+      <c r="K20" s="27">
+        <f t="shared" si="4"/>
+        <v>1.8</v>
+      </c>
+      <c r="L20" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3144,10 +3258,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3784,6 +3898,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3796,7 +3918,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4154,7 +4276,20 @@
       <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D23" s="20"/>
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="22">
+        <f>C4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D23" s="22">
+        <f>D4</f>
+        <v>1.3869182594347289</v>
+      </c>
       <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
@@ -4224,7 +4359,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4719,9 +4854,24 @@
       <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="20">
+        <f>C4</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D23" s="20">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="20" t="str">
+        <f>E4</f>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -4886,7 +5036,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B1:B19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4960,13 +5110,26 @@
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="82"/>
+      <c r="C4" s="70">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="93">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="65">
+        <f>(25.3/4.6668)*Ref!B$18</f>
+        <v>1.9516585240421703E-2</v>
+      </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
@@ -5440,6 +5603,42 @@
       </c>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="10">
+        <f>C5</f>
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" ref="D20:I20" si="2">D5</f>
+        <v>0.86374002280501716</v>
+      </c>
+      <c r="E20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>charcoal - IPCC</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="2"/>
+        <v>1.9516585240421703E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
@@ -5482,7 +5681,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B19"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6013,6 +6212,34 @@
         <v>109</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="21">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" ref="D20:G20" si="10">D4</f>
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
@@ -6067,7 +6294,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B1:B19"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6589,6 +6816,34 @@
       </c>
       <c r="H19" s="21"/>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="21">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
+        <f>D4</f>
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="21">
+        <f>E4</f>
+        <v>1.05</v>
+      </c>
+      <c r="F20" s="21">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
@@ -6637,10 +6892,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B19"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6938,6 +7193,22 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="24">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <f>D4</f>
+        <v>0.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA474EC-35E2-1A40-B535-ABD6817884CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="CO2 Storage" sheetId="13" r:id="rId10"/>
     <sheet name="Ref" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,12 +74,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="O8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="146">
   <si>
     <t>scenario</t>
   </si>
@@ -578,19 +577,40 @@
   </si>
   <si>
     <t>cement</t>
+  </si>
+  <si>
+    <t>t atm CO2/t feedstock</t>
+  </si>
+  <si>
+    <t>carbon debt factor</t>
+  </si>
+  <si>
+    <t>rotation period</t>
+  </si>
+  <si>
+    <t>years feedstock</t>
+  </si>
+  <si>
+    <t>CO2 removal</t>
+  </si>
+  <si>
+    <t>t CO2eq/t CO2 removed</t>
+  </si>
+  <si>
+    <t>100y time horizon; Guest et al 2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +748,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -737,7 +771,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -834,6 +868,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -841,7 +930,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -968,12 +1057,46 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1250,28 +1373,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.83203125" style="61" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="19.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" style="61" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -1306,13 +1429,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1449,7 @@
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -1343,7 +1466,7 @@
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1360,7 +1483,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -1379,7 +1502,7 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:7" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -1397,7 +1520,7 @@
       <c r="F8" s="61"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>80</v>
       </c>
@@ -1414,7 +1537,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>83</v>
       </c>
@@ -1433,7 +1556,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>64</v>
       </c>
@@ -1447,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -1464,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -1483,7 +1606,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1498,7 +1621,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1515,7 +1638,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -1534,7 +1657,7 @@
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -1549,7 +1672,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1566,7 +1689,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -1585,7 +1708,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1602,7 +1725,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:G49">
+  <sortState ref="A26:G49">
     <sortCondition ref="A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1611,20 +1734,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -1644,7 +1767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -1659,13 +1782,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -1683,7 +1806,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -1704,7 +1827,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1729,7 +1852,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -1754,7 +1877,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -1776,7 +1899,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -1801,7 +1924,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>83</v>
       </c>
@@ -1825,7 +1948,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -1847,7 +1970,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -1872,7 +1995,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -1897,7 +2020,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -1919,7 +2042,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -1944,7 +2067,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -1969,7 +2092,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -1990,7 +2113,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -2015,7 +2138,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -2040,7 +2163,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2064,25 +2187,25 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
     </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2094,33 +2217,33 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -2129,7 +2252,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2141,7 +2264,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +2276,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -2165,7 +2288,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2177,7 +2300,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2312,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2201,7 +2324,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -2214,7 +2337,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2349,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -2238,24 +2361,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="16" t="s">
         <v>25</v>
@@ -2263,7 +2386,7 @@
       <c r="C16" s="16"/>
       <c r="H16" s="88"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
@@ -2272,7 +2395,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
@@ -2284,7 +2407,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="88"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>28</v>
       </c>
@@ -2294,7 +2417,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>37</v>
       </c>
@@ -2304,7 +2427,7 @@
       </c>
       <c r="E20" s="88"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2313,7 +2436,7 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
         <v>134</v>
       </c>
@@ -2325,31 +2448,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="34"/>
-    <col min="10" max="10" width="9.1640625" style="34"/>
-    <col min="13" max="16" width="8.83203125" style="34"/>
+    <col min="1" max="1" width="18.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="123" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="34"/>
+    <col min="12" max="12" width="15.28515625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="112"/>
+    <col min="14" max="14" width="8.85546875" style="115"/>
+    <col min="16" max="16" width="8.85546875" style="112"/>
+    <col min="17" max="18" width="8.85546875" style="104"/>
+    <col min="20" max="22" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2362,94 +2492,120 @@
       <c r="D1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="M1" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="P1" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="124" t="s">
         <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="K2" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="L2" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="M2" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="T2" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="U2" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="V2" s="97" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F3" s="21"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>113</v>
       </c>
@@ -2460,36 +2616,41 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="123">
         <f>0.0102+0.10641+2.406035</f>
         <v>2.5226450000000002</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="24">
-        <f>H4+I4</f>
+      <c r="G4" s="121">
+        <v>1.65</v>
+      </c>
+      <c r="H4" s="100"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="125">
+        <f>K4+L4</f>
         <v>2.6949999999999998</v>
       </c>
-      <c r="I4" s="34">
+      <c r="L4" s="34">
         <v>2.6949999999999998</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="18">
+      <c r="M4" s="114"/>
+      <c r="N4" s="117">
         <v>0.40333000000000002</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <f>75*Ref!B$18</f>
         <v>0.27</v>
       </c>
-      <c r="N4" s="34">
+      <c r="T4" s="34">
         <v>0.05</v>
       </c>
-      <c r="P4" s="34">
+      <c r="V4" s="34">
         <v>0.72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>121</v>
       </c>
@@ -2500,34 +2661,36 @@
         <f>13.1*28.6/1000</f>
         <v>0.37466000000000005</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="123">
         <f>3.7*1.31/1.4</f>
         <v>3.4621428571428576</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="24">
-        <f>H5+I5</f>
+      <c r="G5" s="3"/>
+      <c r="H5" s="34"/>
+      <c r="J5" s="125">
+        <f>K5+L5</f>
         <v>1.7271428571428573</v>
       </c>
-      <c r="I5" s="98">
+      <c r="L5" s="98">
         <f>2.418/1.4</f>
         <v>1.7271428571428573</v>
       </c>
-      <c r="J5" s="98">
+      <c r="M5" s="114">
         <f>1.195*1.3/1.4</f>
         <v>1.1096428571428574</v>
       </c>
-      <c r="K5" s="18">
+      <c r="N5" s="117">
         <f>0.09*28/1.4</f>
         <v>1.8</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>119</v>
       </c>
@@ -2538,41 +2701,43 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="123">
         <f>3.7/1.3</f>
         <v>2.8461538461538463</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="24">
-        <f>H6+I6</f>
+      <c r="G6" s="3"/>
+      <c r="H6" s="34"/>
+      <c r="J6" s="125">
+        <f>K6+L6</f>
         <v>1.2030769230769232</v>
       </c>
-      <c r="I6" s="98">
+      <c r="L6" s="98">
         <f>1.564/1.3</f>
         <v>1.2030769230769232</v>
       </c>
-      <c r="J6" s="98">
+      <c r="M6" s="114">
         <f>0.954/1.3</f>
         <v>0.73384615384615381</v>
       </c>
-      <c r="K6" s="18">
+      <c r="N6" s="117">
         <f>0.037*28/1.3</f>
         <v>0.79692307692307696</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="34">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="112">
         <f>613*Ref!B18</f>
         <v>2.2067999999999999</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="W6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>120</v>
       </c>
@@ -2583,40 +2748,42 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="123">
         <f>3.7/1.3</f>
         <v>2.8461538461538463</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="24">
-        <f>H7+I7</f>
+      <c r="G7" s="3"/>
+      <c r="H7" s="34"/>
+      <c r="J7" s="125">
+        <f>K7+L7</f>
         <v>2.25</v>
       </c>
-      <c r="I7" s="98">
+      <c r="L7" s="98">
         <f>2.925/1.3</f>
         <v>2.25</v>
       </c>
-      <c r="J7" s="98">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18">
+      <c r="M7" s="114">
+        <v>0</v>
+      </c>
+      <c r="N7" s="117">
         <f>0.049*28/1.3</f>
         <v>1.0553846153846154</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="34">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="112">
         <f>1122*Ref!B18</f>
         <v>4.0392000000000001</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="W7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
         <v>128</v>
       </c>
@@ -2627,30 +2794,32 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="123">
         <f>1/0.364</f>
         <v>2.7472527472527473</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="24">
-        <f t="shared" ref="G8" si="0">H8+I8</f>
+      <c r="G8" s="3"/>
+      <c r="H8" s="34"/>
+      <c r="J8" s="125">
+        <f t="shared" ref="J8" si="0">K8+L8</f>
         <v>0.54300000000000004</v>
       </c>
-      <c r="I8" s="100">
+      <c r="L8" s="100">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J8" s="98"/>
-      <c r="K8" s="18">
+      <c r="M8" s="114"/>
+      <c r="N8" s="117">
         <f>0.0365*28</f>
         <v>1.022</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
         <v>129</v>
       </c>
@@ -2661,30 +2830,32 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="123">
         <f>1/0.341</f>
         <v>2.9325513196480935</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="24">
-        <f>H9+I9</f>
+      <c r="G9" s="3"/>
+      <c r="H9" s="34"/>
+      <c r="J9" s="125">
+        <f>K9+L9</f>
         <v>1.3819999999999999</v>
       </c>
-      <c r="I9" s="100">
+      <c r="L9" s="100">
         <v>1.3819999999999999</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="18">
+      <c r="M9" s="114"/>
+      <c r="N9" s="117">
         <f>0.047*28</f>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
@@ -2695,105 +2866,126 @@
         <f>D5</f>
         <v>0.37466000000000005</v>
       </c>
-      <c r="E10" s="29">
-        <f t="shared" ref="E10:P10" si="1">E5</f>
-        <v>3.4621428571428576</v>
+      <c r="E10" s="126">
+        <f>E9</f>
+        <v>2.9325513196480935</v>
       </c>
       <c r="F10" s="29" t="str">
+        <f t="shared" ref="F10:O10" si="1">F9</f>
+        <v>dry cleft timber</v>
+      </c>
+      <c r="G10" s="58">
+        <v>1.65</v>
+      </c>
+      <c r="H10" s="35">
+        <v>55</v>
+      </c>
+      <c r="I10" s="58">
+        <v>0.32</v>
+      </c>
+      <c r="J10" s="126">
         <f t="shared" si="1"/>
-        <v>dry cleft timber</v>
-      </c>
-      <c r="G10" s="29">
-        <f t="shared" si="1"/>
-        <v>1.7271428571428573</v>
-      </c>
-      <c r="H10" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
-        <f t="shared" si="1"/>
-        <v>1.7271428571428573</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="1"/>
-        <v>1.1096428571428574</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="K10" s="29">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="L10" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="35">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="M10" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="118">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="35">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="O10" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="P10" s="120">
+        <f>P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="T10" s="35">
+        <f t="shared" ref="T10:V10" si="2">T5</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <f>C$9</f>
         <v>diesel</v>
       </c>
-      <c r="D11">
-        <f t="shared" ref="D11:L19" si="2">D$9</f>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:O19" si="3">D$9</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="131">
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="2"/>
+      <c r="F11" s="39" t="str">
+        <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
+      <c r="G11" s="132">
+        <v>1.65</v>
+      </c>
+      <c r="H11" s="133">
+        <f>H$10</f>
+        <v>55</v>
+      </c>
+      <c r="I11" s="133">
+        <f>I$10</f>
+        <v>0.32</v>
+      </c>
+      <c r="J11" s="131">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="H11" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="34">
-        <f t="shared" si="2"/>
+      <c r="K11" s="134">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="134">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="J11"/>
-      <c r="K11">
-        <f t="shared" si="2"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="136">
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-    </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>79</v>
       </c>
@@ -2802,48 +2994,60 @@
         <v>steel</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12:C19" si="3">C$9</f>
+        <f t="shared" ref="C12:C19" si="4">C$9</f>
         <v>diesel</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="123">
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="2"/>
+      <c r="F12" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
+      <c r="G12" s="3">
+        <f>G11</f>
+        <v>1.65</v>
+      </c>
+      <c r="H12" s="100">
+        <f>H11</f>
+        <v>55</v>
+      </c>
+      <c r="I12" s="100">
+        <f>I11</f>
+        <v>0.32</v>
+      </c>
+      <c r="J12" s="123">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="H12" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <f t="shared" si="2"/>
+      <c r="K12" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="34">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="J12"/>
-      <c r="K12">
-        <f t="shared" si="2"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="115">
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-    </row>
-    <row r="13" spans="1:17" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="108"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+    </row>
+    <row r="13" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>82</v>
       </c>
@@ -2852,43 +3056,59 @@
         <v>steel</v>
       </c>
       <c r="C13" s="29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>diesel</v>
       </c>
       <c r="D13" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="126">
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F13" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G13" s="29">
-        <f t="shared" si="2"/>
+      <c r="G13" s="58">
+        <f>G11</f>
+        <v>1.65</v>
+      </c>
+      <c r="H13" s="129">
+        <f>H11</f>
+        <v>55</v>
+      </c>
+      <c r="I13" s="129">
+        <f>I11</f>
+        <v>0.32</v>
+      </c>
+      <c r="J13" s="126">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="H13" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="35">
-        <f t="shared" si="2"/>
+      <c r="K13" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="35">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="K13" s="29">
-        <f t="shared" si="2"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="118">
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L13" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O13" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>63</v>
       </c>
@@ -2900,44 +3120,55 @@
         <v>diesel</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="123">
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="2"/>
+      <c r="F14" s="122" t="str">
+        <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
+      <c r="G14" s="121">
+        <v>1.65</v>
+      </c>
+      <c r="H14" s="133">
+        <f>H$10</f>
+        <v>55</v>
+      </c>
+      <c r="I14" s="133">
+        <f>I$10</f>
+        <v>0.32</v>
+      </c>
+      <c r="J14" s="123">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="H14" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="34">
-        <f t="shared" si="2"/>
+      <c r="K14" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="34">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="J14"/>
-      <c r="K14">
-        <f t="shared" si="2"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="115">
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-    </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="108"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>80</v>
       </c>
@@ -2946,48 +3177,60 @@
         <v>steel</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>diesel</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="123">
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="2"/>
+      <c r="F15" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
+      <c r="G15" s="3">
+        <f>G14</f>
+        <v>1.65</v>
+      </c>
+      <c r="H15" s="100">
+        <f>H14</f>
+        <v>55</v>
+      </c>
+      <c r="I15" s="100">
+        <f>I14</f>
+        <v>0.32</v>
+      </c>
+      <c r="J15" s="123">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="H15" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="34">
-        <f t="shared" si="2"/>
+      <c r="K15" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="34">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="J15"/>
-      <c r="K15">
-        <f t="shared" si="2"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="115">
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-    </row>
-    <row r="16" spans="1:17" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="108"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+    </row>
+    <row r="16" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>83</v>
       </c>
@@ -2996,43 +3239,59 @@
         <v>steel</v>
       </c>
       <c r="C16" s="29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>diesel</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="126">
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F16" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G16" s="29">
-        <f t="shared" si="2"/>
+      <c r="G16" s="58">
+        <f>G14</f>
+        <v>1.65</v>
+      </c>
+      <c r="H16" s="129">
+        <f>H14</f>
+        <v>55</v>
+      </c>
+      <c r="I16" s="129">
+        <f>I14</f>
+        <v>0.32</v>
+      </c>
+      <c r="J16" s="126">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="H16" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="35">
-        <f t="shared" si="2"/>
+      <c r="K16" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="35">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="K16" s="29">
-        <f t="shared" si="2"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="118">
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L16" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O16" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>64</v>
       </c>
@@ -3044,44 +3303,55 @@
         <v>diesel</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="123">
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="2"/>
+      <c r="F17" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
+      <c r="G17" s="121">
+        <v>1.65</v>
+      </c>
+      <c r="H17" s="133">
+        <f>H$10</f>
+        <v>55</v>
+      </c>
+      <c r="I17" s="133">
+        <f>I$10</f>
+        <v>0.32</v>
+      </c>
+      <c r="J17" s="123">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="H17" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="34">
-        <f t="shared" si="2"/>
+      <c r="K17" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="34">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="J17"/>
-      <c r="K17">
-        <f t="shared" si="2"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="115">
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-    </row>
-    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="108"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
         <v>81</v>
       </c>
@@ -3090,48 +3360,60 @@
         <v>steel</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>diesel</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="123">
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="2"/>
+      <c r="F18" s="21" t="str">
+        <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
+      <c r="G18" s="3">
+        <f>G17</f>
+        <v>1.65</v>
+      </c>
+      <c r="H18" s="100">
+        <f>H17</f>
+        <v>55</v>
+      </c>
+      <c r="I18" s="100">
+        <f>I17</f>
+        <v>0.32</v>
+      </c>
+      <c r="J18" s="123">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="H18" s="34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="34">
-        <f t="shared" si="2"/>
+      <c r="K18" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="34">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="J18"/>
-      <c r="K18">
-        <f t="shared" si="2"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="115">
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-    </row>
-    <row r="19" spans="1:17" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="108"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+    </row>
+    <row r="19" spans="1:23" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>84</v>
       </c>
@@ -3140,48 +3422,62 @@
         <v>steel</v>
       </c>
       <c r="C19" s="29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>diesel</v>
       </c>
       <c r="D19" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="126">
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F19" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G19" s="29">
-        <f t="shared" si="2"/>
+      <c r="G19" s="58">
+        <f>G17</f>
+        <v>1.65</v>
+      </c>
+      <c r="H19" s="129">
+        <f>H17</f>
+        <v>55</v>
+      </c>
+      <c r="I19" s="129">
+        <f>I17</f>
+        <v>0.32</v>
+      </c>
+      <c r="J19" s="126">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="H19" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="35">
-        <f t="shared" si="2"/>
+      <c r="K19" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="35">
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29">
-        <f t="shared" si="2"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="118">
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
-      <c r="L19" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O19" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -3193,61 +3489,263 @@
         <v>diesel</v>
       </c>
       <c r="D20" s="27">
-        <f t="shared" ref="D20:Q20" si="4">D10</f>
+        <f t="shared" ref="D20:W20" si="5">D10</f>
         <v>0.37466000000000005</v>
       </c>
-      <c r="E20" s="27">
-        <f t="shared" si="4"/>
-        <v>3.4621428571428576</v>
+      <c r="E20" s="127">
+        <f t="shared" si="5"/>
+        <v>2.9325513196480935</v>
       </c>
       <c r="F20" s="27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F20" si="6">F10</f>
         <v>dry cleft timber</v>
       </c>
-      <c r="G20" s="27">
-        <f t="shared" si="4"/>
-        <v>1.7271428571428573</v>
-      </c>
-      <c r="H20" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
-        <f t="shared" si="4"/>
-        <v>1.7271428571428573</v>
-      </c>
-      <c r="J20" s="27">
-        <f t="shared" si="4"/>
-        <v>1.1096428571428574</v>
+      <c r="G20" s="121">
+        <v>1.65</v>
+      </c>
+      <c r="H20" s="100"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="127">
+        <f t="shared" si="5"/>
+        <v>1.3819999999999999</v>
       </c>
       <c r="K20" s="27">
-        <f t="shared" si="4"/>
-        <v>1.8</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="L20" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="M20" s="111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="119">
+        <f t="shared" si="5"/>
+        <v>1.3160000000000001</v>
       </c>
       <c r="O20" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="111">
+        <f>P10</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="T20" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="21"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="21"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3257,27 +3755,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="108" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="108" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3293,7 +3795,7 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="108" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
@@ -3302,29 +3804,38 @@
       <c r="H1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="128" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>91</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3334,37 +3845,52 @@
       <c r="E2" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="F2" s="130"/>
       <c r="G2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="130"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3903,7 @@
       <c r="E4" s="21">
         <v>0</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="108" t="s">
         <v>62</v>
       </c>
       <c r="G4" s="21">
@@ -3386,30 +3912,34 @@
       <c r="H4" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="27">
+        <v>1.81</v>
+      </c>
+      <c r="K4" s="108"/>
+      <c r="L4" s="21">
         <v>0.21</v>
       </c>
-      <c r="J4" s="21">
+      <c r="M4" s="21">
         <v>0.17</v>
       </c>
-      <c r="K4" s="21">
+      <c r="N4" s="21">
         <v>0.47</v>
       </c>
-      <c r="L4" s="21">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22">
-        <f>(K4/44)*2*61*(1-0.99)</f>
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22">
+        <f>(N4/44)*2*61*(1-0.99)</f>
         <v>1.3031818181818193E-2</v>
       </c>
-      <c r="N4" s="21">
+      <c r="Q4" s="21">
         <v>0.45</v>
       </c>
-      <c r="O4" s="21">
+      <c r="R4" s="21">
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>103</v>
       </c>
@@ -3422,7 +3952,7 @@
       <c r="E5" s="21">
         <v>0</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="108" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="38">
@@ -3432,32 +3962,36 @@
       <c r="H5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="21">
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
+      <c r="I5" s="27">
+        <v>1.81</v>
+      </c>
+      <c r="K5" s="108"/>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="38">
         <f>0.32/1.15</f>
         <v>0.27826086956521739</v>
       </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="38">
+      <c r="N5" s="21">
+        <v>0</v>
+      </c>
+      <c r="O5" s="38">
         <f>0.027/1.15*Ref!B18*1000</f>
         <v>8.4521739130434786E-2</v>
       </c>
-      <c r="M5" s="87">
-        <f>K5*0.0016</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="21">
+      <c r="P5" s="87">
+        <f>N5*0.0016</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
         <v>0.14299999999999999</v>
       </c>
-      <c r="O5" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>104</v>
       </c>
@@ -3470,7 +4004,7 @@
       <c r="E6" s="21">
         <v>0</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="108" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="38">
@@ -3480,30 +4014,34 @@
         <v>102</v>
       </c>
       <c r="I6" s="27">
+        <v>1.81</v>
+      </c>
+      <c r="K6" s="108"/>
+      <c r="L6" s="27">
         <v>0.1918</v>
       </c>
-      <c r="J6" s="38">
+      <c r="M6" s="38">
         <v>0.193</v>
       </c>
-      <c r="K6" s="21">
+      <c r="N6" s="21">
         <f>1.29-0.05</f>
         <v>1.24</v>
       </c>
-      <c r="L6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="87">
-        <f>K6*0.0015</f>
+      <c r="O6" s="38">
+        <v>0</v>
+      </c>
+      <c r="P6" s="87">
+        <f>N6*0.0015</f>
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="N6" s="40">
+      <c r="Q6" s="40">
         <v>2</v>
       </c>
-      <c r="O6" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>101</v>
       </c>
@@ -3512,14 +4050,14 @@
         <v>natural gas - IPCC</v>
       </c>
       <c r="D7" s="29">
-        <f t="shared" ref="D7:O7" si="0">D4</f>
+        <f t="shared" ref="D7:R7" si="0">D4</f>
         <v>0</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="29" t="str">
+      <c r="F7" s="110" t="str">
         <f t="shared" si="0"/>
         <v>charcoal - IPCC</v>
       </c>
@@ -3530,35 +4068,44 @@
         <v>96</v>
       </c>
       <c r="I7" s="29">
+        <v>1.81</v>
+      </c>
+      <c r="J7" s="29">
+        <v>55</v>
+      </c>
+      <c r="K7" s="110">
+        <v>0.32</v>
+      </c>
+      <c r="L7" s="29">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="J7" s="29">
+      <c r="M7" s="29">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="K7" s="29">
+      <c r="N7" s="29">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="L7" s="29">
+      <c r="O7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="89">
-        <f>K7*0.0015</f>
+      <c r="P7" s="89">
+        <f>N7*0.0015</f>
         <v>7.0500000000000001E-4</v>
       </c>
-      <c r="N7" s="29">
+      <c r="Q7" s="29">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="O7" s="29">
+      <c r="R7" s="29">
         <f t="shared" si="0"/>
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -3574,7 +4121,7 @@
       <c r="E8" s="39">
         <v>0</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="135" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="43">
@@ -3583,32 +4130,43 @@
       <c r="H8" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="39">
+        <v>1.81</v>
+      </c>
+      <c r="J8" s="39">
+        <f>J7</f>
+        <v>55</v>
+      </c>
+      <c r="K8" s="39">
+        <f>K7</f>
+        <v>0.32</v>
+      </c>
+      <c r="L8" s="33">
         <v>0.1918</v>
       </c>
-      <c r="J8" s="50">
+      <c r="M8" s="50">
         <v>0.193</v>
       </c>
-      <c r="K8" s="39">
+      <c r="N8" s="39">
         <f>1.29-0.05</f>
         <v>1.24</v>
       </c>
-      <c r="L8" s="43">
-        <f>K8*90*Ref!B$18</f>
+      <c r="O8" s="43">
+        <f>N8*90*Ref!B$18</f>
         <v>0.40175999999999995</v>
       </c>
-      <c r="M8" s="91">
-        <f>K8*0.0015</f>
+      <c r="P8" s="91">
+        <f>N8*0.0015</f>
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="N8" s="92">
+      <c r="Q8" s="92">
         <v>2</v>
       </c>
-      <c r="O8" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="R8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -3617,7 +4175,7 @@
         <v>steel</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9:M9" si="1">C8</f>
+        <f t="shared" ref="C9:P9" si="1">C8</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="D9">
@@ -3627,7 +4185,7 @@
       <c r="E9" s="85">
         <v>0.5</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="108" t="str">
         <f t="shared" si="1"/>
         <v>charcoal - IPCC</v>
       </c>
@@ -3640,35 +4198,47 @@
         <v>wood chips (EU no swiss, dry)</v>
       </c>
       <c r="I9">
+        <f>I8</f>
+        <v>1.81</v>
+      </c>
+      <c r="J9">
+        <f>J8</f>
+        <v>55</v>
+      </c>
+      <c r="K9">
+        <f>K8</f>
+        <v>0.32</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
         <v>0.1918</v>
       </c>
-      <c r="J9" s="18">
+      <c r="M9" s="18">
         <f t="shared" si="1"/>
         <v>0.193</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <f t="shared" si="1"/>
         <v>1.24</v>
       </c>
-      <c r="L9" s="24">
+      <c r="O9" s="24">
         <f t="shared" si="1"/>
         <v>0.40175999999999995</v>
       </c>
-      <c r="M9" s="88">
+      <c r="P9" s="88">
         <f t="shared" si="1"/>
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="N9">
-        <f>N8</f>
+      <c r="Q9">
+        <f>Q8</f>
         <v>2</v>
       </c>
-      <c r="O9">
-        <f>O8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f>R8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>74</v>
       </c>
@@ -3677,7 +4247,7 @@
         <v>steel</v>
       </c>
       <c r="C10" s="29" t="str">
-        <f t="shared" ref="C10:M10" si="2">C8</f>
+        <f t="shared" ref="C10:P10" si="2">C8</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="D10" s="29">
@@ -3687,7 +4257,7 @@
       <c r="E10" s="31">
         <v>1</v>
       </c>
-      <c r="F10" s="29" t="str">
+      <c r="F10" s="110" t="str">
         <f t="shared" si="2"/>
         <v>charcoal - IPCC</v>
       </c>
@@ -3700,35 +4270,47 @@
         <v>wood chips (EU no swiss, dry)</v>
       </c>
       <c r="I10" s="29">
+        <f>I8</f>
+        <v>1.81</v>
+      </c>
+      <c r="J10" s="29">
+        <f>J8</f>
+        <v>55</v>
+      </c>
+      <c r="K10" s="29">
+        <f>K8</f>
+        <v>0.32</v>
+      </c>
+      <c r="L10" s="29">
         <f t="shared" si="2"/>
         <v>0.1918</v>
       </c>
-      <c r="J10" s="28">
+      <c r="M10" s="28">
         <f t="shared" si="2"/>
         <v>0.193</v>
       </c>
-      <c r="K10" s="29">
+      <c r="N10" s="29">
         <f t="shared" si="2"/>
         <v>1.24</v>
       </c>
-      <c r="L10" s="37">
+      <c r="O10" s="37">
         <f t="shared" si="2"/>
         <v>0.40175999999999995</v>
       </c>
-      <c r="M10" s="89">
+      <c r="P10" s="89">
         <f t="shared" si="2"/>
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="N10" s="29">
-        <f>N8</f>
+      <c r="Q10" s="29">
+        <f>Q8</f>
         <v>2</v>
       </c>
-      <c r="O10" s="29">
-        <f>O8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="R10" s="29">
+        <f>R8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -3744,7 +4326,7 @@
       <c r="E11" s="39">
         <v>0</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="135" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="43">
@@ -3753,32 +4335,43 @@
       <c r="H11" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="39">
+        <v>1.81</v>
+      </c>
+      <c r="J11" s="39">
+        <f>J7</f>
+        <v>55</v>
+      </c>
+      <c r="K11" s="39">
+        <f>K7</f>
+        <v>0.32</v>
+      </c>
+      <c r="L11" s="33">
         <v>0.1918</v>
       </c>
-      <c r="J11" s="50">
+      <c r="M11" s="50">
         <v>0.193</v>
       </c>
-      <c r="K11" s="39">
+      <c r="N11" s="39">
         <f>1.29-0.05</f>
         <v>1.24</v>
       </c>
-      <c r="L11" s="43">
-        <f>K11*90*Ref!B$18</f>
+      <c r="O11" s="43">
+        <f>N11*90*Ref!B$18</f>
         <v>0.40175999999999995</v>
       </c>
-      <c r="M11" s="91">
-        <f>K11*0.0015</f>
+      <c r="P11" s="91">
+        <f>N11*0.0015</f>
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="N11" s="92">
+      <c r="Q11" s="92">
         <v>2</v>
       </c>
-      <c r="O11" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="R11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -3787,7 +4380,7 @@
         <v>steel</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12:M12" si="3">C11</f>
+        <f t="shared" ref="C12:P12" si="3">C11</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="D12">
@@ -3797,7 +4390,7 @@
       <c r="E12" s="85">
         <v>0.5</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="108" t="str">
         <f t="shared" si="3"/>
         <v>charcoal - IPCC</v>
       </c>
@@ -3810,35 +4403,47 @@
         <v>wood chips (EU no swiss, dry)</v>
       </c>
       <c r="I12">
+        <f>I11</f>
+        <v>1.81</v>
+      </c>
+      <c r="J12">
+        <f>J11</f>
+        <v>55</v>
+      </c>
+      <c r="K12">
+        <f>K11</f>
+        <v>0.32</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="3"/>
         <v>0.1918</v>
       </c>
-      <c r="J12" s="18">
+      <c r="M12" s="18">
         <f t="shared" si="3"/>
         <v>0.193</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>1.24</v>
       </c>
-      <c r="L12" s="24">
+      <c r="O12" s="24">
         <f t="shared" si="3"/>
         <v>0.40175999999999995</v>
       </c>
-      <c r="M12" s="88">
+      <c r="P12" s="88">
         <f t="shared" si="3"/>
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="N12">
-        <f>N11</f>
+      <c r="Q12">
+        <f>Q11</f>
         <v>2</v>
       </c>
-      <c r="O12">
-        <f>O11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f>R11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>77</v>
       </c>
@@ -3847,7 +4452,7 @@
         <v>steel</v>
       </c>
       <c r="C13" s="29" t="str">
-        <f t="shared" ref="C13:M13" si="4">C11</f>
+        <f t="shared" ref="C13:P13" si="4">C11</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="D13" s="29">
@@ -3857,7 +4462,7 @@
       <c r="E13" s="31">
         <v>1</v>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="110" t="str">
         <f t="shared" si="4"/>
         <v>charcoal - IPCC</v>
       </c>
@@ -3870,40 +4475,63 @@
         <v>wood chips (EU no swiss, dry)</v>
       </c>
       <c r="I13" s="29">
+        <f>I11</f>
+        <v>1.81</v>
+      </c>
+      <c r="J13" s="29">
+        <f>J11</f>
+        <v>55</v>
+      </c>
+      <c r="K13" s="29">
+        <f>K11</f>
+        <v>0.32</v>
+      </c>
+      <c r="L13" s="29">
         <f t="shared" si="4"/>
         <v>0.1918</v>
       </c>
-      <c r="J13" s="28">
+      <c r="M13" s="28">
         <f t="shared" si="4"/>
         <v>0.193</v>
       </c>
-      <c r="K13" s="29">
+      <c r="N13" s="29">
         <f t="shared" si="4"/>
         <v>1.24</v>
       </c>
-      <c r="L13" s="37">
+      <c r="O13" s="37">
         <f t="shared" si="4"/>
         <v>0.40175999999999995</v>
       </c>
-      <c r="M13" s="89">
+      <c r="P13" s="89">
         <f t="shared" si="4"/>
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="N13" s="29">
-        <f>N11</f>
+      <c r="Q13" s="29">
+        <f>Q11</f>
         <v>2</v>
       </c>
-      <c r="O13" s="29">
-        <f>O11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R13" s="29">
+        <f>R11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>137</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>138</v>
+      </c>
+      <c r="I14">
+        <v>1.81</v>
+      </c>
+      <c r="J14">
+        <f>J7</f>
+        <v>55</v>
+      </c>
+      <c r="K14">
+        <f>K7</f>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -3914,26 +4542,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15" style="21" customWidth="1"/>
     <col min="3" max="3" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.1640625" style="20"/>
+    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3950,7 +4578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -3959,13 +4587,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -3977,7 +4605,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>103</v>
       </c>
@@ -3990,7 +4618,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>104</v>
       </c>
@@ -4003,7 +4631,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>101</v>
       </c>
@@ -4017,7 +4645,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>78</v>
       </c>
@@ -4033,7 +4661,7 @@
       </c>
       <c r="E8" s="68"/>
     </row>
-    <row r="9" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
@@ -4050,7 +4678,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>82</v>
       </c>
@@ -4067,7 +4695,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>63</v>
       </c>
@@ -4083,7 +4711,7 @@
       </c>
       <c r="E11" s="68"/>
     </row>
-    <row r="12" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
@@ -4101,7 +4729,7 @@
       </c>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>83</v>
       </c>
@@ -4119,7 +4747,7 @@
       </c>
       <c r="E13" s="41"/>
     </row>
-    <row r="14" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>64</v>
       </c>
@@ -4135,7 +4763,7 @@
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>81</v>
       </c>
@@ -4153,7 +4781,7 @@
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>84</v>
       </c>
@@ -4171,7 +4799,7 @@
       </c>
       <c r="E16" s="41"/>
     </row>
-    <row r="17" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>72</v>
       </c>
@@ -4187,7 +4815,7 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>73</v>
       </c>
@@ -4205,7 +4833,7 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>74</v>
       </c>
@@ -4223,7 +4851,7 @@
       </c>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
@@ -4239,7 +4867,7 @@
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>76</v>
       </c>
@@ -4257,7 +4885,7 @@
       </c>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>77</v>
       </c>
@@ -4275,7 +4903,7 @@
       </c>
       <c r="E22" s="41"/>
     </row>
-    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -4292,56 +4920,56 @@
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -4355,29 +4983,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="12" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.1640625" style="20"/>
+    <col min="11" max="16384" width="10.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +5032,7 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -4417,13 +5045,13 @@
       </c>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4439,7 +5067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>103</v>
       </c>
@@ -4455,7 +5083,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>104</v>
       </c>
@@ -4471,7 +5099,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>101</v>
       </c>
@@ -4488,7 +5116,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>78</v>
       </c>
@@ -4505,7 +5133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
@@ -4525,7 +5153,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>82</v>
       </c>
@@ -4545,7 +5173,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>63</v>
       </c>
@@ -4568,7 +5196,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
     </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
@@ -4595,7 +5223,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>83</v>
       </c>
@@ -4622,7 +5250,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>64</v>
       </c>
@@ -4645,7 +5273,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>81</v>
       </c>
@@ -4672,7 +5300,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>84</v>
       </c>
@@ -4699,7 +5327,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>72</v>
       </c>
@@ -4722,7 +5350,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>73</v>
       </c>
@@ -4749,7 +5377,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>74</v>
       </c>
@@ -4776,7 +5404,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
@@ -4799,7 +5427,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>76</v>
       </c>
@@ -4826,7 +5454,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>77</v>
       </c>
@@ -4853,7 +5481,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -4879,7 +5507,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
@@ -4892,7 +5520,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -4903,7 +5531,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -4914,7 +5542,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -4925,7 +5553,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
@@ -4938,7 +5566,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -4949,7 +5577,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -4960,7 +5588,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -4971,7 +5599,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
@@ -4984,8 +5612,8 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -4998,7 +5626,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="40" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
@@ -5011,8 +5639,8 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
@@ -5032,28 +5660,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="20" customWidth="1"/>
-    <col min="6" max="8" width="15.83203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="20" customWidth="1"/>
+    <col min="6" max="8" width="15.85546875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="47" customWidth="1"/>
     <col min="10" max="10" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="21"/>
+    <col min="11" max="11" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5085,7 +5713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -5100,13 +5728,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -5133,7 +5761,7 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -5161,7 +5789,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -5195,7 +5823,7 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -5226,7 +5854,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -5255,7 +5883,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -5289,7 +5917,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -5323,7 +5951,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -5351,7 +5979,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -5382,7 +6010,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -5415,7 +6043,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -5445,7 +6073,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -5477,7 +6105,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -5510,7 +6138,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -5539,7 +6167,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -5571,7 +6199,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -5604,7 +6232,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -5640,7 +6268,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -5653,7 +6281,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="20"/>
@@ -5666,7 +6294,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5674,7 +6302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5684,17 +6312,17 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" style="21"/>
-    <col min="7" max="7" width="8.83203125" style="66"/>
-    <col min="8" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" style="21"/>
+    <col min="7" max="7" width="8.85546875" style="66"/>
+    <col min="8" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -5720,7 +6348,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -5742,7 +6370,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -5758,7 +6386,7 @@
       <c r="G3" s="84"/>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -5779,7 +6407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -5806,7 +6434,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -5835,7 +6463,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -5864,7 +6492,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -5889,7 +6517,7 @@
       </c>
       <c r="H8" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -5919,7 +6547,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -5948,7 +6576,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -5975,7 +6603,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6004,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6034,7 +6662,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -6063,7 +6691,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6092,7 +6720,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6121,7 +6749,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -6148,7 +6776,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6180,7 +6808,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6212,7 +6840,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -6240,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -6250,7 +6878,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -6260,7 +6888,7 @@
       <c r="G25" s="66"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -6270,7 +6898,7 @@
       <c r="G33" s="66"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -6287,7 +6915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6297,16 +6925,16 @@
       <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" style="21"/>
-    <col min="7" max="7" width="8.83203125" style="66"/>
-    <col min="8" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="2" width="12.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" style="21"/>
+    <col min="7" max="7" width="8.85546875" style="66"/>
+    <col min="8" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -6332,7 +6960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6354,7 +6982,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -6370,7 +6998,7 @@
       <c r="G3" s="84"/>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -6389,7 +7017,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="81"/>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -6416,7 +7044,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -6445,7 +7073,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -6474,7 +7102,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -6501,7 +7129,7 @@
       </c>
       <c r="H8" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -6531,7 +7159,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -6560,7 +7188,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -6586,7 +7214,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6615,7 +7243,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6645,7 +7273,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -6672,7 +7300,7 @@
       </c>
       <c r="H14" s="75"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6701,7 +7329,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6730,7 +7358,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -6757,7 +7385,7 @@
       </c>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6786,7 +7414,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6816,7 +7444,7 @@
       </c>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -6844,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -6854,7 +7482,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -6864,7 +7492,7 @@
       <c r="G25" s="66"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -6874,7 +7502,7 @@
       <c r="G33" s="66"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -6891,16 +7519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -6914,7 +7542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6926,7 +7554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -6936,7 +7564,7 @@
       </c>
       <c r="D3" s="76"/>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -6948,7 +7576,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -6963,7 +7591,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -6980,7 +7608,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -6997,7 +7625,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -7012,7 +7640,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -7029,7 +7657,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -7046,7 +7674,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -7061,7 +7689,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -7078,7 +7706,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -7095,7 +7723,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -7110,7 +7738,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -7127,7 +7755,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -7144,7 +7772,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -7159,7 +7787,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -7176,7 +7804,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -7193,7 +7821,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -2455,7 +2455,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10:I16"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,7 +2875,7 @@
         <v>dry cleft timber</v>
       </c>
       <c r="G10" s="58">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="H10" s="35">
         <v>55</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>78</v>
       </c>
@@ -2949,14 +2949,14 @@
         <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G11" s="132">
-        <v>1.65</v>
+      <c r="G11" s="58">
+        <v>1.81</v>
       </c>
       <c r="H11" s="133">
         <f>H$10</f>
         <v>55</v>
       </c>
-      <c r="I11" s="133">
+      <c r="I11" s="132">
         <f>I$10</f>
         <v>0.32</v>
       </c>
@@ -3011,13 +3011,13 @@
       </c>
       <c r="G12" s="3">
         <f>G11</f>
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="H12" s="100">
         <f>H11</f>
         <v>55</v>
       </c>
-      <c r="I12" s="100">
+      <c r="I12" s="121">
         <f>I11</f>
         <v>0.32</v>
       </c>
@@ -3073,13 +3073,13 @@
       </c>
       <c r="G13" s="58">
         <f>G11</f>
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="H13" s="129">
         <f>H11</f>
         <v>55</v>
       </c>
-      <c r="I13" s="129">
+      <c r="I13" s="59">
         <f>I11</f>
         <v>0.32</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="Q13" s="106"/>
       <c r="R13" s="106"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>63</v>
       </c>
@@ -3131,14 +3131,14 @@
         <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G14" s="121">
-        <v>1.65</v>
+      <c r="G14" s="58">
+        <v>1.81</v>
       </c>
       <c r="H14" s="133">
         <f>H$10</f>
         <v>55</v>
       </c>
-      <c r="I14" s="133">
+      <c r="I14" s="132">
         <f>I$10</f>
         <v>0.32</v>
       </c>
@@ -3194,13 +3194,13 @@
       </c>
       <c r="G15" s="3">
         <f>G14</f>
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="H15" s="100">
         <f>H14</f>
         <v>55</v>
       </c>
-      <c r="I15" s="100">
+      <c r="I15" s="121">
         <f>I14</f>
         <v>0.32</v>
       </c>
@@ -3256,13 +3256,13 @@
       </c>
       <c r="G16" s="58">
         <f>G14</f>
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="H16" s="129">
         <f>H14</f>
         <v>55</v>
       </c>
-      <c r="I16" s="129">
+      <c r="I16" s="59">
         <f>I14</f>
         <v>0.32</v>
       </c>
@@ -3291,7 +3291,7 @@
       <c r="Q16" s="106"/>
       <c r="R16" s="106"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>64</v>
       </c>
@@ -3314,14 +3314,14 @@
         <f t="shared" si="3"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G17" s="121">
-        <v>1.65</v>
+      <c r="G17" s="58">
+        <v>1.81</v>
       </c>
       <c r="H17" s="133">
         <f>H$10</f>
         <v>55</v>
       </c>
-      <c r="I17" s="133">
+      <c r="I17" s="132">
         <f>I$10</f>
         <v>0.32</v>
       </c>
@@ -3377,13 +3377,13 @@
       </c>
       <c r="G18" s="3">
         <f>G17</f>
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="H18" s="100">
         <f>H17</f>
         <v>55</v>
       </c>
-      <c r="I18" s="100">
+      <c r="I18" s="121">
         <f>I17</f>
         <v>0.32</v>
       </c>
@@ -3439,13 +3439,13 @@
       </c>
       <c r="G19" s="58">
         <f>G17</f>
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="H19" s="129">
         <f>H17</f>
         <v>55</v>
       </c>
-      <c r="I19" s="129">
+      <c r="I19" s="59">
         <f>I17</f>
         <v>0.32</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -3500,8 +3500,8 @@
         <f t="shared" ref="F20" si="6">F10</f>
         <v>dry cleft timber</v>
       </c>
-      <c r="G20" s="121">
-        <v>1.65</v>
+      <c r="G20" s="58">
+        <v>1.81</v>
       </c>
       <c r="H20" s="100"/>
       <c r="I20" s="121"/>
@@ -3759,7 +3759,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,7 +3810,7 @@
       <c r="J1" s="128" t="s">
         <v>141</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="130" t="s">
         <v>140</v>
       </c>
       <c r="L1" t="s">
@@ -3855,7 +3855,7 @@
       <c r="J2" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="109" t="s">
         <v>144</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="F3" s="130"/>
       <c r="J3" s="34"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="130" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4016,7 +4016,12 @@
       <c r="I6" s="27">
         <v>1.81</v>
       </c>
-      <c r="K6" s="108"/>
+      <c r="J6" s="21">
+        <v>55</v>
+      </c>
+      <c r="K6" s="108">
+        <v>0.32</v>
+      </c>
       <c r="L6" s="27">
         <v>0.1918</v>
       </c>
@@ -4070,12 +4075,7 @@
       <c r="I7" s="29">
         <v>1.81</v>
       </c>
-      <c r="J7" s="29">
-        <v>55</v>
-      </c>
-      <c r="K7" s="110">
-        <v>0.32</v>
-      </c>
+      <c r="K7" s="110"/>
       <c r="L7" s="29">
         <f t="shared" si="0"/>
         <v>0.21</v>
@@ -4134,11 +4134,11 @@
         <v>1.81</v>
       </c>
       <c r="J8" s="39">
-        <f>J7</f>
+        <f>J6</f>
         <v>55</v>
       </c>
-      <c r="K8" s="39">
-        <f>K7</f>
+      <c r="K8" s="135">
+        <f>K6</f>
         <v>0.32</v>
       </c>
       <c r="L8" s="33">
@@ -4205,7 +4205,7 @@
         <f>J8</f>
         <v>55</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="108">
         <f>K8</f>
         <v>0.32</v>
       </c>
@@ -4277,7 +4277,7 @@
         <f>J8</f>
         <v>55</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="110">
         <f>K8</f>
         <v>0.32</v>
       </c>
@@ -4339,11 +4339,11 @@
         <v>1.81</v>
       </c>
       <c r="J11" s="39">
-        <f>J7</f>
+        <f>J6</f>
         <v>55</v>
       </c>
-      <c r="K11" s="39">
-        <f>K7</f>
+      <c r="K11" s="135">
+        <f>K6</f>
         <v>0.32</v>
       </c>
       <c r="L11" s="33">
@@ -4410,7 +4410,7 @@
         <f>J11</f>
         <v>55</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="108">
         <f>K11</f>
         <v>0.32</v>
       </c>
@@ -4482,7 +4482,7 @@
         <f>J11</f>
         <v>55</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="110">
         <f>K11</f>
         <v>0.32</v>
       </c>
@@ -4526,11 +4526,11 @@
         <v>1.81</v>
       </c>
       <c r="J14">
-        <f>J7</f>
+        <f>J6</f>
         <v>55</v>
       </c>
-      <c r="K14">
-        <f>K7</f>
+      <c r="K14" s="108">
+        <f>K6</f>
         <v>0.32</v>
       </c>
     </row>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EE1FA1-84B2-584E-B5CB-86CA84A2810F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="598" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="CO2 Storage" sheetId="13" r:id="rId10"/>
     <sheet name="Ref" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +75,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -117,12 +118,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +604,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1095,8 +1096,8 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1373,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1383,18 +1384,18 @@
       <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" style="61" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="19.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.83203125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -1429,13 +1430,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
@@ -1449,7 +1450,7 @@
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -1466,7 +1467,7 @@
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -1502,7 +1503,7 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -1520,7 +1521,7 @@
       <c r="F8" s="61"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
         <v>80</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>83</v>
       </c>
@@ -1556,7 +1557,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>64</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -1606,7 +1607,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -1657,7 +1658,7 @@
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -1708,7 +1709,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -1725,7 +1726,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A26:G49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:G49">
     <sortCondition ref="A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1734,20 +1735,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="2" width="10.83203125" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -1782,13 +1783,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>83</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -2187,25 +2188,25 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
     </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2217,33 +2218,33 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -2252,7 +2253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -2361,24 +2362,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="16" t="s">
         <v>25</v>
@@ -2386,7 +2387,7 @@
       <c r="C16" s="16"/>
       <c r="H16" s="88"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
@@ -2395,7 +2396,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
@@ -2407,7 +2408,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="88"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>28</v>
       </c>
@@ -2417,7 +2418,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>37</v>
       </c>
@@ -2427,7 +2428,7 @@
       </c>
       <c r="E20" s="88"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>134</v>
       </c>
@@ -2448,38 +2449,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="123" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="34"/>
-    <col min="12" max="12" width="15.28515625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="112"/>
-    <col min="14" max="14" width="8.85546875" style="115"/>
-    <col min="16" max="16" width="8.85546875" style="112"/>
-    <col min="17" max="18" width="8.85546875" style="104"/>
-    <col min="20" max="22" width="8.85546875" style="34"/>
+    <col min="1" max="1" width="18.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="123" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="123" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="34"/>
+    <col min="12" max="12" width="15.33203125" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="112"/>
+    <col min="14" max="14" width="8.83203125" style="115"/>
+    <col min="16" max="16" width="8.83203125" style="112"/>
+    <col min="17" max="18" width="8.83203125" style="104"/>
+    <col min="20" max="22" width="8.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>113</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>121</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>119</v>
       </c>
@@ -2737,7 +2738,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>120</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="99" t="s">
         <v>128</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="99" t="s">
         <v>129</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>2.9325513196480935</v>
       </c>
       <c r="F10" s="29" t="str">
-        <f t="shared" ref="F10:O10" si="1">F9</f>
+        <f>F9</f>
         <v>dry cleft timber</v>
       </c>
       <c r="G10" s="58">
@@ -2884,27 +2885,27 @@
         <v>0.32</v>
       </c>
       <c r="J10" s="126">
-        <f t="shared" si="1"/>
+        <f>J9</f>
         <v>1.3819999999999999</v>
       </c>
       <c r="K10" s="29">
-        <f t="shared" si="1"/>
+        <f>K9</f>
         <v>0</v>
       </c>
       <c r="L10" s="29">
-        <f t="shared" si="1"/>
+        <f>L9</f>
         <v>1.3819999999999999</v>
       </c>
       <c r="M10" s="110">
-        <f t="shared" si="1"/>
+        <f>M9</f>
         <v>0</v>
       </c>
       <c r="N10" s="118">
-        <f t="shared" si="1"/>
+        <f>N9</f>
         <v>1.3160000000000001</v>
       </c>
       <c r="O10" s="29">
-        <f t="shared" si="1"/>
+        <f>O9</f>
         <v>0</v>
       </c>
       <c r="P10" s="120">
@@ -2914,19 +2915,19 @@
       <c r="Q10" s="106"/>
       <c r="R10" s="106"/>
       <c r="T10" s="35">
-        <f t="shared" ref="T10:V10" si="2">T5</f>
+        <f>T5</f>
         <v>0</v>
       </c>
       <c r="U10" s="35">
-        <f t="shared" si="2"/>
+        <f>U5</f>
         <v>0</v>
       </c>
       <c r="V10" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f>V5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>78</v>
       </c>
@@ -2938,15 +2939,15 @@
         <v>diesel</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:O19" si="3">D$9</f>
+        <f t="shared" ref="D11:O19" si="1">D$9</f>
         <v>0</v>
       </c>
       <c r="E11" s="131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F11" s="39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G11" s="58">
@@ -2961,31 +2962,31 @@
         <v>0.32</v>
       </c>
       <c r="J11" s="131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K11" s="134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M11" s="135"/>
       <c r="N11" s="136">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="135"/>
       <c r="Q11" s="137"/>
       <c r="R11" s="137"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>79</v>
       </c>
@@ -2994,19 +2995,19 @@
         <v>steel</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12:C19" si="4">C$9</f>
+        <f t="shared" ref="C12:C19" si="2">C$9</f>
         <v>diesel</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F12" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G12" s="3">
@@ -3022,24 +3023,24 @@
         <v>0.32</v>
       </c>
       <c r="J12" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K12" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L12" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M12" s="108"/>
       <c r="N12" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P12" s="108"/>
@@ -3047,7 +3048,7 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>82</v>
       </c>
@@ -3056,19 +3057,19 @@
         <v>steel</v>
       </c>
       <c r="C13" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>diesel</v>
       </c>
       <c r="D13" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F13" s="29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G13" s="58">
@@ -3084,31 +3085,31 @@
         <v>0.32</v>
       </c>
       <c r="J13" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K13" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L13" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M13" s="110"/>
       <c r="N13" s="118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O13" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P13" s="110"/>
       <c r="Q13" s="106"/>
       <c r="R13" s="106"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>63</v>
       </c>
@@ -3120,15 +3121,15 @@
         <v>diesel</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F14" s="122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G14" s="58">
@@ -3143,24 +3144,24 @@
         <v>0.32</v>
       </c>
       <c r="J14" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K14" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L14" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M14" s="108"/>
       <c r="N14" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P14" s="108"/>
@@ -3168,7 +3169,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>80</v>
       </c>
@@ -3177,19 +3178,19 @@
         <v>steel</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>diesel</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G15" s="3">
@@ -3205,24 +3206,24 @@
         <v>0.32</v>
       </c>
       <c r="J15" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K15" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L15" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M15" s="108"/>
       <c r="N15" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P15" s="108"/>
@@ -3230,7 +3231,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>83</v>
       </c>
@@ -3239,19 +3240,19 @@
         <v>steel</v>
       </c>
       <c r="C16" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>diesel</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F16" s="29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G16" s="58">
@@ -3267,31 +3268,31 @@
         <v>0.32</v>
       </c>
       <c r="J16" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K16" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L16" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M16" s="110"/>
       <c r="N16" s="118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O16" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P16" s="110"/>
       <c r="Q16" s="106"/>
       <c r="R16" s="106"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>64</v>
       </c>
@@ -3303,15 +3304,15 @@
         <v>diesel</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E17" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F17" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G17" s="58">
@@ -3326,24 +3327,24 @@
         <v>0.32</v>
       </c>
       <c r="J17" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L17" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M17" s="108"/>
       <c r="N17" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="108"/>
@@ -3351,7 +3352,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>81</v>
       </c>
@@ -3360,19 +3361,19 @@
         <v>steel</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>diesel</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E18" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F18" s="21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G18" s="3">
@@ -3388,24 +3389,24 @@
         <v>0.32</v>
       </c>
       <c r="J18" s="123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M18" s="108"/>
       <c r="N18" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="108"/>
@@ -3413,7 +3414,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:23" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>84</v>
       </c>
@@ -3422,19 +3423,19 @@
         <v>steel</v>
       </c>
       <c r="C19" s="29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>diesel</v>
       </c>
       <c r="D19" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F19" s="29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G19" s="58">
@@ -3450,24 +3451,24 @@
         <v>0.32</v>
       </c>
       <c r="J19" s="126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K19" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L19" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M19" s="110"/>
       <c r="N19" s="118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O19" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P19" s="110"/>
@@ -3477,7 +3478,7 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -3489,15 +3490,15 @@
         <v>diesel</v>
       </c>
       <c r="D20" s="27">
-        <f t="shared" ref="D20:W20" si="5">D10</f>
+        <f t="shared" ref="D20:W20" si="3">D10</f>
         <v>0.37466000000000005</v>
       </c>
       <c r="E20" s="127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F20" s="27" t="str">
-        <f t="shared" ref="F20" si="6">F10</f>
+        <f t="shared" ref="F20" si="4">F10</f>
         <v>dry cleft timber</v>
       </c>
       <c r="G20" s="58">
@@ -3506,27 +3507,27 @@
       <c r="H20" s="100"/>
       <c r="I20" s="121"/>
       <c r="J20" s="127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K20" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M20" s="111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N20" s="119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O20" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" s="111">
@@ -3536,215 +3537,215 @@
       <c r="Q20" s="107"/>
       <c r="R20" s="107"/>
       <c r="T20" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U20" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V20" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W20" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F47" s="21"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F48" s="21"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="21"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="21"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="21"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="21"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" s="21"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F56" s="21"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="21"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58" s="21"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="21"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="21"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62" s="21"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="21"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F64" s="21"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66" s="21"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="21"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="21"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="21"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F72" s="21"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="21"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F74" s="21"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F76" s="21"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="21"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F78" s="21"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="21"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="21"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F82" s="21"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="21"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F84" s="21"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="21"/>
     </row>
   </sheetData>
@@ -3755,31 +3756,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="108" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="108" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="108" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="108" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3880,7 +3881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>103</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>104</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>101</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -4166,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>74</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>77</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>137</v>
       </c>
@@ -4542,26 +4543,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15" style="21" customWidth="1"/>
     <col min="3" max="3" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.140625" style="20"/>
+    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -4587,13 +4588,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>103</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>104</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>101</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>78</v>
       </c>
@@ -4661,7 +4662,7 @@
       </c>
       <c r="E8" s="68"/>
     </row>
-    <row r="9" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>82</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>63</v>
       </c>
@@ -4711,7 +4712,7 @@
       </c>
       <c r="E11" s="68"/>
     </row>
-    <row r="12" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
@@ -4729,7 +4730,7 @@
       </c>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>83</v>
       </c>
@@ -4747,7 +4748,7 @@
       </c>
       <c r="E13" s="41"/>
     </row>
-    <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>64</v>
       </c>
@@ -4763,7 +4764,7 @@
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>81</v>
       </c>
@@ -4781,7 +4782,7 @@
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>84</v>
       </c>
@@ -4799,7 +4800,7 @@
       </c>
       <c r="E16" s="41"/>
     </row>
-    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>72</v>
       </c>
@@ -4815,7 +4816,7 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>73</v>
       </c>
@@ -4833,7 +4834,7 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>74</v>
       </c>
@@ -4851,7 +4852,7 @@
       </c>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
@@ -4867,7 +4868,7 @@
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>76</v>
       </c>
@@ -4885,7 +4886,7 @@
       </c>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>77</v>
       </c>
@@ -4903,7 +4904,7 @@
       </c>
       <c r="E22" s="41"/>
     </row>
-    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -4920,56 +4921,56 @@
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -4983,29 +4984,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="21" customWidth="1"/>
     <col min="2" max="2" width="12" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.140625" style="20"/>
+    <col min="11" max="16384" width="10.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5032,7 +5033,7 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -5045,13 +5046,13 @@
       </c>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -5067,7 +5068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>103</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>104</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>101</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>78</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>82</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>63</v>
       </c>
@@ -5196,7 +5197,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
     </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
@@ -5223,7 +5224,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>83</v>
       </c>
@@ -5250,7 +5251,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>64</v>
       </c>
@@ -5273,7 +5274,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>81</v>
       </c>
@@ -5300,7 +5301,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>84</v>
       </c>
@@ -5327,7 +5328,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>72</v>
       </c>
@@ -5350,7 +5351,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>73</v>
       </c>
@@ -5377,7 +5378,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>74</v>
       </c>
@@ -5404,7 +5405,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
@@ -5427,7 +5428,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>76</v>
       </c>
@@ -5454,7 +5455,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>77</v>
       </c>
@@ -5481,7 +5482,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>137</v>
       </c>
@@ -5507,7 +5508,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
@@ -5520,7 +5521,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -5531,7 +5532,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -5542,7 +5543,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -5553,7 +5554,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
@@ -5566,7 +5567,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -5577,7 +5578,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -5588,7 +5589,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -5599,7 +5600,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
@@ -5612,8 +5613,8 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -5626,7 +5627,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="40" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
@@ -5639,8 +5640,8 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
@@ -5660,28 +5661,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="20" customWidth="1"/>
-    <col min="6" max="8" width="15.85546875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="47" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="20" customWidth="1"/>
+    <col min="6" max="8" width="15.83203125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" style="47" customWidth="1"/>
     <col min="10" max="10" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="21"/>
+    <col min="11" max="11" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -5728,13 +5729,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -5761,7 +5762,7 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -5823,7 +5824,7 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -5917,7 +5918,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -5951,7 +5952,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6043,7 +6044,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -6073,7 +6074,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6138,7 +6139,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -6167,7 +6168,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6232,7 +6233,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -6281,7 +6282,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="20"/>
@@ -6294,7 +6295,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6302,7 +6303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6312,17 +6313,17 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" style="21"/>
-    <col min="7" max="7" width="8.85546875" style="66"/>
-    <col min="8" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="21"/>
+    <col min="7" max="7" width="8.83203125" style="66"/>
+    <col min="8" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6370,7 +6371,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -6386,7 +6387,7 @@
       <c r="G3" s="84"/>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -6407,7 +6408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -6434,7 +6435,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -6463,7 +6464,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -6517,7 +6518,7 @@
       </c>
       <c r="H8" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -6547,7 +6548,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6662,7 +6663,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -6878,7 +6879,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -6888,7 +6889,7 @@
       <c r="G25" s="66"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -6898,7 +6899,7 @@
       <c r="G33" s="66"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -6915,7 +6916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6925,16 +6926,16 @@
       <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" style="21"/>
-    <col min="7" max="7" width="8.85546875" style="66"/>
-    <col min="8" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="2" width="12.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="21"/>
+    <col min="7" max="7" width="8.83203125" style="66"/>
+    <col min="8" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -6960,7 +6961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6982,7 +6983,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -6998,7 +6999,7 @@
       <c r="G3" s="84"/>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -7017,7 +7018,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="81"/>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -7044,7 +7045,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -7129,7 +7130,7 @@
       </c>
       <c r="H8" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -7159,7 +7160,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -7243,7 +7244,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -7273,7 +7274,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -7300,7 +7301,7 @@
       </c>
       <c r="H14" s="75"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -7385,7 +7386,7 @@
       </c>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -7444,7 +7445,7 @@
       </c>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>137</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -7482,7 +7483,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -7492,7 +7493,7 @@
       <c r="G25" s="66"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -7502,7 +7503,7 @@
       <c r="G33" s="66"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -7519,16 +7520,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -7564,7 +7565,7 @@
       </c>
       <c r="D3" s="76"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -7657,7 +7658,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -7689,7 +7690,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -7787,7 +7788,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>137</v>
       </c>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EE1FA1-84B2-584E-B5CB-86CA84A2810F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB6AFF5-D134-7C45-836F-51A18A1E9A93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="598" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="147">
   <si>
     <t>scenario</t>
   </si>
@@ -599,6 +599,9 @@
   </si>
   <si>
     <t>100y time horizon; Guest et al 2013</t>
+  </si>
+  <si>
+    <t>t CO2eq/ t charcoal</t>
   </si>
 </sst>
 </file>
@@ -931,7 +934,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1092,6 +1095,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2453,10 +2457,10 @@
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2574,7 +2578,7 @@
         <v>111</v>
       </c>
       <c r="N2" s="116" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>100</v>
@@ -2734,6 +2738,7 @@
         <f>613*Ref!B18</f>
         <v>2.2067999999999999</v>
       </c>
+      <c r="Q6" s="138"/>
       <c r="W6" t="s">
         <v>127</v>
       </c>
@@ -2780,6 +2785,7 @@
         <f>1122*Ref!B18</f>
         <v>4.0392000000000001</v>
       </c>
+      <c r="Q7" s="138"/>
       <c r="W7" t="s">
         <v>127</v>
       </c>
@@ -2819,6 +2825,7 @@
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="Q8" s="138"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="99" t="s">
@@ -2855,6 +2862,7 @@
       <c r="O9">
         <v>0</v>
       </c>
+      <c r="Q9" s="138"/>
     </row>
     <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
@@ -2885,27 +2893,27 @@
         <v>0.32</v>
       </c>
       <c r="J10" s="126">
-        <f>J9</f>
+        <f t="shared" ref="J10:O10" si="1">J9</f>
         <v>1.3819999999999999</v>
       </c>
       <c r="K10" s="29">
-        <f>K9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="29">
-        <f>L9</f>
+        <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M10" s="110">
-        <f>M9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="118">
-        <f>N9</f>
+        <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O10" s="29">
-        <f>O9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P10" s="120">
@@ -2939,15 +2947,15 @@
         <v>diesel</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:O19" si="1">D$9</f>
+        <f t="shared" ref="D11:O19" si="2">D$9</f>
         <v>0</v>
       </c>
       <c r="E11" s="131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F11" s="39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G11" s="58">
@@ -2962,24 +2970,24 @@
         <v>0.32</v>
       </c>
       <c r="J11" s="131">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K11" s="134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="134">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M11" s="135"/>
       <c r="N11" s="136">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P11" s="135"/>
@@ -2995,19 +3003,19 @@
         <v>steel</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12:C19" si="2">C$9</f>
+        <f t="shared" ref="C12:C19" si="3">C$9</f>
         <v>diesel</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F12" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G12" s="3">
@@ -3023,24 +3031,24 @@
         <v>0.32</v>
       </c>
       <c r="J12" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K12" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M12" s="108"/>
       <c r="N12" s="115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P12" s="108"/>
@@ -3057,19 +3065,19 @@
         <v>steel</v>
       </c>
       <c r="C13" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>diesel</v>
       </c>
       <c r="D13" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F13" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G13" s="58">
@@ -3085,24 +3093,24 @@
         <v>0.32</v>
       </c>
       <c r="J13" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M13" s="110"/>
       <c r="N13" s="118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O13" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P13" s="110"/>
@@ -3121,15 +3129,15 @@
         <v>diesel</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F14" s="122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G14" s="58">
@@ -3144,24 +3152,24 @@
         <v>0.32</v>
       </c>
       <c r="J14" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K14" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M14" s="108"/>
       <c r="N14" s="115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P14" s="108"/>
@@ -3178,19 +3186,19 @@
         <v>steel</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>diesel</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F15" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G15" s="3">
@@ -3206,24 +3214,24 @@
         <v>0.32</v>
       </c>
       <c r="J15" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K15" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M15" s="108"/>
       <c r="N15" s="115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P15" s="108"/>
@@ -3240,19 +3248,19 @@
         <v>steel</v>
       </c>
       <c r="C16" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>diesel</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F16" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G16" s="58">
@@ -3268,24 +3276,24 @@
         <v>0.32</v>
       </c>
       <c r="J16" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K16" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M16" s="110"/>
       <c r="N16" s="118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O16" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P16" s="110"/>
@@ -3304,15 +3312,15 @@
         <v>diesel</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F17" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G17" s="58">
@@ -3327,24 +3335,24 @@
         <v>0.32</v>
       </c>
       <c r="J17" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K17" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M17" s="108"/>
       <c r="N17" s="115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P17" s="108"/>
@@ -3361,19 +3369,19 @@
         <v>steel</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>diesel</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F18" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G18" s="3">
@@ -3389,24 +3397,24 @@
         <v>0.32</v>
       </c>
       <c r="J18" s="123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M18" s="108"/>
       <c r="N18" s="115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P18" s="108"/>
@@ -3423,19 +3431,19 @@
         <v>steel</v>
       </c>
       <c r="C19" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>diesel</v>
       </c>
       <c r="D19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F19" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
       <c r="G19" s="58">
@@ -3451,24 +3459,24 @@
         <v>0.32</v>
       </c>
       <c r="J19" s="126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K19" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M19" s="110"/>
       <c r="N19" s="118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P19" s="110"/>
@@ -3490,15 +3498,15 @@
         <v>diesel</v>
       </c>
       <c r="D20" s="27">
-        <f t="shared" ref="D20:W20" si="3">D10</f>
+        <f t="shared" ref="D20:W20" si="4">D10</f>
         <v>0.37466000000000005</v>
       </c>
       <c r="E20" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9325513196480935</v>
       </c>
       <c r="F20" s="27" t="str">
-        <f t="shared" ref="F20" si="4">F10</f>
+        <f t="shared" ref="F20" si="5">F10</f>
         <v>dry cleft timber</v>
       </c>
       <c r="G20" s="58">
@@ -3507,27 +3515,27 @@
       <c r="H20" s="100"/>
       <c r="I20" s="121"/>
       <c r="J20" s="127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="K20" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3819999999999999</v>
       </c>
       <c r="M20" s="111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20" s="119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3160000000000001</v>
       </c>
       <c r="O20" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P20" s="111">
@@ -3537,19 +3545,19 @@
       <c r="Q20" s="107"/>
       <c r="R20" s="107"/>
       <c r="T20" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U20" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V20" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W20" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB6AFF5-D134-7C45-836F-51A18A1E9A93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="598" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="CO2 Storage" sheetId="13" r:id="rId10"/>
     <sheet name="Ref" sheetId="7" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,12 +74,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="O8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -118,12 +117,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="146">
   <si>
     <t>scenario</t>
   </si>
@@ -445,9 +444,6 @@
     <t>t / t syngas</t>
   </si>
   <si>
-    <t>syngas - wood</t>
-  </si>
-  <si>
     <t>CO2 to flue gas</t>
   </si>
   <si>
@@ -469,9 +465,6 @@
     <t>syngas_only</t>
   </si>
   <si>
-    <t>wood chips (EU no swiss, dry)</t>
-  </si>
-  <si>
     <t>syngas_ecoinvent</t>
   </si>
   <si>
@@ -602,12 +595,15 @@
   </si>
   <si>
     <t>t CO2eq/ t charcoal</t>
+  </si>
+  <si>
+    <t>dry wood chips (EU no swiss)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1100,8 +1096,8 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1378,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1388,23 +1384,23 @@
       <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.83203125" style="61" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="19.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.85546875" style="61" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>5</v>
@@ -1422,7 +1418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -1434,13 +1430,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
@@ -1454,12 +1450,12 @@
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="50">
         <v>0.05</v>
@@ -1471,7 +1467,7 @@
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1488,7 +1484,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -1507,12 +1503,12 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:7" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="50">
         <v>0.05</v>
@@ -1525,7 +1521,7 @@
       <c r="F8" s="61"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>80</v>
       </c>
@@ -1542,7 +1538,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>83</v>
       </c>
@@ -1561,12 +1557,12 @@
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="50">
         <v>0</v>
@@ -1575,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -1592,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -1611,12 +1607,12 @@
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="50">
         <v>0.05</v>
@@ -1626,7 +1622,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1643,7 +1639,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -1662,12 +1658,12 @@
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="50">
         <v>0.05</v>
@@ -1677,7 +1673,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1694,7 +1690,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -1713,12 +1709,12 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -1730,7 +1726,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:G49">
+  <sortState ref="A26:G49">
     <sortCondition ref="A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1739,25 +1735,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>55</v>
@@ -1766,13 +1762,13 @@
         <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -1784,16 +1780,16 @@
         <v>58</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -1811,12 +1807,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="39">
         <v>0.01</v>
@@ -1832,7 +1828,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1857,7 +1853,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -1882,12 +1878,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="21">
         <f>0.01</f>
@@ -1904,7 +1900,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -1929,7 +1925,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>83</v>
       </c>
@@ -1953,12 +1949,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="21">
         <f>0.01</f>
@@ -1975,7 +1971,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -2000,7 +1996,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -2025,12 +2021,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="21">
         <f>0.01</f>
@@ -2047,7 +2043,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -2072,7 +2068,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -2097,12 +2093,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="21">
         <v>0.01</v>
@@ -2118,7 +2114,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -2143,7 +2139,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -2168,12 +2164,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -2192,25 +2188,25 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
     </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2222,33 +2218,33 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -2257,7 +2253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2269,7 +2265,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -2281,7 +2277,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -2293,7 +2289,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2305,7 +2301,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -2317,7 +2313,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2329,7 +2325,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -2342,7 +2338,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -2354,7 +2350,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -2366,24 +2362,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="16" t="s">
         <v>25</v>
@@ -2391,7 +2387,7 @@
       <c r="C16" s="16"/>
       <c r="H16" s="88"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
@@ -2400,7 +2396,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
@@ -2412,7 +2408,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="88"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>28</v>
       </c>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>37</v>
       </c>
@@ -2432,7 +2428,7 @@
       </c>
       <c r="E20" s="88"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2441,9 +2437,9 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2453,43 +2449,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="123" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="34"/>
-    <col min="12" max="12" width="15.33203125" style="34" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="112"/>
-    <col min="14" max="14" width="8.83203125" style="115"/>
-    <col min="16" max="16" width="8.83203125" style="112"/>
-    <col min="17" max="18" width="8.83203125" style="104"/>
-    <col min="20" max="22" width="8.83203125" style="34"/>
+    <col min="1" max="1" width="18.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="123" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="34"/>
+    <col min="12" max="12" width="15.28515625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="112"/>
+    <col min="14" max="14" width="8.85546875" style="115"/>
+    <col min="16" max="16" width="8.85546875" style="112"/>
+    <col min="17" max="18" width="8.85546875" style="104"/>
+    <col min="20" max="22" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -2504,101 +2500,101 @@
         <v>88</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H1" s="128" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J1" s="123" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M1" s="112" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N1" s="115" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="112" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="W1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2" s="124" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H2" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="113" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" s="116" t="s">
-        <v>146</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="109" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="105"/>
       <c r="R2" s="105"/>
       <c r="T2" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U2" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V2" s="97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
@@ -2607,16 +2603,16 @@
       <c r="G3" s="3"/>
       <c r="H3" s="34"/>
       <c r="I3" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2626,7 +2622,7 @@
         <v>2.5226450000000002</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="121">
         <v>1.65</v>
@@ -2655,12 +2651,12 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <f>13.1*28.6/1000</f>
@@ -2671,7 +2667,7 @@
         <v>3.4621428571428576</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="34"/>
@@ -2695,13 +2691,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2711,7 +2707,7 @@
         <v>2.8461538461538463</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="34"/>
@@ -2740,16 +2736,16 @@
       </c>
       <c r="Q6" s="138"/>
       <c r="W6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2759,7 +2755,7 @@
         <v>2.8461538461538463</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="34"/>
@@ -2787,16 +2783,16 @@
       </c>
       <c r="Q7" s="138"/>
       <c r="W7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B8" s="99"/>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2806,7 +2802,7 @@
         <v>2.7472527472527473</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="34"/>
@@ -2827,13 +2823,13 @@
       </c>
       <c r="Q8" s="138"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2843,7 +2839,7 @@
         <v>2.9325513196480935</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="34"/>
@@ -2864,12 +2860,12 @@
       </c>
       <c r="Q9" s="138"/>
     </row>
-    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="29">
         <f>D5</f>
@@ -2935,12 +2931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>C$9</f>
@@ -2994,7 +2990,7 @@
       <c r="Q11" s="137"/>
       <c r="R11" s="137"/>
     </row>
-    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>79</v>
       </c>
@@ -3056,7 +3052,7 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>82</v>
       </c>
@@ -3117,12 +3113,12 @@
       <c r="Q13" s="106"/>
       <c r="R13" s="106"/>
     </row>
-    <row r="14" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" t="str">
         <f>C$9</f>
@@ -3177,7 +3173,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>80</v>
       </c>
@@ -3239,7 +3235,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>83</v>
       </c>
@@ -3300,12 +3296,12 @@
       <c r="Q16" s="106"/>
       <c r="R16" s="106"/>
     </row>
-    <row r="17" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" t="str">
         <f>C$9</f>
@@ -3360,7 +3356,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
         <v>81</v>
       </c>
@@ -3422,7 +3418,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:23" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64" t="s">
         <v>84</v>
       </c>
@@ -3486,12 +3482,12 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
-    <row r="20" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="27" t="str">
         <f>C10</f>
@@ -3561,199 +3557,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="21"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="21"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="21"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="21"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="21"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="21"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="21"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="21"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="21"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="21"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="21"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="21"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="21"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="21"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="21"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="21"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="21"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="21"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="21"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="21"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="21"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="21"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="21"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="21"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="21"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="21"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="21"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="21"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="21"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="21"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="21"/>
     </row>
   </sheetData>
@@ -3764,36 +3760,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="108" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="108" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="108" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="108" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -3814,19 +3810,19 @@
         <v>88</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J1" s="128" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K1" s="130" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N1" t="s">
         <v>92</v>
@@ -3838,13 +3834,13 @@
         <v>91</v>
       </c>
       <c r="Q1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3859,13 +3855,13 @@
         <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J2" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="109" t="s">
         <v>142</v>
-      </c>
-      <c r="K2" s="109" t="s">
-        <v>144</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>71</v>
@@ -3877,29 +3873,29 @@
         <v>93</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="130"/>
       <c r="J3" s="34"/>
       <c r="K3" s="130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -3918,8 +3914,8 @@
       <c r="G4" s="21">
         <v>0.78900000000000003</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>102</v>
+      <c r="H4" t="s">
+        <v>145</v>
       </c>
       <c r="I4" s="27">
         <v>1.81</v>
@@ -3948,9 +3944,9 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>59</v>
@@ -3968,8 +3964,8 @@
         <f>(0.36+0.01)/1.15</f>
         <v>0.32173913043478264</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>102</v>
+      <c r="H5" t="s">
+        <v>145</v>
       </c>
       <c r="I5" s="27">
         <v>1.81</v>
@@ -4000,9 +3996,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>59</v>
@@ -4019,8 +4015,8 @@
       <c r="G6" s="38">
         <v>1.52</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>102</v>
+      <c r="H6" t="s">
+        <v>145</v>
       </c>
       <c r="I6" s="27">
         <v>1.81</v>
@@ -4055,9 +4051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>C4</f>
@@ -4079,7 +4075,7 @@
         <v>0.6</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="29">
         <v>1.81</v>
@@ -4114,12 +4110,12 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>59</v>
@@ -4136,8 +4132,8 @@
       <c r="G8" s="43">
         <v>1.52</v>
       </c>
-      <c r="H8" s="39" t="s">
-        <v>102</v>
+      <c r="H8" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="I8" s="39">
         <v>1.81</v>
@@ -4175,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -4204,7 +4200,7 @@
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>wood chips (EU no swiss, dry)</v>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="I9">
         <f>I8</f>
@@ -4247,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>74</v>
       </c>
@@ -4276,7 +4272,7 @@
       </c>
       <c r="H10" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>wood chips (EU no swiss, dry)</v>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="I10" s="29">
         <f>I8</f>
@@ -4319,12 +4315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>59</v>
@@ -4341,8 +4337,8 @@
       <c r="G11" s="43">
         <v>1.52</v>
       </c>
-      <c r="H11" s="39" t="s">
-        <v>102</v>
+      <c r="H11" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="I11" s="39">
         <v>1.81</v>
@@ -4380,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -4409,7 +4405,7 @@
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
-        <v>wood chips (EU no swiss, dry)</v>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="I12">
         <f>I11</f>
@@ -4452,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>77</v>
       </c>
@@ -4481,7 +4477,7 @@
       </c>
       <c r="H13" s="29" t="str">
         <f t="shared" si="4"/>
-        <v>wood chips (EU no swiss, dry)</v>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="I13" s="29">
         <f>I11</f>
@@ -4524,12 +4520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I14">
         <v>1.81</v>
@@ -4551,31 +4547,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15" style="21" customWidth="1"/>
     <col min="3" max="3" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.1640625" style="20"/>
+    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>30</v>
@@ -4587,7 +4583,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -4596,13 +4592,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4614,9 +4610,9 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="67">
         <f>C4</f>
@@ -4627,9 +4623,9 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="67">
         <f>C4</f>
@@ -4640,9 +4636,9 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="55">
@@ -4654,12 +4650,12 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="67">
         <v>0.9</v>
@@ -4670,7 +4666,7 @@
       </c>
       <c r="E8" s="68"/>
     </row>
-    <row r="9" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
@@ -4687,7 +4683,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>82</v>
       </c>
@@ -4704,12 +4700,12 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="67">
         <v>0.9</v>
@@ -4720,7 +4716,7 @@
       </c>
       <c r="E11" s="68"/>
     </row>
-    <row r="12" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
@@ -4738,7 +4734,7 @@
       </c>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>83</v>
       </c>
@@ -4756,12 +4752,12 @@
       </c>
       <c r="E13" s="41"/>
     </row>
-    <row r="14" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="20">
         <v>0.9</v>
@@ -4772,7 +4768,7 @@
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>81</v>
       </c>
@@ -4790,7 +4786,7 @@
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>84</v>
       </c>
@@ -4808,12 +4804,12 @@
       </c>
       <c r="E16" s="41"/>
     </row>
-    <row r="17" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="20">
         <v>0.9</v>
@@ -4824,7 +4820,7 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>73</v>
       </c>
@@ -4842,7 +4838,7 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>74</v>
       </c>
@@ -4860,12 +4856,12 @@
       </c>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="20">
         <v>0.9</v>
@@ -4876,7 +4872,7 @@
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>76</v>
       </c>
@@ -4894,7 +4890,7 @@
       </c>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>77</v>
       </c>
@@ -4912,12 +4908,12 @@
       </c>
       <c r="E22" s="41"/>
     </row>
-    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" s="22">
         <f>C4</f>
@@ -4929,56 +4925,56 @@
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -4992,34 +4988,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="12" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.1640625" style="20"/>
+    <col min="11" max="16384" width="10.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>29</v>
@@ -5041,7 +5037,7 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -5054,13 +5050,13 @@
       </c>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -5076,9 +5072,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="20">
         <f>C4</f>
@@ -5092,9 +5088,9 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="47">
         <f>C4</f>
@@ -5108,9 +5104,9 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="41">
@@ -5125,12 +5121,12 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="62">
         <v>0.56599999999999995</v>
@@ -5142,7 +5138,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
@@ -5162,7 +5158,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>82</v>
       </c>
@@ -5182,12 +5178,12 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="62">
         <v>0.56599999999999995</v>
@@ -5205,7 +5201,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
     </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
@@ -5232,7 +5228,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>83</v>
       </c>
@@ -5259,12 +5255,12 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="62">
         <v>0.56599999999999995</v>
@@ -5282,7 +5278,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>81</v>
       </c>
@@ -5309,7 +5305,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="54" t="s">
         <v>84</v>
       </c>
@@ -5336,12 +5332,12 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="62">
         <v>0.56599999999999995</v>
@@ -5359,7 +5355,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>73</v>
       </c>
@@ -5386,7 +5382,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>74</v>
       </c>
@@ -5413,12 +5409,12 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="62">
         <v>0.56599999999999995</v>
@@ -5436,7 +5432,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>76</v>
       </c>
@@ -5463,7 +5459,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>77</v>
       </c>
@@ -5490,12 +5486,12 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" s="20">
         <f>C4</f>
@@ -5516,7 +5512,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
@@ -5529,7 +5525,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -5540,7 +5536,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -5551,7 +5547,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -5562,7 +5558,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
@@ -5575,7 +5571,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -5586,7 +5582,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -5597,7 +5593,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -5608,7 +5604,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
@@ -5621,8 +5617,8 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -5635,7 +5631,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="40" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
@@ -5648,8 +5644,8 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
@@ -5669,33 +5665,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="20" customWidth="1"/>
-    <col min="6" max="8" width="15.83203125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="20" customWidth="1"/>
+    <col min="6" max="8" width="15.85546875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="47" customWidth="1"/>
     <col min="10" max="10" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="21"/>
+    <col min="11" max="11" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>29</v>
@@ -5722,7 +5718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -5737,13 +5733,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -5759,8 +5755,8 @@
       <c r="F4" s="39">
         <v>0</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>62</v>
+      <c r="G4" t="s">
+        <v>145</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="65">
@@ -5770,12 +5766,12 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="16">
         <v>0.9</v>
@@ -5790,15 +5786,15 @@
       <c r="F5" s="39">
         <v>0</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>62</v>
+      <c r="G5" t="s">
+        <v>145</v>
       </c>
       <c r="I5" s="65">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -5821,8 +5817,8 @@
       <c r="F6" s="45">
         <v>1</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>62</v>
+      <c r="G6" t="s">
+        <v>145</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="65">
@@ -5832,7 +5828,7 @@
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -5855,20 +5851,20 @@
       <c r="F7" s="45">
         <v>1</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>62</v>
+      <c r="G7" t="s">
+        <v>145</v>
       </c>
       <c r="I7" s="59">
         <f>I5</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="16">
         <v>0.9</v>
@@ -5883,8 +5879,8 @@
       <c r="F8" s="39">
         <v>0</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>62</v>
+      <c r="G8" t="s">
+        <v>145</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="65">
@@ -5892,7 +5888,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -5915,8 +5911,8 @@
       <c r="F9" s="45">
         <v>1</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>62</v>
+      <c r="G9" t="s">
+        <v>145</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="65">
@@ -5926,7 +5922,7 @@
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -5949,8 +5945,8 @@
       <c r="F10" s="45">
         <v>1</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>62</v>
+      <c r="G10" t="s">
+        <v>145</v>
       </c>
       <c r="H10" s="36"/>
       <c r="I10" s="59">
@@ -5960,12 +5956,12 @@
       <c r="J10" s="41"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="70">
         <v>0.9</v>
@@ -5979,8 +5975,8 @@
       <c r="F11" s="39">
         <v>0</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>62</v>
+      <c r="G11" t="s">
+        <v>145</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="65">
@@ -5988,7 +5984,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6010,8 +6006,8 @@
       <c r="F12" s="45">
         <v>1</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>62</v>
+      <c r="G12" t="s">
+        <v>145</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="65">
@@ -6019,7 +6015,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6041,8 +6037,8 @@
       <c r="F13" s="45">
         <v>1</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>62</v>
+      <c r="G13" t="s">
+        <v>145</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="59">
@@ -6052,12 +6048,12 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="70">
         <v>0.9</v>
@@ -6071,8 +6067,8 @@
       <c r="F14" s="39">
         <v>0</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>94</v>
+      <c r="G14" t="s">
+        <v>145</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="65">
@@ -6082,7 +6078,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6105,8 +6101,8 @@
       <c r="F15" s="45">
         <v>1</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>94</v>
+      <c r="G15" t="s">
+        <v>145</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="65">
@@ -6114,7 +6110,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6136,8 +6132,8 @@
       <c r="F16" s="45">
         <v>1</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>94</v>
+      <c r="G16" t="s">
+        <v>145</v>
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="59">
@@ -6147,12 +6143,12 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="70">
         <v>0.9</v>
@@ -6166,8 +6162,8 @@
       <c r="F17" s="39">
         <v>0</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>94</v>
+      <c r="G17" t="s">
+        <v>145</v>
       </c>
       <c r="I17" s="65">
         <f>(25.3/4.6668)*Ref!B$18</f>
@@ -6176,7 +6172,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6195,8 @@
       <c r="F18" s="45">
         <v>1</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>94</v>
+      <c r="G18" t="s">
+        <v>145</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="65">
@@ -6208,7 +6204,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6230,8 +6226,8 @@
       <c r="F19" s="45">
         <v>1</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>94</v>
+      <c r="G19" t="s">
+        <v>145</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="59">
@@ -6241,12 +6237,12 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="10">
         <f>C5</f>
@@ -6266,7 +6262,7 @@
       </c>
       <c r="G20" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>charcoal - IPCC</v>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="2"/>
@@ -6277,7 +6273,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -6290,7 +6286,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="20"/>
@@ -6303,7 +6299,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6311,7 +6307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6321,22 +6317,22 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" style="21"/>
-    <col min="7" max="7" width="8.83203125" style="66"/>
-    <col min="8" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" style="21"/>
+    <col min="7" max="7" width="8.85546875" style="66"/>
+    <col min="8" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>44</v>
@@ -6357,7 +6353,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6379,7 +6375,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -6395,7 +6391,7 @@
       <c r="G3" s="84"/>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -6416,12 +6412,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="43">
         <v>1</v>
@@ -6443,7 +6439,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -6472,7 +6468,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -6501,12 +6497,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="77">
         <v>1</v>
@@ -6526,7 +6522,7 @@
       </c>
       <c r="H8" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -6556,7 +6552,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -6585,12 +6581,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="43">
         <v>1</v>
@@ -6609,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6641,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6671,12 +6667,12 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="43">
         <v>1</v>
@@ -6697,10 +6693,10 @@
         <v>1E-3</v>
       </c>
       <c r="H14" s="75" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6729,7 +6725,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6758,12 +6754,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="43">
         <v>1</v>
@@ -6782,10 +6778,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6814,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6846,15 +6842,15 @@
         <v>0</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -6877,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -6887,7 +6883,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -6897,7 +6893,7 @@
       <c r="G25" s="66"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -6907,7 +6903,7 @@
       <c r="G33" s="66"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -6924,7 +6920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6934,21 +6930,21 @@
       <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" style="21"/>
-    <col min="7" max="7" width="8.83203125" style="66"/>
-    <col min="8" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="2" width="12.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" style="21"/>
+    <col min="7" max="7" width="8.85546875" style="66"/>
+    <col min="8" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="71" t="s">
         <v>44</v>
@@ -6969,7 +6965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6991,7 +6987,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -7007,7 +7003,7 @@
       <c r="G3" s="84"/>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -7026,12 +7022,12 @@
       <c r="G4" s="28"/>
       <c r="H4" s="81"/>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="43">
         <v>1</v>
@@ -7053,7 +7049,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -7082,7 +7078,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -7111,12 +7107,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="43">
         <v>1</v>
@@ -7138,7 +7134,7 @@
       </c>
       <c r="H8" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -7168,7 +7164,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -7197,12 +7193,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="43">
         <v>1</v>
@@ -7223,7 +7219,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -7252,7 +7248,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -7282,12 +7278,12 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="43">
         <v>1</v>
@@ -7309,7 +7305,7 @@
       </c>
       <c r="H14" s="75"/>
     </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -7338,7 +7334,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -7367,12 +7363,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="43">
         <v>1</v>
@@ -7394,7 +7390,7 @@
       </c>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -7423,7 +7419,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -7453,12 +7449,12 @@
       </c>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -7481,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -7491,7 +7487,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -7501,7 +7497,7 @@
       <c r="G25" s="66"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -7511,7 +7507,7 @@
       <c r="G33" s="66"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -7528,42 +7524,42 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D1" s="72" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -7573,7 +7569,7 @@
       </c>
       <c r="D3" s="76"/>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -7585,12 +7581,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="43">
         <v>0</v>
@@ -7600,7 +7596,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -7617,7 +7613,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -7634,12 +7630,12 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="43">
         <v>0</v>
@@ -7649,7 +7645,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -7683,12 +7679,12 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="43">
         <v>0</v>
@@ -7698,7 +7694,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -7715,7 +7711,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -7732,12 +7728,12 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="43">
         <v>0</v>
@@ -7747,7 +7743,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -7764,7 +7760,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -7781,12 +7777,12 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="43">
         <v>0</v>
@@ -7796,7 +7792,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -7813,7 +7809,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -7830,12 +7826,12 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="24">
         <f>C4</f>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -3764,7 +3764,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4126,8 +4126,8 @@
       <c r="E8" s="39">
         <v>0</v>
       </c>
-      <c r="F8" s="135" t="s">
-        <v>62</v>
+      <c r="F8" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="G8" s="43">
         <v>1.52</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="F9" s="108" t="str">
         <f t="shared" si="1"/>
-        <v>charcoal - IPCC</v>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="F10" s="110" t="str">
         <f t="shared" si="2"/>
-        <v>charcoal - IPCC</v>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="2"/>
@@ -4331,8 +4331,8 @@
       <c r="E11" s="39">
         <v>0</v>
       </c>
-      <c r="F11" s="135" t="s">
-        <v>62</v>
+      <c r="F11" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="G11" s="43">
         <v>1.52</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="F12" s="108" t="str">
         <f t="shared" si="3"/>
-        <v>charcoal - IPCC</v>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="F13" s="110" t="str">
         <f t="shared" si="4"/>
-        <v>charcoal - IPCC</v>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="4"/>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="147">
   <si>
     <t>scenario</t>
   </si>
@@ -598,6 +598,9 @@
   </si>
   <si>
     <t>dry wood chips (EU no swiss)</t>
+  </si>
+  <si>
+    <t>dry wood chips (EU no swiss) also</t>
   </si>
 </sst>
 </file>
@@ -3764,7 +3767,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3773,7 +3776,7 @@
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="108" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="108" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
@@ -4127,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="43">
         <v>1.52</v>
@@ -4192,7 +4195,7 @@
       </c>
       <c r="F9" s="108" t="str">
         <f t="shared" si="1"/>
-        <v>dry wood chips (EU no swiss)</v>
+        <v>dry wood chips (EU no swiss) also</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -4264,7 +4267,7 @@
       </c>
       <c r="F10" s="110" t="str">
         <f t="shared" si="2"/>
-        <v>dry wood chips (EU no swiss)</v>
+        <v>dry wood chips (EU no swiss) also</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" si="2"/>
@@ -4332,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G11" s="43">
         <v>1.52</v>
@@ -4397,7 +4400,7 @@
       </c>
       <c r="F12" s="108" t="str">
         <f t="shared" si="3"/>
-        <v>dry wood chips (EU no swiss)</v>
+        <v>dry wood chips (EU no swiss) also</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
@@ -4469,7 +4472,7 @@
       </c>
       <c r="F13" s="110" t="str">
         <f t="shared" si="4"/>
-        <v>dry wood chips (EU no swiss)</v>
+        <v>dry wood chips (EU no swiss) also</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" si="4"/>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="148">
   <si>
     <t>scenario</t>
   </si>
@@ -601,6 +601,9 @@
   </si>
   <si>
     <t>dry wood chips (EU no swiss) also</t>
+  </si>
+  <si>
+    <t>EU-BAT</t>
   </si>
 </sst>
 </file>
@@ -3766,7 +3769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -4994,8 +4997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5516,11 +5519,24 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="A24" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="20">
+        <f>C5</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D24" s="20">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="20" t="str">
+        <f>E5</f>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="152">
   <si>
     <t>scenario</t>
   </si>
@@ -604,6 +604,18 @@
   </si>
   <si>
     <t>EU-BAT</t>
+  </si>
+  <si>
+    <t>Solvent Type</t>
+  </si>
+  <si>
+    <t>Schakel-HC</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>CaCO3</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1757,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+      <selection activeCell="A20" sqref="A20:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,6 +2204,19 @@
       <c r="F20" s="21">
         <f>F4</f>
         <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="21">
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2462,7 +2487,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4556,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,15 +4957,23 @@
       <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="A24" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>149</v>
+      </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="50">
+        <f>180*Ref!B$18</f>
+        <v>0.64800000000000002</v>
+      </c>
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -4997,7 +5030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -5500,15 +5533,15 @@
         <v>136</v>
       </c>
       <c r="C23" s="20">
-        <f>C4</f>
+        <f t="shared" ref="C23:E24" si="2">C4</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D23" s="20">
-        <f>D4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E23" s="20" t="str">
-        <f>E4</f>
+        <f t="shared" si="2"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F23" s="20"/>
@@ -5526,15 +5559,15 @@
         <v>136</v>
       </c>
       <c r="C24" s="20">
-        <f>C5</f>
+        <f t="shared" si="2"/>
         <v>0.56599999999999995</v>
       </c>
       <c r="D24" s="20">
-        <f>D5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24" s="20" t="str">
-        <f>E5</f>
+        <f t="shared" si="2"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F24" s="20"/>
@@ -6327,13 +6360,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20:G20"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,12 +6374,12 @@
     <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" style="21"/>
-    <col min="7" max="7" width="8.85546875" style="66"/>
-    <col min="8" max="16384" width="8.85546875" style="21"/>
+    <col min="4" max="7" width="8.85546875" style="21"/>
+    <col min="8" max="8" width="15.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -6366,13 +6399,16 @@
         <v>46</v>
       </c>
       <c r="G1" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="I1" s="72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6389,12 +6425,13 @@
       <c r="F2" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="76"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="76"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -6407,10 +6444,11 @@
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="76"/>
-    </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="76"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="76"/>
+    </row>
+    <row r="4" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -6426,12 +6464,13 @@
       <c r="F4" s="80">
         <v>0</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="81" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="81" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -6452,13 +6491,16 @@
         <f>3.7667/1.243</f>
         <v>3.0303298471440061</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="22">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="H5" s="75"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="75"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -6482,12 +6524,16 @@
         <f t="shared" si="0"/>
         <v>3.0303298471440061</v>
       </c>
-      <c r="G6" s="95">
+      <c r="G6" s="38" t="str">
         <f>G5</f>
+        <v>MEA</v>
+      </c>
+      <c r="H6" s="95">
+        <f>H5</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -6511,12 +6557,16 @@
         <f t="shared" si="1"/>
         <v>3.0303298471440061</v>
       </c>
-      <c r="G7" s="96">
-        <f>G5</f>
+      <c r="G7" s="38" t="str">
+        <f>G6</f>
+        <v>MEA</v>
+      </c>
+      <c r="H7" s="96">
+        <f>H5</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -6535,13 +6585,16 @@
       <c r="F8" s="77">
         <v>0</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="22">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="H8" s="78"/>
-    </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="78"/>
+    </row>
+    <row r="9" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -6565,13 +6618,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="38" t="str">
         <f>G8</f>
+        <v>MEA</v>
+      </c>
+      <c r="H9" s="95">
+        <f>H8</f>
         <v>1E-3</v>
       </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -6595,12 +6652,16 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="96">
-        <f>G8</f>
+      <c r="G10" s="38" t="str">
+        <f>G9</f>
+        <v>MEA</v>
+      </c>
+      <c r="H10" s="96">
+        <f>H8</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -6620,14 +6681,17 @@
       <c r="F11" s="43">
         <v>0</v>
       </c>
-      <c r="G11" s="50">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21" t="s">
+      <c r="G11" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="50">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6651,12 +6715,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="38" t="str">
         <f>G11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>MEA</v>
+      </c>
+      <c r="H12" s="49">
+        <f>H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6680,13 +6748,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G13" s="83">
-        <f>G11</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="38" t="str">
+        <f>G12</f>
+        <v>MEA</v>
+      </c>
+      <c r="H13" s="83">
+        <f>H11</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -6707,15 +6779,18 @@
         <f>3.7667/1.243</f>
         <v>3.0303298471440061</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="22">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="H14" s="75" t="s">
+      <c r="I14" s="75" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6739,12 +6814,16 @@
         <f t="shared" si="6"/>
         <v>3.0303298471440061</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="38" t="str">
         <f>G14</f>
+        <v>MEA</v>
+      </c>
+      <c r="H15" s="49">
+        <f>H14</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6768,12 +6847,16 @@
         <f t="shared" si="7"/>
         <v>3.0303298471440061</v>
       </c>
-      <c r="G16" s="83">
-        <f>G14</f>
+      <c r="G16" s="38" t="str">
+        <f>G15</f>
+        <v>MEA</v>
+      </c>
+      <c r="H16" s="83">
+        <f>H14</f>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -6793,14 +6876,17 @@
       <c r="F17" s="43">
         <v>0</v>
       </c>
-      <c r="G17" s="39">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21" t="s">
+      <c r="G17" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="39">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6824,15 +6910,19 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="38" t="str">
         <f>G17</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="21" t="s">
+        <v>MEA</v>
+      </c>
+      <c r="H18" s="26">
+        <f>H17</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6856,15 +6946,19 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G19" s="58">
-        <f>G17</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="21" t="s">
+      <c r="G19" s="38" t="str">
+        <f>G18</f>
+        <v>MEA</v>
+      </c>
+      <c r="H19" s="58">
+        <f>H17</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6876,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="21">
-        <f t="shared" ref="D20:G20" si="10">D4</f>
+        <f t="shared" ref="D20:H20" si="10">D4</f>
         <v>0.9</v>
       </c>
       <c r="E20" s="21">
@@ -6887,50 +6981,69 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+    <row r="21" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="21"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="33" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="21"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="37" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7544,10 +7657,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A20" sqref="A20:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7861,6 +7974,20 @@
         <v>0.32</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="43">
+        <f>94*Ref!$B$18</f>
+        <v>0.33839999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Electricity" sheetId="9" r:id="rId5"/>
     <sheet name="Heat" sheetId="18" r:id="rId6"/>
     <sheet name="CO2 Capture" sheetId="12" r:id="rId7"/>
-    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId8"/>
-    <sheet name="CO2 Compress" sheetId="24" r:id="rId9"/>
-    <sheet name="CO2 Storage" sheetId="13" r:id="rId10"/>
-    <sheet name="Ref" sheetId="7" r:id="rId11"/>
+    <sheet name="CLC Capture" sheetId="25" r:id="rId8"/>
+    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId9"/>
+    <sheet name="CO2 Compress" sheetId="24" r:id="rId10"/>
+    <sheet name="CO2 Storage" sheetId="13" r:id="rId11"/>
+    <sheet name="Ref" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -119,6 +120,40 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Samantha Eleanor Tanzer - TBM</author>
+  </authors>
+  <commentList>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Samantha Eleanor Tanzer - TBM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+prev 0.071/0.6</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
@@ -160,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="166">
   <si>
     <t>scenario</t>
   </si>
@@ -609,13 +644,55 @@
     <t>Solvent Type</t>
   </si>
   <si>
-    <t>Schakel-HC</t>
-  </si>
-  <si>
     <t>MEA</t>
   </si>
   <si>
-    <t>CaCO3</t>
+    <t>Schakel2018</t>
+  </si>
+  <si>
+    <t>Schakel2018-0B</t>
+  </si>
+  <si>
+    <t>Schakel2018-HB</t>
+  </si>
+  <si>
+    <t>O2 demand</t>
+  </si>
+  <si>
+    <t>t O2/t CO2</t>
+  </si>
+  <si>
+    <t>CaCO3 demand</t>
+  </si>
+  <si>
+    <t>for CLC</t>
+  </si>
+  <si>
+    <t>t CaCO3/tCO2</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Fuel Energy Demand</t>
+  </si>
+  <si>
+    <t>Fossil Fuel Type</t>
+  </si>
+  <si>
+    <t>Biofuel Cofire Rate</t>
+  </si>
+  <si>
+    <t>Biofuel Type</t>
+  </si>
+  <si>
+    <t>coal bituminous - IPCC</t>
+  </si>
+  <si>
+    <t>GJ fuel / t flue gas CO2</t>
+  </si>
+  <si>
+    <t>t O2/t CO2 out</t>
   </si>
 </sst>
 </file>
@@ -628,7 +705,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +856,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -948,7 +1038,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1110,6 +1200,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1754,16 +1845,366 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="76"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="43">
+        <v>0</v>
+      </c>
+      <c r="D4" s="80">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="25" t="str">
+        <f>B5</f>
+        <v>steel</v>
+      </c>
+      <c r="C6" s="38">
+        <f>C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" ref="D6" si="0">D$5</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="30" t="str">
+        <f>B5</f>
+        <v>steel</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" ref="C7:D7" si="1">C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="37">
+        <f t="shared" si="1"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="43">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="25" t="str">
+        <f>B8</f>
+        <v>steel</v>
+      </c>
+      <c r="C9" s="38">
+        <f t="shared" ref="C9" si="2">C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="38">
+        <f>D8</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="30" t="str">
+        <f>B8</f>
+        <v>steel</v>
+      </c>
+      <c r="C10" s="37">
+        <f t="shared" ref="C10:D10" si="3">C8</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <f t="shared" si="3"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="43">
+        <v>0</v>
+      </c>
+      <c r="D11" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="25" t="str">
+        <f>B11</f>
+        <v>steel</v>
+      </c>
+      <c r="C12" s="38">
+        <f t="shared" ref="C12:D12" si="4">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="4"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="30" t="str">
+        <f>B11</f>
+        <v>steel</v>
+      </c>
+      <c r="C13" s="37">
+        <f t="shared" ref="C13:D13" si="5">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <f t="shared" si="5"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="43">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="25" t="str">
+        <f>B14</f>
+        <v>steel</v>
+      </c>
+      <c r="C15" s="38">
+        <f t="shared" ref="C15:D15" si="6">C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="6"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f>B14</f>
+        <v>steel</v>
+      </c>
+      <c r="C16" s="37">
+        <f t="shared" ref="C16:D16" si="7">C14</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="37">
+        <f t="shared" si="7"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="43">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="25" t="str">
+        <f>B17</f>
+        <v>steel</v>
+      </c>
+      <c r="C18" s="38">
+        <f t="shared" ref="C18:D18" si="8">C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="38">
+        <f t="shared" si="8"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="30" t="str">
+        <f>B17</f>
+        <v>steel</v>
+      </c>
+      <c r="C19" s="37">
+        <f t="shared" ref="C19:D19" si="9">C17</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="37">
+        <f t="shared" si="9"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="24">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <f>D4</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="43">
+        <f>94*Ref!$B$18</f>
+        <v>0.33839999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="43">
+        <f>94*Ref!$B$18</f>
+        <v>0.33839999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A22"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.85546875" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="21"/>
+    <col min="3" max="4" width="8.85546875" style="21"/>
+    <col min="5" max="5" width="12.85546875" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2210,20 +2651,46 @@
       <c r="A21" s="21" t="s">
         <v>147</v>
       </c>
+      <c r="B21" s="21" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="C22" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="E22" s="21">
+        <v>100</v>
+      </c>
+      <c r="F22" s="139">
+        <f>14.2*Ref!$B$18</f>
+        <v>5.1119999999999999E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="21">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="D23" s="21"/>
+      <c r="E23" s="26">
+        <v>100</v>
+      </c>
+      <c r="F23" s="139">
+        <f>14.2*Ref!$B$18</f>
+        <v>5.1119999999999999E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
@@ -2248,7 +2715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -3795,7 +4262,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,7 +5434,7 @@
     </row>
     <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="50">
@@ -5721,12 +6188,12 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E22" sqref="E22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
@@ -6301,11 +6768,10 @@
         <v>0.9</v>
       </c>
       <c r="D20" s="10">
-        <f t="shared" ref="D20:I20" si="2">D5</f>
-        <v>0.86374002280501716</v>
+        <v>0</v>
       </c>
       <c r="E20" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D20:I22" si="2">E5</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F20" s="10">
@@ -6326,17 +6792,59 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="A21" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
       <c r="H21" s="20"/>
       <c r="I21" s="47"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
     </row>
     <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
@@ -6360,26 +6868,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:A22"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875" style="21"/>
+    <col min="2" max="2" width="16.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="21" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="21"/>
+    <col min="9" max="10" width="15.5703125" style="66" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -6405,10 +6917,16 @@
         <v>66</v>
       </c>
       <c r="I1" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6429,9 +6947,15 @@
       <c r="H2" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -6446,9 +6970,13 @@
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
       <c r="H3" s="84"/>
-      <c r="I3" s="76"/>
-    </row>
-    <row r="4" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="84"/>
+      <c r="J3" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -6466,11 +6994,13 @@
       </c>
       <c r="G4" s="80"/>
       <c r="H4" s="28"/>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="81" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -6492,15 +7022,17 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="22">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="I5" s="75"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="75"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -6532,8 +7064,10 @@
         <f>H5</f>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+    </row>
+    <row r="7" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -6565,8 +7099,10 @@
         <f>H5</f>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -6586,15 +7122,17 @@
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H8" s="22">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="I8" s="78"/>
-    </row>
-    <row r="9" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="78"/>
+    </row>
+    <row r="9" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -6626,9 +7164,11 @@
         <f>H8</f>
         <v>1E-3</v>
       </c>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -6660,8 +7200,10 @@
         <f>H8</f>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -6682,16 +7224,18 @@
         <v>0</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="50">
         <v>0</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6723,8 +7267,10 @@
         <f>H11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6756,9 +7302,11 @@
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -6780,17 +7328,19 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H14" s="22">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
-      <c r="I14" s="75" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="75" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6822,8 +7372,10 @@
         <f>H14</f>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+    </row>
+    <row r="16" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6855,8 +7407,10 @@
         <f>H14</f>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -6877,16 +7431,16 @@
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H17" s="39">
         <v>0</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="K17" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6918,11 +7472,13 @@
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6954,11 +7510,13 @@
         <f>H17</f>
         <v>0</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6982,14 +7540,16 @@
         <v>0</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>147</v>
       </c>
@@ -6999,20 +7559,58 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21" s="66"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="21" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E22" s="21">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F22" s="21">
+        <v>5.82</v>
+      </c>
+      <c r="I22" s="66">
+        <f>0.49/1.43</f>
+        <v>0.34265734265734266</v>
+      </c>
+      <c r="J22" s="66">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="21">
+        <f>6.22*Ref!$B$18</f>
+        <v>2.2391999999999999E-2</v>
+      </c>
+      <c r="F23" s="21">
+        <v>4.95</v>
+      </c>
+      <c r="I23" s="26">
+        <f>0.34/1.23</f>
+        <v>0.27642276422764228</v>
+      </c>
+      <c r="J23" s="66">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -7021,9 +7619,11 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="66"/>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="33" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="33" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -7032,9 +7632,11 @@
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
       <c r="H33" s="66"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="37" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="37" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -7043,7 +7645,9 @@
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="66"/>
-      <c r="I37" s="21"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7052,6 +7656,309 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18" style="21" customWidth="1"/>
+    <col min="6" max="6" width="23" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="66" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="66" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="76"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="84"/>
+      <c r="M3" s="76"/>
+    </row>
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="79">
+        <v>1</v>
+      </c>
+      <c r="D4" s="80">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="80">
+        <v>1.05</v>
+      </c>
+      <c r="F4" s="80">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="28"/>
+      <c r="M4" s="81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="21">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <f t="shared" ref="D5:F5" si="0">D4</f>
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="66"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="21">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F7" s="21">
+        <f>5.82/(0.74/0.85)</f>
+        <v>6.6851351351351349</v>
+      </c>
+      <c r="G7" s="66">
+        <f>0.22/(0.74/0.85)</f>
+        <v>0.25270270270270268</v>
+      </c>
+      <c r="H7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="66">
+        <f>0.49/1.43</f>
+        <v>0.34265734265734266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="21">
+        <f>6.22*Ref!$B$18</f>
+        <v>2.2391999999999999E-2</v>
+      </c>
+      <c r="F8" s="21">
+        <f>4.95/(0.74/0.85)</f>
+        <v>5.6858108108108105</v>
+      </c>
+      <c r="G8" s="66">
+        <f>0.09/(0.74/0.85)</f>
+        <v>0.10337837837837838</v>
+      </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="26">
+        <f>0.34/1.23</f>
+        <v>0.27642276422764228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="66"/>
+      <c r="M10" s="21"/>
+    </row>
+    <row r="18" spans="1:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="66"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="22" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="66"/>
+      <c r="M22" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
@@ -7059,7 +7966,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7653,342 +8560,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="76"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="43">
-        <v>0</v>
-      </c>
-      <c r="D4" s="80">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="43">
-        <v>0</v>
-      </c>
-      <c r="D5" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="25" t="str">
-        <f>B5</f>
-        <v>steel</v>
-      </c>
-      <c r="C6" s="38">
-        <f>C$5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="38">
-        <f t="shared" ref="D6" si="0">D$5</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="30" t="str">
-        <f>B5</f>
-        <v>steel</v>
-      </c>
-      <c r="C7" s="37">
-        <f t="shared" ref="C7:D7" si="1">C$5</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="37">
-        <f t="shared" si="1"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="43">
-        <v>0</v>
-      </c>
-      <c r="D8" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="25" t="str">
-        <f>B8</f>
-        <v>steel</v>
-      </c>
-      <c r="C9" s="38">
-        <f t="shared" ref="C9" si="2">C8</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="38">
-        <f>D8</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="30" t="str">
-        <f>B8</f>
-        <v>steel</v>
-      </c>
-      <c r="C10" s="37">
-        <f t="shared" ref="C10:D10" si="3">C8</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="37">
-        <f t="shared" si="3"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="43">
-        <v>0</v>
-      </c>
-      <c r="D11" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="25" t="str">
-        <f>B11</f>
-        <v>steel</v>
-      </c>
-      <c r="C12" s="38">
-        <f t="shared" ref="C12:D12" si="4">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="38">
-        <f t="shared" si="4"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="30" t="str">
-        <f>B11</f>
-        <v>steel</v>
-      </c>
-      <c r="C13" s="37">
-        <f t="shared" ref="C13:D13" si="5">C11</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="37">
-        <f t="shared" si="5"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="43">
-        <v>0</v>
-      </c>
-      <c r="D14" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="25" t="str">
-        <f>B14</f>
-        <v>steel</v>
-      </c>
-      <c r="C15" s="38">
-        <f t="shared" ref="C15:D15" si="6">C14</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="38">
-        <f t="shared" si="6"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="30" t="str">
-        <f>B14</f>
-        <v>steel</v>
-      </c>
-      <c r="C16" s="37">
-        <f t="shared" ref="C16:D16" si="7">C14</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="37">
-        <f t="shared" si="7"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="43">
-        <v>0</v>
-      </c>
-      <c r="D17" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="25" t="str">
-        <f>B17</f>
-        <v>steel</v>
-      </c>
-      <c r="C18" s="38">
-        <f t="shared" ref="C18:D18" si="8">C17</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="38">
-        <f t="shared" si="8"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="30" t="str">
-        <f>B17</f>
-        <v>steel</v>
-      </c>
-      <c r="C19" s="37">
-        <f t="shared" ref="C19:D19" si="9">C17</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="37">
-        <f t="shared" si="9"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="24">
-        <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
-        <f>D4</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="43">
-        <f>94*Ref!$B$18</f>
-        <v>0.33839999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="163">
   <si>
     <t>scenario</t>
   </si>
@@ -647,9 +647,6 @@
     <t>MEA</t>
   </si>
   <si>
-    <t>Schakel2018</t>
-  </si>
-  <si>
     <t>Schakel2018-0B</t>
   </si>
   <si>
@@ -666,12 +663,6 @@
   </si>
   <si>
     <t>for CLC</t>
-  </si>
-  <si>
-    <t>t CaCO3/tCO2</t>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>Fuel Energy Demand</t>
@@ -1847,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,7 +2160,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22" s="43">
         <f>94*Ref!$B$18</f>
@@ -2178,7 +2175,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" s="43">
         <f>94*Ref!$B$18</f>
@@ -2201,7 +2204,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
     <col min="3" max="4" width="8.85546875" style="21"/>
     <col min="5" max="5" width="12.85546875" style="21" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="21"/>
@@ -2657,7 +2661,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>136</v>
@@ -2675,7 +2679,7 @@
     </row>
     <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>136</v>
@@ -5049,7 +5053,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D39"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5436,7 +5440,12 @@
       <c r="A25" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="B25" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="20">
+        <v>1</v>
+      </c>
       <c r="D25" s="50">
         <f>180*Ref!B$18</f>
         <v>0.64800000000000002</v>
@@ -5444,8 +5453,19 @@
       <c r="E25" s="20"/>
     </row>
     <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="50">
+        <f>180*Ref!B$18</f>
+        <v>0.64800000000000002</v>
+      </c>
       <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -5498,7 +5518,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6000,7 +6020,7 @@
         <v>136</v>
       </c>
       <c r="C23" s="20">
-        <f t="shared" ref="C23:E24" si="2">C4</f>
+        <f t="shared" ref="C23:E26" si="2">C4</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D23" s="20">
@@ -6045,9 +6065,24 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="21">
+        <f>C4</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
@@ -6056,9 +6091,24 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="21">
+        <f>C5</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
@@ -6185,10 +6235,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G22"/>
+      <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,14 +6248,14 @@
     <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="20" customWidth="1"/>
-    <col min="6" max="8" width="15.85546875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="47" customWidth="1"/>
-    <col min="10" max="10" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="21"/>
+    <col min="6" max="7" width="15.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="47" customWidth="1"/>
+    <col min="9" max="9" width="19" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6227,17 +6277,17 @@
       <c r="G1" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="H1" s="39" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="39" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -6248,17 +6298,17 @@
       <c r="D2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -6277,15 +6327,14 @@
       <c r="G4" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="65">
+      <c r="H4" s="65">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
+      <c r="I4" s="41"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-    </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -6308,12 +6357,12 @@
       <c r="G5" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="65">
+      <c r="H5" s="65">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -6339,15 +6388,14 @@
       <c r="G6" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="65">
-        <f>I5</f>
+      <c r="H6" s="65">
+        <f>H5</f>
         <v>1.9516585240421703E-2</v>
       </c>
+      <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -6373,12 +6421,12 @@
       <c r="G7" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="59">
-        <f>I5</f>
+      <c r="H7" s="59">
+        <f>H5</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -6401,13 +6449,12 @@
       <c r="G8" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="65">
+      <c r="H8" s="65">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -6433,15 +6480,14 @@
       <c r="G9" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="65">
-        <f>I8</f>
+      <c r="H9" s="65">
+        <f>H8</f>
         <v>1.9516585240421703E-2</v>
       </c>
+      <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -6467,15 +6513,14 @@
       <c r="G10" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="59">
-        <f>I8</f>
+      <c r="H10" s="59">
+        <f>H8</f>
         <v>1.9516585240421703E-2</v>
       </c>
+      <c r="I10" s="41"/>
       <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -6497,13 +6542,12 @@
       <c r="G11" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="65">
+      <c r="H11" s="65">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6528,13 +6572,12 @@
       <c r="G12" t="s">
         <v>145</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="65">
-        <f>I11</f>
+      <c r="H12" s="65">
+        <f>H11</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6559,15 +6602,14 @@
       <c r="G13" t="s">
         <v>145</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="59">
-        <f>I11</f>
+      <c r="H13" s="59">
+        <f>H11</f>
         <v>1.9516585240421703E-2</v>
       </c>
+      <c r="I13" s="41"/>
       <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -6589,15 +6631,14 @@
       <c r="G14" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="65">
+      <c r="H14" s="65">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
+      <c r="I14" s="21"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6623,13 +6664,12 @@
       <c r="G15" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="65">
-        <f>I14</f>
+      <c r="H15" s="65">
+        <f>H14</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6654,15 +6694,14 @@
       <c r="G16" t="s">
         <v>145</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="59">
-        <f>I14</f>
+      <c r="H16" s="59">
+        <f>H14</f>
         <v>1.9516585240421703E-2</v>
       </c>
+      <c r="I16" s="41"/>
       <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -6684,14 +6723,14 @@
       <c r="G17" t="s">
         <v>145</v>
       </c>
-      <c r="I17" s="65">
+      <c r="H17" s="65">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
+      <c r="I17" s="20"/>
       <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6717,13 +6756,12 @@
       <c r="G18" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="65">
-        <f>I17</f>
+      <c r="H18" s="65">
+        <f>H17</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6748,15 +6786,14 @@
       <c r="G19" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="59">
-        <f>I17</f>
+      <c r="H19" s="59">
+        <f>H17</f>
         <v>1.9516585240421703E-2</v>
       </c>
+      <c r="I19" s="41"/>
       <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6764,14 +6801,15 @@
         <v>136</v>
       </c>
       <c r="C20" s="10">
-        <f>C5</f>
+        <f>C4</f>
         <v>0.9</v>
       </c>
       <c r="D20" s="10">
+        <f t="shared" ref="D20:H20" si="2">D4</f>
         <v>0</v>
       </c>
       <c r="E20" s="10" t="str">
-        <f t="shared" ref="D20:I22" si="2">E5</f>
+        <f t="shared" si="2"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F20" s="10">
@@ -6784,69 +6822,75 @@
       </c>
       <c r="H20" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="2"/>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="20">
+      <c r="C21" s="10">
+        <f>C4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" ref="D21:H21" si="3">D4</f>
         <v>0</v>
       </c>
       <c r="E21" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F21" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G21" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>dry wood chips (EU no swiss)</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="10">
+        <f t="shared" si="3"/>
+        <v>1.9516585240421703E-2</v>
+      </c>
+      <c r="I21" s="20"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="10">
+        <f>C4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" ref="D22:H22" si="4">D4</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F22" s="10">
         <v>1</v>
       </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>natural gas - IPCC</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="G22" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>dry wood chips (EU no swiss)</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="10">
+        <f t="shared" si="4"/>
+        <v>1.9516585240421703E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="20"/>
@@ -6854,12 +6898,11 @@
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6868,13 +6911,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6887,11 +6930,11 @@
     <col min="6" max="6" width="13.85546875" style="21" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="21" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="66" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="21"/>
+    <col min="9" max="9" width="15.5703125" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -6917,16 +6960,13 @@
         <v>66</v>
       </c>
       <c r="I1" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J1" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6948,14 +6988,11 @@
         <v>90</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -6971,12 +7008,9 @@
       <c r="G3" s="76"/>
       <c r="H3" s="84"/>
       <c r="I3" s="84"/>
-      <c r="J3" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="76"/>
+    </row>
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -6995,12 +7029,11 @@
       <c r="G4" s="80"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="81" t="s">
+      <c r="J4" s="81" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -7029,10 +7062,9 @@
         <v>1E-3</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="75"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="75"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -7065,9 +7097,8 @@
         <v>1E-3</v>
       </c>
       <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-    </row>
-    <row r="7" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -7100,9 +7131,8 @@
         <v>1E-3</v>
       </c>
       <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -7129,10 +7159,9 @@
         <v>1E-3</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="78"/>
-    </row>
-    <row r="9" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="78"/>
+    </row>
+    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -7165,10 +7194,9 @@
         <v>1E-3</v>
       </c>
       <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -7201,9 +7229,8 @@
         <v>1E-3</v>
       </c>
       <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -7230,12 +7257,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="21" t="s">
+      <c r="J11" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -7268,9 +7294,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -7303,10 +7328,9 @@
         <v>0</v>
       </c>
       <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -7335,12 +7359,11 @@
         <v>1E-3</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="75" t="s">
+      <c r="J14" s="75" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -7373,9 +7396,8 @@
         <v>1E-3</v>
       </c>
       <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -7408,9 +7430,8 @@
         <v>1E-3</v>
       </c>
       <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-    </row>
-    <row r="17" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -7436,11 +7457,11 @@
       <c r="H17" s="39">
         <v>0</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="J17" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -7473,12 +7494,11 @@
         <v>0</v>
       </c>
       <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -7511,12 +7531,11 @@
         <v>0</v>
       </c>
       <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="21" t="s">
+      <c r="J19" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -7528,7 +7547,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="21">
-        <f t="shared" ref="D20:H20" si="10">D4</f>
+        <f t="shared" ref="D20:H23" si="10">D4</f>
         <v>0.9</v>
       </c>
       <c r="E20" s="21">
@@ -7547,9 +7566,8 @@
         <v>0</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>147</v>
       </c>
@@ -7563,54 +7581,73 @@
       </c>
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="21">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="10"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="10"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="10"/>
+        <v>1E-3</v>
+      </c>
+      <c r="I22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="E22" s="21">
-        <f>5*Ref!$B$18</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F22" s="21">
-        <v>5.82</v>
-      </c>
-      <c r="I22" s="66">
-        <f>0.49/1.43</f>
-        <v>0.34265734265734266</v>
-      </c>
-      <c r="J22" s="66">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>152</v>
+      <c r="B23" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="21">
+        <f>C7</f>
+        <v>1</v>
       </c>
       <c r="D23" s="21">
-        <v>0.85</v>
+        <f t="shared" si="10"/>
+        <v>0.9</v>
       </c>
       <c r="E23" s="21">
-        <f>6.22*Ref!$B$18</f>
-        <v>2.2391999999999999E-2</v>
+        <f t="shared" si="10"/>
+        <v>0.48868632707774806</v>
       </c>
       <c r="F23" s="21">
-        <v>4.95</v>
-      </c>
-      <c r="I23" s="26">
-        <f>0.34/1.23</f>
-        <v>0.27642276422764228</v>
-      </c>
-      <c r="J23" s="66">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="10"/>
+        <v>1E-3</v>
+      </c>
+      <c r="I23" s="21"/>
+    </row>
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -7620,10 +7657,9 @@
       <c r="G25" s="21"/>
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="33" spans="1:11" s="78" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="21"/>
+    </row>
+    <row r="33" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -7633,10 +7669,9 @@
       <c r="G33" s="21"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="37" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="21"/>
+    </row>
+    <row r="37" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -7646,8 +7681,7 @@
       <c r="G37" s="21"/>
       <c r="H37" s="66"/>
       <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="21"/>
+      <c r="J37" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7659,11 +7693,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7699,22 +7733,22 @@
         <v>6</v>
       </c>
       <c r="F1" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G1" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="72" t="s">
-        <v>162</v>
-      </c>
       <c r="K1" s="72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M1" s="72" t="s">
         <v>47</v>
@@ -7735,16 +7769,16 @@
         <v>50</v>
       </c>
       <c r="F2" s="75" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
       <c r="J2" s="75"/>
       <c r="K2" s="75" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M2" s="76"/>
     </row>
@@ -7762,7 +7796,7 @@
       <c r="E3" s="76"/>
       <c r="F3" s="76"/>
       <c r="G3" s="75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" s="76"/>
       <c r="I3" s="76"/>
@@ -7839,7 +7873,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="21">
         <v>1</v>
@@ -7860,7 +7894,7 @@
         <v>0.25270270270270268</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -7875,7 +7909,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="21">
         <v>1</v>
@@ -7896,7 +7930,7 @@
         <v>0.10337837837837838</v>
       </c>
       <c r="H8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I8" s="10">
         <v>1</v>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0989EADE-DD7E-9A4A-8954-5A5C6520AF0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="598" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
     <sheet name="CO2 Storage" sheetId="13" r:id="rId11"/>
     <sheet name="Ref" sheetId="7" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,12 +76,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -118,12 +119,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -152,12 +153,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="163">
   <si>
     <t>scenario</t>
   </si>
@@ -689,7 +690,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1196,8 +1197,8 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1474,7 +1475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1484,18 +1485,18 @@
       <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.85546875" style="61" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="19.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.83203125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -1530,13 +1531,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1551,7 @@
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -1567,7 +1568,7 @@
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -1603,7 +1604,7 @@
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
     </row>
-    <row r="8" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -1621,7 +1622,7 @@
       <c r="F8" s="61"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
         <v>80</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>83</v>
       </c>
@@ -1657,7 +1658,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>64</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -1707,7 +1708,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -1758,7 +1759,7 @@
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -1809,7 +1810,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -1826,7 +1827,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A26:G49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:G49">
     <sortCondition ref="A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,16 +1836,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -1880,7 +1881,7 @@
       </c>
       <c r="D3" s="76"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -1990,7 +1991,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -2153,12 +2154,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>150</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>0.33839999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>151</v>
       </c>
@@ -2195,23 +2196,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" style="21"/>
-    <col min="5" max="5" width="12.85546875" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="21"/>
+    <col min="2" max="2" width="10.83203125" style="21" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="21"/>
+    <col min="5" max="5" width="12.83203125" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -2231,7 +2232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -2246,13 +2247,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
         <v>83</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>147</v>
       </c>
@@ -2659,7 +2660,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>150</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>5.1119999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>151</v>
       </c>
@@ -2696,19 +2697,19 @@
         <v>5.1119999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
     </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2720,33 +2721,33 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -2755,7 +2756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -2864,24 +2865,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="16" t="s">
         <v>25</v>
@@ -2889,7 +2890,7 @@
       <c r="C16" s="16"/>
       <c r="H16" s="88"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
@@ -2898,7 +2899,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
@@ -2910,7 +2911,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="88"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>28</v>
       </c>
@@ -2920,7 +2921,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>37</v>
       </c>
@@ -2930,7 +2931,7 @@
       </c>
       <c r="E20" s="88"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>132</v>
       </c>
@@ -2951,7 +2952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2961,28 +2962,28 @@
       <selection pane="bottomRight" activeCell="A20" sqref="A20:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="123" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="34"/>
-    <col min="12" max="12" width="15.28515625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="112"/>
-    <col min="14" max="14" width="8.85546875" style="115"/>
-    <col min="16" max="16" width="8.85546875" style="112"/>
-    <col min="17" max="18" width="8.85546875" style="104"/>
-    <col min="20" max="22" width="8.85546875" style="34"/>
+    <col min="1" max="1" width="18.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="123" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="108" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="123" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="34"/>
+    <col min="12" max="12" width="15.33203125" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="112"/>
+    <col min="14" max="14" width="8.83203125" style="115"/>
+    <col min="16" max="16" width="8.83203125" style="112"/>
+    <col min="17" max="18" width="8.83203125" style="104"/>
+    <col min="20" max="22" width="8.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>111</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>119</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>117</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>118</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="99" t="s">
         <v>126</v>
       </c>
@@ -3325,7 +3326,7 @@
       </c>
       <c r="Q8" s="138"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="99" t="s">
         <v>127</v>
       </c>
@@ -3362,7 +3363,7 @@
       </c>
       <c r="Q9" s="138"/>
     </row>
-    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>78</v>
       </c>
@@ -3492,7 +3493,7 @@
       <c r="Q11" s="137"/>
       <c r="R11" s="137"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>79</v>
       </c>
@@ -3554,7 +3555,7 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>82</v>
       </c>
@@ -3615,7 +3616,7 @@
       <c r="Q13" s="106"/>
       <c r="R13" s="106"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>63</v>
       </c>
@@ -3675,7 +3676,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>80</v>
       </c>
@@ -3737,7 +3738,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>83</v>
       </c>
@@ -3798,7 +3799,7 @@
       <c r="Q16" s="106"/>
       <c r="R16" s="106"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>64</v>
       </c>
@@ -3858,7 +3859,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>81</v>
       </c>
@@ -3920,7 +3921,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:23" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
         <v>84</v>
       </c>
@@ -3984,7 +3985,7 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -4059,199 +4060,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F47" s="21"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F48" s="21"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="21"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="21"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="21"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="21"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" s="21"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F56" s="21"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="21"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58" s="21"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="21"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="21"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62" s="21"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="21"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F64" s="21"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66" s="21"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="21"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="21"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="21"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F72" s="21"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="21"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F74" s="21"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F76" s="21"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="21"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F78" s="21"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="21"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="21"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F82" s="21"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="21"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F84" s="21"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="21"/>
     </row>
   </sheetData>
@@ -4262,31 +4263,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="108" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="108" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="108" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="108" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>101</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>102</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>100</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>72</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>74</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -4878,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>77</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -5049,26 +5050,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15" style="21" customWidth="1"/>
     <col min="3" max="3" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.140625" style="20"/>
+    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -5094,13 +5095,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>101</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>102</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>100</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>78</v>
       </c>
@@ -5168,7 +5169,7 @@
       </c>
       <c r="E8" s="68"/>
     </row>
-    <row r="9" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>82</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>63</v>
       </c>
@@ -5218,7 +5219,7 @@
       </c>
       <c r="E11" s="68"/>
     </row>
-    <row r="12" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
@@ -5236,7 +5237,7 @@
       </c>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>83</v>
       </c>
@@ -5254,7 +5255,7 @@
       </c>
       <c r="E13" s="41"/>
     </row>
-    <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>64</v>
       </c>
@@ -5270,7 +5271,7 @@
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>81</v>
       </c>
@@ -5288,7 +5289,7 @@
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>84</v>
       </c>
@@ -5306,7 +5307,7 @@
       </c>
       <c r="E16" s="41"/>
     </row>
-    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>72</v>
       </c>
@@ -5322,7 +5323,7 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>73</v>
       </c>
@@ -5340,7 +5341,7 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>74</v>
       </c>
@@ -5358,7 +5359,7 @@
       </c>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
@@ -5374,7 +5375,7 @@
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>76</v>
       </c>
@@ -5392,7 +5393,7 @@
       </c>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>77</v>
       </c>
@@ -5410,7 +5411,7 @@
       </c>
       <c r="E22" s="41"/>
     </row>
-    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -5427,7 +5428,7 @@
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>147</v>
       </c>
@@ -5436,7 +5437,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>150</v>
       </c>
@@ -5452,7 +5453,7 @@
       </c>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>151</v>
       </c>
@@ -5468,39 +5469,39 @@
       </c>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -5514,29 +5515,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="21" customWidth="1"/>
     <col min="2" max="2" width="12" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.140625" style="20"/>
+    <col min="11" max="16384" width="10.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5563,7 +5564,7 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -5576,13 +5577,13 @@
       </c>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>101</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>102</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>100</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>78</v>
       </c>
@@ -5664,7 +5665,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>79</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>82</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>63</v>
       </c>
@@ -5727,7 +5728,7 @@
       <c r="J11" s="62"/>
       <c r="K11" s="62"/>
     </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="52" t="s">
         <v>80</v>
       </c>
@@ -5754,7 +5755,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>83</v>
       </c>
@@ -5781,7 +5782,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
         <v>64</v>
       </c>
@@ -5804,7 +5805,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>81</v>
       </c>
@@ -5831,7 +5832,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
         <v>84</v>
       </c>
@@ -5858,7 +5859,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>72</v>
       </c>
@@ -5881,7 +5882,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>73</v>
       </c>
@@ -5908,7 +5909,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>74</v>
       </c>
@@ -5935,7 +5936,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
@@ -5958,7 +5959,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>76</v>
       </c>
@@ -5985,7 +5986,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>77</v>
       </c>
@@ -6012,7 +6013,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -6038,7 +6039,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>147</v>
       </c>
@@ -6064,7 +6065,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>150</v>
       </c>
@@ -6090,7 +6091,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>151</v>
       </c>
@@ -6116,7 +6117,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -6127,7 +6128,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
@@ -6140,7 +6141,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -6151,7 +6152,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -6162,7 +6163,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -6173,7 +6174,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
@@ -6186,8 +6187,8 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -6200,7 +6201,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="40" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
@@ -6213,8 +6214,8 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
@@ -6234,28 +6235,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="47" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="20" customWidth="1"/>
+    <col min="6" max="7" width="15.83203125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="47" customWidth="1"/>
     <col min="9" max="9" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="21"/>
+    <col min="10" max="10" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -6302,13 +6303,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -6334,7 +6335,7 @@
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -6395,7 +6396,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>63</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -6487,7 +6488,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -6520,7 +6521,7 @@
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -6577,7 +6578,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -6609,7 +6610,7 @@
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -6638,7 +6639,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -6669,7 +6670,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -6701,7 +6702,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -6730,7 +6731,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -6761,7 +6762,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -6793,7 +6794,7 @@
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>150</v>
       </c>
@@ -6859,7 +6860,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>151</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="20"/>
@@ -6902,7 +6903,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6910,7 +6911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6920,21 +6921,21 @@
       <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="18" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="66" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="21"/>
+    <col min="6" max="6" width="13.83203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="66" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -6966,7 +6967,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -6992,7 +6993,7 @@
       </c>
       <c r="J2" s="76"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -7010,7 +7011,7 @@
       <c r="I3" s="84"/>
       <c r="J3" s="76"/>
     </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -7064,7 +7065,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="75"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -7098,7 +7099,7 @@
       </c>
       <c r="I6" s="95"/>
     </row>
-    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -7132,7 +7133,7 @@
       </c>
       <c r="I7" s="96"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -7161,7 +7162,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="78"/>
     </row>
-    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -7196,7 +7197,7 @@
       <c r="I9" s="95"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -7230,7 +7231,7 @@
       </c>
       <c r="I10" s="96"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -7295,7 +7296,7 @@
       </c>
       <c r="I12" s="49"/>
     </row>
-    <row r="13" spans="1:10" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -7330,7 +7331,7 @@
       <c r="I13" s="83"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -7363,7 +7364,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -7397,7 +7398,7 @@
       </c>
       <c r="I15" s="49"/>
     </row>
-    <row r="16" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -7431,7 +7432,7 @@
       </c>
       <c r="I16" s="83"/>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -7567,7 +7568,7 @@
       </c>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>147</v>
       </c>
@@ -7583,7 +7584,7 @@
       <c r="I21" s="66"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>150</v>
       </c>
@@ -7615,7 +7616,7 @@
       </c>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>151</v>
       </c>
@@ -7647,7 +7648,7 @@
       </c>
       <c r="I23" s="21"/>
     </row>
-    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -7659,7 +7660,7 @@
       <c r="I25" s="66"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="33" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -7671,7 +7672,7 @@
       <c r="I33" s="66"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="37" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -7690,33 +7691,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="18" style="21" customWidth="1"/>
     <col min="6" max="6" width="23" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="66" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="66" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="66" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="21"/>
+    <col min="11" max="11" width="15.5" style="66" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -7782,7 +7783,7 @@
       </c>
       <c r="M2" s="76"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -7804,7 +7805,7 @@
       <c r="K3" s="84"/>
       <c r="M3" s="76"/>
     </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -7829,161 +7830,119 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>136</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="C5" s="21">
-        <f>C4</f>
         <v>1</v>
       </c>
       <c r="D5" s="21">
-        <f t="shared" ref="D5:F5" si="0">D4</f>
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="21">
-        <f t="shared" si="0"/>
-        <v>1.05</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="66"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="E7" s="21">
         <f>5*Ref!$B$18</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F5" s="21">
         <f>5.82/(0.74/0.85)</f>
         <v>6.6851351351351349</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G5" s="66">
         <f>0.22/(0.74/0.85)</f>
         <v>0.25270270270270268</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H5" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K5" s="66">
         <f>0.49/1.43</f>
         <v>0.34265734265734266</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D6" s="21">
         <v>0.85</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E6" s="21">
         <f>6.22*Ref!$B$18</f>
         <v>2.2391999999999999E-2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F6" s="21">
         <f>4.95/(0.74/0.85)</f>
         <v>5.6858108108108105</v>
       </c>
-      <c r="G8" s="66">
+      <c r="G6" s="66">
         <f>0.09/(0.74/0.85)</f>
         <v>0.10337837837837838</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H6" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I6" s="10">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K6" s="26">
         <f>0.34/1.23</f>
         <v>0.27642276422764228</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="66"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="18" spans="1:13" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="66"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="22" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="66"/>
-      <c r="M22" s="21"/>
+    <row r="8" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="66"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="16" spans="1:13" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="66"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="20" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="66"/>
+      <c r="M20" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7993,7 +7952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8003,16 +7962,16 @@
       <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" style="21"/>
-    <col min="7" max="7" width="8.85546875" style="66"/>
-    <col min="8" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="2" width="12.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="21"/>
+    <col min="7" max="7" width="8.83203125" style="66"/>
+    <col min="8" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>43</v>
       </c>
@@ -8038,7 +7997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
         <v>38</v>
       </c>
@@ -8060,7 +8019,7 @@
       </c>
       <c r="H2" s="76"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -8076,7 +8035,7 @@
       <c r="G3" s="84"/>
       <c r="H3" s="76"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>3</v>
       </c>
@@ -8095,7 +8054,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="81"/>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>78</v>
       </c>
@@ -8122,7 +8081,7 @@
       </c>
       <c r="H5" s="75"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
@@ -8151,7 +8110,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>82</v>
       </c>
@@ -8180,7 +8139,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
@@ -8207,7 +8166,7 @@
       </c>
       <c r="H8" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="52" t="s">
         <v>80</v>
       </c>
@@ -8237,7 +8196,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>83</v>
       </c>
@@ -8266,7 +8225,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
@@ -8292,7 +8251,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>81</v>
       </c>
@@ -8321,7 +8280,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
         <v>84</v>
       </c>
@@ -8351,7 +8310,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>72</v>
       </c>
@@ -8378,7 +8337,7 @@
       </c>
       <c r="H14" s="75"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
@@ -8407,7 +8366,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>74</v>
       </c>
@@ -8436,7 +8395,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>75</v>
       </c>
@@ -8463,7 +8422,7 @@
       </c>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>76</v>
       </c>
@@ -8492,7 +8451,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -8522,7 +8481,7 @@
       </c>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -8550,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -8560,7 +8519,7 @@
       <c r="G21" s="66"/>
       <c r="H21" s="21"/>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -8570,7 +8529,7 @@
       <c r="G25" s="66"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -8580,7 +8539,7 @@
       <c r="G33" s="66"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0989EADE-DD7E-9A4A-8954-5A5C6520AF0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="598" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -19,14 +18,15 @@
     <sheet name="Oxygen" sheetId="8" r:id="rId4"/>
     <sheet name="Electricity" sheetId="9" r:id="rId5"/>
     <sheet name="Heat" sheetId="18" r:id="rId6"/>
-    <sheet name="CO2 Capture" sheetId="12" r:id="rId7"/>
-    <sheet name="CLC Capture" sheetId="25" r:id="rId8"/>
-    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId9"/>
-    <sheet name="CO2 Compress" sheetId="24" r:id="rId10"/>
-    <sheet name="CO2 Storage" sheetId="13" r:id="rId11"/>
-    <sheet name="Ref" sheetId="7" r:id="rId12"/>
+    <sheet name="WWT" sheetId="26" r:id="rId7"/>
+    <sheet name="CO2 Capture" sheetId="12" r:id="rId8"/>
+    <sheet name="CLC Capture" sheetId="25" r:id="rId9"/>
+    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId10"/>
+    <sheet name="CO2 Compress" sheetId="24" r:id="rId11"/>
+    <sheet name="CO2 Storage" sheetId="13" r:id="rId12"/>
+    <sheet name="Ref" sheetId="7" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,12 +76,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="O8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,12 +119,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="G6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,12 +153,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="173">
   <si>
     <t>scenario</t>
   </si>
@@ -381,9 +381,6 @@
     <t>meta-IEA2016</t>
   </si>
   <si>
-    <t>Fuel Demand</t>
-  </si>
-  <si>
     <t>charcoal - IPCC</t>
   </si>
   <si>
@@ -685,12 +682,45 @@
   </si>
   <si>
     <t>t O2/t CO2 out</t>
+  </si>
+  <si>
+    <t>IEAGHG</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>I ha</t>
+  </si>
+  <si>
+    <t>Energy Demand</t>
+  </si>
+  <si>
+    <t>GJ fuel / t CaO</t>
+  </si>
+  <si>
+    <t>HFO - IEAGHG</t>
+  </si>
+  <si>
+    <t>recovered steam</t>
+  </si>
+  <si>
+    <t>Urea Demand</t>
+  </si>
+  <si>
+    <t>HCl Demand</t>
+  </si>
+  <si>
+    <t>CaOH2 Demand</t>
+  </si>
+  <si>
+    <t>H3PO4 Demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1030,7 +1060,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1092,7 +1122,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1193,12 +1222,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1475,33 +1506,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.83203125" style="61" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="21"/>
+    <col min="1" max="1" width="19.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="17.85546875" style="139" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>5</v>
@@ -1509,17 +1540,23 @@
       <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="139" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -1530,33 +1567,38 @@
       <c r="D2" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="58"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="29">
         <v>0.05</v>
       </c>
       <c r="D4" s="29">
         <v>0.1</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="50">
         <v>0.05</v>
@@ -1565,12 +1607,10 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="25" t="str">
         <f>B5</f>
@@ -1585,9 +1625,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="30" t="str">
         <f>B5</f>
@@ -1601,15 +1641,17 @@
         <f>D5</f>
         <v>0.108</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+    </row>
+    <row r="8" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="50">
         <v>0.05</v>
@@ -1618,13 +1660,15 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="25" t="str">
         <f>B8</f>
@@ -1639,9 +1683,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
-        <v>83</v>
+    <row r="10" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="30" t="str">
         <f>B8</f>
@@ -1655,15 +1699,17 @@
         <f>D8</f>
         <v>0.108</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="50">
         <v>0</v>
@@ -1672,9 +1718,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>B11</f>
@@ -1689,9 +1735,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>84</v>
+    <row r="13" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>B11</f>
@@ -1705,15 +1751,17 @@
         <f>D11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="50">
         <v>0.05</v>
@@ -1723,9 +1771,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>B14</f>
@@ -1740,9 +1788,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>B14</f>
@@ -1756,15 +1804,17 @@
         <f>D14</f>
         <v>0.108</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="50">
         <v>0.05</v>
@@ -1774,9 +1824,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>B17</f>
@@ -1791,9 +1841,9 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="30" t="str">
         <f>B17</f>
@@ -1807,15 +1857,17 @@
         <f>D17</f>
         <v>0.108</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -1826,8 +1878,37 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="21">
+        <f>C5</f>
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="21">
+        <f>D5</f>
+        <v>0.108</v>
+      </c>
+      <c r="E21" s="77">
+        <f>200.2*17.33/1000</f>
+        <v>3.4694659999999993</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="77">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:G49">
+  <sortState ref="A26:G49">
     <sortCondition ref="A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,81 +1917,138 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" style="21"/>
+    <col min="7" max="7" width="8.85546875" style="65"/>
+    <col min="8" max="16384" width="8.85546875" style="21"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="75"/>
+    </row>
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="78">
+        <v>1</v>
+      </c>
+      <c r="D4" s="79">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="79">
+        <v>1.05</v>
+      </c>
+      <c r="F4" s="79">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="76"/>
-    </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="43">
-        <v>0</v>
-      </c>
-      <c r="D4" s="80">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
+      <c r="C5" s="43">
+        <v>1</v>
+      </c>
+      <c r="D5" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="43">
+        <f>151.9/1.119*Ref!$B$18</f>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F5" s="43">
+        <f>3.7667/1.243</f>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G5" s="22">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H5" s="74"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="43">
-        <v>0</v>
-      </c>
-      <c r="D5" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="B6" s="25" t="str">
         <f>B5</f>
@@ -1918,276 +2056,463 @@
       </c>
       <c r="C6" s="38">
         <f>C$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="38">
-        <f t="shared" ref="D6" si="0">D$5</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D6:F6" si="0">D$5</f>
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="38">
+        <f t="shared" si="0"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F6" s="38">
+        <f t="shared" si="0"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G6" s="94">
+        <f>G5</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="30" t="str">
         <f>B5</f>
         <v>steel</v>
       </c>
       <c r="C7" s="37">
-        <f t="shared" ref="C7:D7" si="1">C$5</f>
-        <v>0</v>
+        <f t="shared" ref="C7:F7" si="1">C$5</f>
+        <v>1</v>
       </c>
       <c r="D7" s="37">
         <f t="shared" si="1"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>63</v>
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" si="1"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="1"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G7" s="95">
+        <f>G5</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>80</v>
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="43">
+        <f>151.9/1.119*Ref!$B$18</f>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F8" s="43">
+        <f>3.7667/1.243</f>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G8" s="22">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="25" t="str">
         <f>B8</f>
         <v>steel</v>
       </c>
       <c r="C9" s="38">
-        <f t="shared" ref="C9" si="2">C8</f>
-        <v>0</v>
+        <f t="shared" ref="C9:F9" si="2">C8</f>
+        <v>1</v>
       </c>
       <c r="D9" s="38">
-        <f>D8</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>83</v>
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="E9" s="38">
+        <f>E8</f>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F9" s="38">
+        <f t="shared" si="2"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G9" s="94">
+        <f>G8</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="30" t="str">
         <f>B8</f>
         <v>steel</v>
       </c>
       <c r="C10" s="37">
-        <f t="shared" ref="C10:D10" si="3">C8</f>
-        <v>0</v>
+        <f t="shared" ref="C10:F10" si="3">C8</f>
+        <v>1</v>
       </c>
       <c r="D10" s="37">
         <f t="shared" si="3"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>64</v>
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="37">
+        <f t="shared" si="3"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="3"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G10" s="95">
+        <f>G8</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="43">
+        <f>151.9/1.119*Ref!$B$18</f>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F11" s="43">
+        <f>3.7667/1.243</f>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G11" s="22">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>B11</f>
         <v>steel</v>
       </c>
       <c r="C12" s="38">
-        <f t="shared" ref="C12:D12" si="4">C11</f>
-        <v>0</v>
+        <f t="shared" ref="C12:F12" si="4">C11</f>
+        <v>1</v>
       </c>
       <c r="D12" s="38">
         <f t="shared" si="4"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>84</v>
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="38">
+        <f t="shared" si="4"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F12" s="38">
+        <f t="shared" si="4"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G12" s="49">
+        <f>G11</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>B11</f>
         <v>steel</v>
       </c>
       <c r="C13" s="37">
-        <f t="shared" ref="C13:D13" si="5">C11</f>
-        <v>0</v>
+        <f t="shared" ref="C13:F13" si="5">C11</f>
+        <v>1</v>
       </c>
       <c r="D13" s="37">
         <f t="shared" si="5"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" si="5"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" si="5"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G13" s="82">
+        <f>G11</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="43">
+        <v>1</v>
+      </c>
+      <c r="D14" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="43">
+        <f>151.9/1.119*Ref!$B$18</f>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F14" s="43">
+        <f>3.7667/1.243</f>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G14" s="22">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="43">
-        <v>0</v>
-      </c>
-      <c r="D14" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>B14</f>
         <v>steel</v>
       </c>
       <c r="C15" s="38">
-        <f t="shared" ref="C15:D15" si="6">C14</f>
-        <v>0</v>
+        <f t="shared" ref="C15:F15" si="6">C14</f>
+        <v>1</v>
       </c>
       <c r="D15" s="38">
         <f t="shared" si="6"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" si="6"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F15" s="38">
+        <f t="shared" si="6"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G15" s="49">
+        <f>G14</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>B14</f>
         <v>steel</v>
       </c>
       <c r="C16" s="37">
-        <f t="shared" ref="C16:D16" si="7">C14</f>
-        <v>0</v>
+        <f t="shared" ref="C16:F16" si="7">C14</f>
+        <v>1</v>
       </c>
       <c r="D16" s="37">
         <f t="shared" si="7"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="37">
+        <f t="shared" si="7"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" si="7"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G16" s="82">
+        <f>G14</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="43">
+        <v>1</v>
+      </c>
+      <c r="D17" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="43">
+        <f>151.9/1.119*Ref!$B$18</f>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F17" s="43">
+        <f>3.7667/1.243</f>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G17" s="22">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>75</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="43">
-        <v>0</v>
-      </c>
-      <c r="D17" s="43">
-        <f>90*Ref!$B$18</f>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>76</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>B17</f>
         <v>steel</v>
       </c>
       <c r="C18" s="38">
-        <f t="shared" ref="C18:D18" si="8">C17</f>
-        <v>0</v>
+        <f t="shared" ref="C18:F18" si="8">C17</f>
+        <v>1</v>
       </c>
       <c r="D18" s="38">
         <f t="shared" si="8"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="38">
+        <f t="shared" si="8"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="8"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G18" s="26">
+        <f>G17</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="30" t="str">
         <f>B17</f>
         <v>steel</v>
       </c>
       <c r="C19" s="37">
-        <f t="shared" ref="C19:D19" si="9">C17</f>
-        <v>0</v>
+        <f t="shared" ref="C19:F19" si="9">C17</f>
+        <v>1</v>
       </c>
       <c r="D19" s="37">
         <f t="shared" si="9"/>
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" si="9"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F19" s="37">
+        <f t="shared" si="9"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G19" s="57">
+        <f>G17</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="C20" s="21">
         <f>C4</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21">
         <f>D4</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" s="43">
-        <f>94*Ref!$B$18</f>
-        <v>0.33839999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="43">
-        <f>94*Ref!$B$18</f>
-        <v>0.33839999999999998</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="21">
+        <f>E4</f>
+        <v>1.05</v>
+      </c>
+      <c r="F20" s="21">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="33" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2196,28 +2521,388 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="75"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="43">
+        <v>0</v>
+      </c>
+      <c r="D4" s="79">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0</v>
+      </c>
+      <c r="D5" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="25" t="str">
+        <f>B5</f>
+        <v>steel</v>
+      </c>
+      <c r="C6" s="38">
+        <f>C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" ref="D6" si="0">D$5</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="30" t="str">
+        <f>B5</f>
+        <v>steel</v>
+      </c>
+      <c r="C7" s="37">
+        <f t="shared" ref="C7:D7" si="1">C$5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="37">
+        <f t="shared" si="1"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="43">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="25" t="str">
+        <f>B8</f>
+        <v>steel</v>
+      </c>
+      <c r="C9" s="38">
+        <f t="shared" ref="C9" si="2">C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="38">
+        <f>D8</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="30" t="str">
+        <f>B8</f>
+        <v>steel</v>
+      </c>
+      <c r="C10" s="37">
+        <f t="shared" ref="C10:D10" si="3">C8</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <f t="shared" si="3"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="43">
+        <v>0</v>
+      </c>
+      <c r="D11" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="25" t="str">
+        <f>B11</f>
+        <v>steel</v>
+      </c>
+      <c r="C12" s="38">
+        <f t="shared" ref="C12:D12" si="4">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="4"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="30" t="str">
+        <f>B11</f>
+        <v>steel</v>
+      </c>
+      <c r="C13" s="37">
+        <f t="shared" ref="C13:D13" si="5">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <f t="shared" si="5"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="43">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="25" t="str">
+        <f>B14</f>
+        <v>steel</v>
+      </c>
+      <c r="C15" s="38">
+        <f t="shared" ref="C15:D15" si="6">C14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="6"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f>B14</f>
+        <v>steel</v>
+      </c>
+      <c r="C16" s="37">
+        <f t="shared" ref="C16:D16" si="7">C14</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="37">
+        <f t="shared" si="7"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="43">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43">
+        <f>90*Ref!$B$18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="25" t="str">
+        <f>B17</f>
+        <v>steel</v>
+      </c>
+      <c r="C18" s="38">
+        <f t="shared" ref="C18:D18" si="8">C17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="38">
+        <f t="shared" si="8"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="30" t="str">
+        <f>B17</f>
+        <v>steel</v>
+      </c>
+      <c r="C19" s="37">
+        <f t="shared" ref="C19:D19" si="9">C17</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="37">
+        <f t="shared" si="9"/>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="24">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="24">
+        <f>D4</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="43">
+        <f>94*Ref!$B$18</f>
+        <v>0.33839999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="43">
+        <f>94*Ref!$B$18</f>
+        <v>0.33839999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="21" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="21"/>
-    <col min="5" max="5" width="12.83203125" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="21"/>
+    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="21"/>
+    <col min="5" max="5" width="12.85546875" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>55</v>
@@ -2226,14 +2911,14 @@
         <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="48"/>
@@ -2244,17 +2929,17 @@
         <v>58</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+    <row r="4" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="29">
@@ -2271,12 +2956,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="39">
         <v>0.01</v>
@@ -2292,9 +2977,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="25" t="str">
         <f>B5</f>
@@ -2317,9 +3002,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="30" t="str">
         <f>B5</f>
@@ -2342,12 +3027,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="21">
         <f>0.01</f>
@@ -2364,9 +3049,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>80</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="25" t="str">
         <f>B8</f>
@@ -2389,9 +3074,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
-        <v>83</v>
+    <row r="10" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="30" t="str">
         <f>B8</f>
@@ -2413,12 +3098,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>64</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="21">
         <f>0.01</f>
@@ -2435,9 +3120,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>B11</f>
@@ -2460,9 +3145,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>84</v>
+    <row r="13" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>B11</f>
@@ -2485,12 +3170,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="21">
         <f>0.01</f>
@@ -2507,9 +3192,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>B14</f>
@@ -2532,9 +3217,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>B14</f>
@@ -2557,12 +3242,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="21">
         <v>0.01</v>
@@ -2578,9 +3263,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>B17</f>
@@ -2603,9 +3288,9 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="30" t="str">
         <f>B17</f>
@@ -2628,12 +3313,12 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -2652,20 +3337,20 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="21">
         <v>6.0000000000000001E-3</v>
@@ -2673,17 +3358,17 @@
       <c r="E22" s="21">
         <v>100</v>
       </c>
-      <c r="F22" s="139">
+      <c r="F22" s="138">
         <f>14.2*Ref!$B$18</f>
         <v>5.1119999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="21">
         <v>6.0000000000000001E-3</v>
@@ -2692,24 +3377,24 @@
       <c r="E23" s="26">
         <v>100</v>
       </c>
-      <c r="F23" s="139">
+      <c r="F23" s="138">
         <f>14.2*Ref!$B$18</f>
         <v>5.1119999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
     </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2720,34 +3405,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -2756,7 +3441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -2768,7 +3453,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -2780,7 +3465,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -2792,7 +3477,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2804,7 +3489,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -2816,7 +3501,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2828,7 +3513,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -2841,7 +3526,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -2853,7 +3538,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -2865,32 +3550,32 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="16"/>
-      <c r="H16" s="88"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" s="87"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
@@ -2899,7 +3584,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
@@ -2909,9 +3594,9 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="88"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E18" s="87"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>28</v>
       </c>
@@ -2921,7 +3606,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>37</v>
       </c>
@@ -2929,9 +3614,9 @@
         <f>1.163</f>
         <v>1.163</v>
       </c>
-      <c r="E20" s="88"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E20" s="87"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2940,9 +3625,9 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +3637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2962,142 +3647,142 @@
       <selection pane="bottomRight" activeCell="A20" sqref="A20:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="61" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="123" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="34"/>
-    <col min="12" max="12" width="15.33203125" style="34" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="112"/>
-    <col min="14" max="14" width="8.83203125" style="115"/>
-    <col min="16" max="16" width="8.83203125" style="112"/>
-    <col min="17" max="18" width="8.83203125" style="104"/>
-    <col min="20" max="22" width="8.83203125" style="34"/>
+    <col min="1" max="1" width="18.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="122" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="122" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="34"/>
+    <col min="12" max="12" width="15.28515625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="111"/>
+    <col min="14" max="14" width="8.85546875" style="114"/>
+    <col min="16" max="16" width="8.85546875" style="111"/>
+    <col min="17" max="18" width="8.85546875" style="103"/>
+    <col min="20" max="22" width="8.85546875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="123" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="E1" s="122" t="s">
+        <v>85</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="128" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="H1" s="127" t="s">
+        <v>138</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="123" t="s">
-        <v>124</v>
+        <v>137</v>
+      </c>
+      <c r="J1" s="122" t="s">
+        <v>123</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="N1" s="114" t="s">
         <v>115</v>
-      </c>
-      <c r="M1" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="N1" s="115" t="s">
-        <v>116</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="112" t="s">
-        <v>123</v>
+      <c r="P1" s="111" t="s">
+        <v>122</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="123" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J2" s="124" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="L2" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" s="116" t="s">
-        <v>144</v>
+      <c r="K2" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="115" t="s">
+        <v>143</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" s="109" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="T2" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="P2" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="T2" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" s="96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
@@ -3106,41 +3791,41 @@
       <c r="G3" s="3"/>
       <c r="H3" s="34"/>
       <c r="I3" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="123">
+      <c r="E4" s="122">
         <f>0.0102+0.10641+2.406035</f>
         <v>2.5226450000000002</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="121">
+        <v>111</v>
+      </c>
+      <c r="G4" s="120">
         <v>1.65</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="125">
+      <c r="H4" s="99"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="124">
         <f>K4+L4</f>
         <v>2.6949999999999998</v>
       </c>
       <c r="L4" s="34">
         <v>2.6949999999999998</v>
       </c>
-      <c r="M4" s="114"/>
-      <c r="N4" s="117">
+      <c r="M4" s="113"/>
+      <c r="N4" s="116">
         <v>0.40333000000000002</v>
       </c>
       <c r="O4">
@@ -3154,39 +3839,39 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
         <v>119</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
       </c>
       <c r="D5">
         <f>13.1*28.6/1000</f>
         <v>0.37466000000000005</v>
       </c>
-      <c r="E5" s="123">
+      <c r="E5" s="122">
         <f>3.7*1.31/1.4</f>
         <v>3.4621428571428576</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="34"/>
-      <c r="J5" s="125">
+      <c r="J5" s="124">
         <f>K5+L5</f>
         <v>1.7271428571428573</v>
       </c>
-      <c r="L5" s="98">
+      <c r="L5" s="97">
         <f>2.418/1.4</f>
         <v>1.7271428571428573</v>
       </c>
-      <c r="M5" s="114">
+      <c r="M5" s="113">
         <f>1.195*1.3/1.4</f>
         <v>1.1096428571428574</v>
       </c>
-      <c r="N5" s="117">
+      <c r="N5" s="116">
         <f>0.09*28/1.4</f>
         <v>1.8</v>
       </c>
@@ -3194,187 +3879,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="123">
+      <c r="E6" s="122">
         <f>3.7/1.3</f>
         <v>2.8461538461538463</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="34"/>
-      <c r="J6" s="125">
+      <c r="J6" s="124">
         <f>K6+L6</f>
         <v>1.2030769230769232</v>
       </c>
-      <c r="L6" s="98">
+      <c r="L6" s="97">
         <f>1.564/1.3</f>
         <v>1.2030769230769232</v>
       </c>
-      <c r="M6" s="114">
+      <c r="M6" s="113">
         <f>0.954/1.3</f>
         <v>0.73384615384615381</v>
       </c>
-      <c r="N6" s="117">
+      <c r="N6" s="116">
         <f>0.037*28/1.3</f>
         <v>0.79692307692307696</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="112">
+      <c r="P6" s="111">
         <f>613*Ref!B18</f>
         <v>2.2067999999999999</v>
       </c>
-      <c r="Q6" s="138"/>
+      <c r="Q6" s="137"/>
       <c r="W6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="123">
+      <c r="E7" s="122">
         <f>3.7/1.3</f>
         <v>2.8461538461538463</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="34"/>
-      <c r="J7" s="125">
+      <c r="J7" s="124">
         <f>K7+L7</f>
         <v>2.25</v>
       </c>
-      <c r="L7" s="98">
+      <c r="L7" s="97">
         <f>2.925/1.3</f>
         <v>2.25</v>
       </c>
-      <c r="M7" s="114">
-        <v>0</v>
-      </c>
-      <c r="N7" s="117">
+      <c r="M7" s="113">
+        <v>0</v>
+      </c>
+      <c r="N7" s="116">
         <f>0.049*28/1.3</f>
         <v>1.0553846153846154</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="112">
+      <c r="P7" s="111">
         <f>1122*Ref!B18</f>
         <v>4.0392000000000001</v>
       </c>
-      <c r="Q7" s="138"/>
+      <c r="Q7" s="137"/>
       <c r="W7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="99"/>
+      <c r="B8" s="98"/>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="123">
+      <c r="E8" s="122">
         <f>1/0.364</f>
         <v>2.7472527472527473</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="34"/>
-      <c r="J8" s="125">
+      <c r="J8" s="124">
         <f t="shared" ref="J8" si="0">K8+L8</f>
         <v>0.54300000000000004</v>
       </c>
-      <c r="L8" s="100">
+      <c r="L8" s="99">
         <v>0.54300000000000004</v>
       </c>
-      <c r="M8" s="114"/>
-      <c r="N8" s="117">
+      <c r="M8" s="113"/>
+      <c r="N8" s="116">
         <f>0.0365*28</f>
         <v>1.022</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="Q8" s="138"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="99"/>
+      <c r="Q8" s="137"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="98"/>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="123">
+      <c r="E9" s="122">
         <f>1/0.341</f>
         <v>2.9325513196480935</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="34"/>
-      <c r="J9" s="125">
+      <c r="J9" s="124">
         <f>K9+L9</f>
         <v>1.3819999999999999</v>
       </c>
-      <c r="L9" s="100">
+      <c r="L9" s="99">
         <v>1.3819999999999999</v>
       </c>
-      <c r="M9" s="114"/>
-      <c r="N9" s="117">
+      <c r="M9" s="113"/>
+      <c r="N9" s="116">
         <f>0.047*28</f>
         <v>1.3160000000000001</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="Q9" s="138"/>
-    </row>
-    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="137"/>
+    </row>
+    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="29">
         <f>D5</f>
         <v>0.37466000000000005</v>
       </c>
-      <c r="E10" s="126">
+      <c r="E10" s="125">
         <f>E9</f>
         <v>2.9325513196480935</v>
       </c>
@@ -3382,16 +4067,16 @@
         <f>F9</f>
         <v>dry cleft timber</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="57">
         <v>1.81</v>
       </c>
       <c r="H10" s="35">
         <v>55</v>
       </c>
-      <c r="I10" s="58">
+      <c r="I10" s="57">
         <v>0.32</v>
       </c>
-      <c r="J10" s="126">
+      <c r="J10" s="125">
         <f t="shared" ref="J10:O10" si="1">J9</f>
         <v>1.3819999999999999</v>
       </c>
@@ -3403,11 +4088,11 @@
         <f t="shared" si="1"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M10" s="110">
+      <c r="M10" s="109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="118">
+      <c r="N10" s="117">
         <f t="shared" si="1"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3415,12 +4100,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" s="120">
+      <c r="P10" s="119">
         <f>P5</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
       <c r="T10" s="35">
         <f>T5</f>
         <v>0</v>
@@ -3434,12 +4119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>C$9</f>
@@ -3449,7 +4134,7 @@
         <f t="shared" ref="D11:O19" si="2">D$9</f>
         <v>0</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="130">
         <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
@@ -3457,31 +4142,31 @@
         <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="57">
         <v>1.81</v>
       </c>
-      <c r="H11" s="133">
+      <c r="H11" s="132">
         <f>H$10</f>
         <v>55</v>
       </c>
-      <c r="I11" s="132">
+      <c r="I11" s="131">
         <f>I$10</f>
         <v>0.32</v>
       </c>
-      <c r="J11" s="131">
+      <c r="J11" s="130">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="K11" s="134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="134">
+      <c r="K11" s="133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="133">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M11" s="135"/>
-      <c r="N11" s="136">
+      <c r="M11" s="134"/>
+      <c r="N11" s="135">
         <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3489,13 +4174,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="137"/>
-    </row>
-    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="P11" s="134"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="136"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>B11</f>
@@ -3509,7 +4194,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="122">
         <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
@@ -3521,15 +4206,15 @@
         <f>G11</f>
         <v>1.81</v>
       </c>
-      <c r="H12" s="100">
+      <c r="H12" s="99">
         <f>H11</f>
         <v>55</v>
       </c>
-      <c r="I12" s="121">
+      <c r="I12" s="120">
         <f>I11</f>
         <v>0.32</v>
       </c>
-      <c r="J12" s="123">
+      <c r="J12" s="122">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
@@ -3541,8 +4226,8 @@
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M12" s="108"/>
-      <c r="N12" s="115">
+      <c r="M12" s="107"/>
+      <c r="N12" s="114">
         <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3550,14 +4235,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P12" s="108"/>
+      <c r="P12" s="107"/>
       <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>B11</f>
@@ -3571,7 +4256,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E13" s="126">
+      <c r="E13" s="125">
         <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
@@ -3579,19 +4264,19 @@
         <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G13" s="58">
+      <c r="G13" s="57">
         <f>G11</f>
         <v>1.81</v>
       </c>
-      <c r="H13" s="129">
+      <c r="H13" s="128">
         <f>H11</f>
         <v>55</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="58">
         <f>I11</f>
         <v>0.32</v>
       </c>
-      <c r="J13" s="126">
+      <c r="J13" s="125">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
@@ -3603,8 +4288,8 @@
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M13" s="110"/>
-      <c r="N13" s="118">
+      <c r="M13" s="109"/>
+      <c r="N13" s="117">
         <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3612,16 +4297,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-    </row>
-    <row r="14" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>63</v>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52" t="s">
+        <v>62</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" t="str">
         <f>C$9</f>
@@ -3631,26 +4316,26 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E14" s="123">
+      <c r="E14" s="122">
         <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
-      <c r="F14" s="122" t="str">
+      <c r="F14" s="121" t="str">
         <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="57">
         <v>1.81</v>
       </c>
-      <c r="H14" s="133">
+      <c r="H14" s="132">
         <f>H$10</f>
         <v>55</v>
       </c>
-      <c r="I14" s="132">
+      <c r="I14" s="131">
         <f>I$10</f>
         <v>0.32</v>
       </c>
-      <c r="J14" s="123">
+      <c r="J14" s="122">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
@@ -3662,8 +4347,8 @@
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M14" s="108"/>
-      <c r="N14" s="115">
+      <c r="M14" s="107"/>
+      <c r="N14" s="114">
         <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3671,14 +4356,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="108"/>
+      <c r="P14" s="107"/>
       <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>B14</f>
@@ -3692,7 +4377,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E15" s="123">
+      <c r="E15" s="122">
         <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
@@ -3704,15 +4389,15 @@
         <f>G14</f>
         <v>1.81</v>
       </c>
-      <c r="H15" s="100">
+      <c r="H15" s="99">
         <f>H14</f>
         <v>55</v>
       </c>
-      <c r="I15" s="121">
+      <c r="I15" s="120">
         <f>I14</f>
         <v>0.32</v>
       </c>
-      <c r="J15" s="123">
+      <c r="J15" s="122">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
@@ -3724,8 +4409,8 @@
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M15" s="108"/>
-      <c r="N15" s="115">
+      <c r="M15" s="107"/>
+      <c r="N15" s="114">
         <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3733,14 +4418,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15" s="108"/>
+      <c r="P15" s="107"/>
       <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
-        <v>83</v>
+    <row r="16" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>B14</f>
@@ -3754,7 +4439,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E16" s="126">
+      <c r="E16" s="125">
         <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
@@ -3762,19 +4447,19 @@
         <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="57">
         <f>G14</f>
         <v>1.81</v>
       </c>
-      <c r="H16" s="129">
+      <c r="H16" s="128">
         <f>H14</f>
         <v>55</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="58">
         <f>I14</f>
         <v>0.32</v>
       </c>
-      <c r="J16" s="126">
+      <c r="J16" s="125">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
@@ -3786,8 +4471,8 @@
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M16" s="110"/>
-      <c r="N16" s="118">
+      <c r="M16" s="109"/>
+      <c r="N16" s="117">
         <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3795,16 +4480,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-    </row>
-    <row r="17" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="109"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" t="str">
         <f>C$9</f>
@@ -3814,7 +4499,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="123">
+      <c r="E17" s="122">
         <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
@@ -3822,18 +4507,18 @@
         <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="57">
         <v>1.81</v>
       </c>
-      <c r="H17" s="133">
+      <c r="H17" s="132">
         <f>H$10</f>
         <v>55</v>
       </c>
-      <c r="I17" s="132">
+      <c r="I17" s="131">
         <f>I$10</f>
         <v>0.32</v>
       </c>
-      <c r="J17" s="123">
+      <c r="J17" s="122">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
@@ -3845,8 +4530,8 @@
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M17" s="108"/>
-      <c r="N17" s="115">
+      <c r="M17" s="107"/>
+      <c r="N17" s="114">
         <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3854,14 +4539,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="108"/>
+      <c r="P17" s="107"/>
       <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>B17</f>
@@ -3875,7 +4560,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18" s="123">
+      <c r="E18" s="122">
         <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
@@ -3887,15 +4572,15 @@
         <f>G17</f>
         <v>1.81</v>
       </c>
-      <c r="H18" s="100">
+      <c r="H18" s="99">
         <f>H17</f>
         <v>55</v>
       </c>
-      <c r="I18" s="121">
+      <c r="I18" s="120">
         <f>I17</f>
         <v>0.32</v>
       </c>
-      <c r="J18" s="123">
+      <c r="J18" s="122">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
@@ -3907,8 +4592,8 @@
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M18" s="108"/>
-      <c r="N18" s="115">
+      <c r="M18" s="107"/>
+      <c r="N18" s="114">
         <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3916,14 +4601,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P18" s="108"/>
+      <c r="P18" s="107"/>
       <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:23" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>84</v>
+    <row r="19" spans="1:23" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63" t="s">
+        <v>83</v>
       </c>
       <c r="B19" s="30" t="str">
         <f>B17</f>
@@ -3937,7 +4622,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E19" s="126">
+      <c r="E19" s="125">
         <f t="shared" si="2"/>
         <v>2.9325513196480935</v>
       </c>
@@ -3945,19 +4630,19 @@
         <f t="shared" si="2"/>
         <v>dry cleft timber</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="57">
         <f>G17</f>
         <v>1.81</v>
       </c>
-      <c r="H19" s="129">
+      <c r="H19" s="128">
         <f>H17</f>
         <v>55</v>
       </c>
-      <c r="I19" s="59">
+      <c r="I19" s="58">
         <f>I17</f>
         <v>0.32</v>
       </c>
-      <c r="J19" s="126">
+      <c r="J19" s="125">
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
@@ -3969,8 +4654,8 @@
         <f t="shared" si="2"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M19" s="110"/>
-      <c r="N19" s="118">
+      <c r="M19" s="109"/>
+      <c r="N19" s="117">
         <f t="shared" si="2"/>
         <v>1.3160000000000001</v>
       </c>
@@ -3978,19 +4663,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
       <c r="T19" s="29"/>
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
-    <row r="20" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="C20" s="27" t="str">
         <f>C10</f>
@@ -4000,7 +4685,7 @@
         <f t="shared" ref="D20:W20" si="4">D10</f>
         <v>0.37466000000000005</v>
       </c>
-      <c r="E20" s="127">
+      <c r="E20" s="126">
         <f t="shared" si="4"/>
         <v>2.9325513196480935</v>
       </c>
@@ -4008,12 +4693,12 @@
         <f t="shared" ref="F20" si="5">F10</f>
         <v>dry cleft timber</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="57">
         <v>1.81</v>
       </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="127">
+      <c r="H20" s="99"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="126">
         <f t="shared" si="4"/>
         <v>1.3819999999999999</v>
       </c>
@@ -4025,11 +4710,11 @@
         <f t="shared" si="4"/>
         <v>1.3819999999999999</v>
       </c>
-      <c r="M20" s="111">
+      <c r="M20" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N20" s="119">
+      <c r="N20" s="118">
         <f t="shared" si="4"/>
         <v>1.3160000000000001</v>
       </c>
@@ -4037,12 +4722,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P20" s="111">
+      <c r="P20" s="110">
         <f>P10</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
+      <c r="Q20" s="106"/>
+      <c r="R20" s="106"/>
       <c r="T20" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4060,199 +4745,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="21"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="21"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="21"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="21"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="21"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="21"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="21"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="21"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="21"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="21"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="21"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="21"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="21"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="21"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="21"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="21"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="21"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="21"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="21"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="21"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="21"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="21"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="21"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="21"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="21"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="21"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="21"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="21"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="21"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="21"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="21"/>
     </row>
   </sheetData>
@@ -4263,142 +4948,142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="108" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="108" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
-    <col min="13" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" style="107" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="107" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="107" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" s="128" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="130" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="127" t="s">
         <v>138</v>
+      </c>
+      <c r="K1" s="129" t="s">
+        <v>137</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="130"/>
+        <v>68</v>
+      </c>
+      <c r="F2" s="129"/>
       <c r="G2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="109" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="J2" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="108" t="s">
+        <v>141</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="130"/>
+      <c r="F3" s="129"/>
       <c r="J3" s="34"/>
-      <c r="K3" s="130" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="129" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -4411,19 +5096,19 @@
       <c r="E4" s="21">
         <v>0</v>
       </c>
-      <c r="F4" s="108" t="s">
-        <v>62</v>
+      <c r="F4" s="107" t="s">
+        <v>61</v>
       </c>
       <c r="G4" s="21">
         <v>0.78900000000000003</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="27">
         <v>1.81</v>
       </c>
-      <c r="K4" s="108"/>
+      <c r="K4" s="107"/>
       <c r="L4" s="21">
         <v>0.21</v>
       </c>
@@ -4447,9 +5132,9 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>59</v>
@@ -4460,20 +5145,20 @@
       <c r="E5" s="21">
         <v>0</v>
       </c>
-      <c r="F5" s="108" t="s">
-        <v>62</v>
+      <c r="F5" s="107" t="s">
+        <v>61</v>
       </c>
       <c r="G5" s="38">
         <f>(0.36+0.01)/1.15</f>
         <v>0.32173913043478264</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" s="27">
         <v>1.81</v>
       </c>
-      <c r="K5" s="108"/>
+      <c r="K5" s="107"/>
       <c r="L5" s="21">
         <v>0</v>
       </c>
@@ -4488,7 +5173,7 @@
         <f>0.027/1.15*Ref!B18*1000</f>
         <v>8.4521739130434786E-2</v>
       </c>
-      <c r="P5" s="87">
+      <c r="P5" s="86">
         <f>N5*0.0016</f>
         <v>0</v>
       </c>
@@ -4499,9 +5184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>59</v>
@@ -4512,14 +5197,14 @@
       <c r="E6" s="21">
         <v>0</v>
       </c>
-      <c r="F6" s="108" t="s">
-        <v>62</v>
+      <c r="F6" s="107" t="s">
+        <v>61</v>
       </c>
       <c r="G6" s="38">
         <v>1.52</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I6" s="27">
         <v>1.81</v>
@@ -4527,7 +5212,7 @@
       <c r="J6" s="21">
         <v>55</v>
       </c>
-      <c r="K6" s="108">
+      <c r="K6" s="107">
         <v>0.32</v>
       </c>
       <c r="L6" s="27">
@@ -4543,7 +5228,7 @@
       <c r="O6" s="38">
         <v>0</v>
       </c>
-      <c r="P6" s="87">
+      <c r="P6" s="86">
         <f>N6*0.0015</f>
         <v>1.8600000000000001E-3</v>
       </c>
@@ -4554,9 +5239,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>C4</f>
@@ -4570,7 +5255,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="110" t="str">
+      <c r="F7" s="109" t="str">
         <f t="shared" si="0"/>
         <v>charcoal - IPCC</v>
       </c>
@@ -4578,12 +5263,12 @@
         <v>0.6</v>
       </c>
       <c r="H7" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I7" s="29">
         <v>1.81</v>
       </c>
-      <c r="K7" s="110"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="29">
         <f t="shared" si="0"/>
         <v>0.21</v>
@@ -4600,7 +5285,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="89">
+      <c r="P7" s="88">
         <f>N7*0.0015</f>
         <v>7.0500000000000001E-4</v>
       </c>
@@ -4613,12 +5298,12 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>59</v>
@@ -4630,13 +5315,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="43">
         <v>1.52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I8" s="39">
         <v>1.81</v>
@@ -4645,7 +5330,7 @@
         <f>J6</f>
         <v>55</v>
       </c>
-      <c r="K8" s="135">
+      <c r="K8" s="134">
         <f>K6</f>
         <v>0.32</v>
       </c>
@@ -4663,20 +5348,20 @@
         <f>N8*90*Ref!B$18</f>
         <v>0.40175999999999995</v>
       </c>
-      <c r="P8" s="91">
+      <c r="P8" s="90">
         <f>N8*0.0015</f>
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="Q8" s="92">
+      <c r="Q8" s="91">
         <v>2</v>
       </c>
       <c r="R8" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="25" t="str">
         <f>B8</f>
@@ -4690,10 +5375,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="84">
         <v>0.5</v>
       </c>
-      <c r="F9" s="108" t="str">
+      <c r="F9" s="107" t="str">
         <f t="shared" si="1"/>
         <v>dry wood chips (EU no swiss) also</v>
       </c>
@@ -4713,7 +5398,7 @@
         <f>J8</f>
         <v>55</v>
       </c>
-      <c r="K9" s="108">
+      <c r="K9" s="107">
         <f>K8</f>
         <v>0.32</v>
       </c>
@@ -4733,7 +5418,7 @@
         <f t="shared" si="1"/>
         <v>0.40175999999999995</v>
       </c>
-      <c r="P9" s="88">
+      <c r="P9" s="87">
         <f t="shared" si="1"/>
         <v>1.8600000000000001E-3</v>
       </c>
@@ -4746,9 +5431,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="30" t="str">
         <f>B8</f>
@@ -4765,7 +5450,7 @@
       <c r="E10" s="31">
         <v>1</v>
       </c>
-      <c r="F10" s="110" t="str">
+      <c r="F10" s="109" t="str">
         <f t="shared" si="2"/>
         <v>dry wood chips (EU no swiss) also</v>
       </c>
@@ -4785,7 +5470,7 @@
         <f>J8</f>
         <v>55</v>
       </c>
-      <c r="K10" s="110">
+      <c r="K10" s="109">
         <f>K8</f>
         <v>0.32</v>
       </c>
@@ -4805,7 +5490,7 @@
         <f t="shared" si="2"/>
         <v>0.40175999999999995</v>
       </c>
-      <c r="P10" s="89">
+      <c r="P10" s="88">
         <f t="shared" si="2"/>
         <v>1.8600000000000001E-3</v>
       </c>
@@ -4818,12 +5503,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>59</v>
@@ -4835,13 +5520,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="43">
         <v>1.52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I11" s="39">
         <v>1.81</v>
@@ -4850,7 +5535,7 @@
         <f>J6</f>
         <v>55</v>
       </c>
-      <c r="K11" s="135">
+      <c r="K11" s="134">
         <f>K6</f>
         <v>0.32</v>
       </c>
@@ -4868,20 +5553,20 @@
         <f>N11*90*Ref!B$18</f>
         <v>0.40175999999999995</v>
       </c>
-      <c r="P11" s="91">
+      <c r="P11" s="90">
         <f>N11*0.0015</f>
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="Q11" s="92">
+      <c r="Q11" s="91">
         <v>2</v>
       </c>
       <c r="R11" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>B11</f>
@@ -4895,10 +5580,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="84">
         <v>0.5</v>
       </c>
-      <c r="F12" s="108" t="str">
+      <c r="F12" s="107" t="str">
         <f t="shared" si="3"/>
         <v>dry wood chips (EU no swiss) also</v>
       </c>
@@ -4918,7 +5603,7 @@
         <f>J11</f>
         <v>55</v>
       </c>
-      <c r="K12" s="108">
+      <c r="K12" s="107">
         <f>K11</f>
         <v>0.32</v>
       </c>
@@ -4938,7 +5623,7 @@
         <f t="shared" si="3"/>
         <v>0.40175999999999995</v>
       </c>
-      <c r="P12" s="88">
+      <c r="P12" s="87">
         <f t="shared" si="3"/>
         <v>1.8600000000000001E-3</v>
       </c>
@@ -4951,9 +5636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>B11</f>
@@ -4970,7 +5655,7 @@
       <c r="E13" s="31">
         <v>1</v>
       </c>
-      <c r="F13" s="110" t="str">
+      <c r="F13" s="109" t="str">
         <f t="shared" si="4"/>
         <v>dry wood chips (EU no swiss) also</v>
       </c>
@@ -4990,7 +5675,7 @@
         <f>J11</f>
         <v>55</v>
       </c>
-      <c r="K13" s="110">
+      <c r="K13" s="109">
         <f>K11</f>
         <v>0.32</v>
       </c>
@@ -5010,7 +5695,7 @@
         <f t="shared" si="4"/>
         <v>0.40175999999999995</v>
       </c>
-      <c r="P13" s="89">
+      <c r="P13" s="88">
         <f t="shared" si="4"/>
         <v>1.8600000000000001E-3</v>
       </c>
@@ -5023,12 +5708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="I14">
         <v>1.81</v>
@@ -5037,7 +5722,7 @@
         <f>J6</f>
         <v>55</v>
       </c>
-      <c r="K14" s="108">
+      <c r="K14" s="107">
         <f>K6</f>
         <v>0.32</v>
       </c>
@@ -5050,43 +5735,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15" style="21" customWidth="1"/>
     <col min="3" max="3" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.1640625" style="20"/>
+    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -5095,17 +5780,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="66">
         <v>0.9</v>
       </c>
       <c r="D4" s="50">
@@ -5113,11 +5798,11 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="67">
+        <v>100</v>
+      </c>
+      <c r="C5" s="66">
         <f>C4</f>
         <v>0.9</v>
       </c>
@@ -5126,11 +5811,11 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="67">
+        <v>101</v>
+      </c>
+      <c r="C6" s="66">
         <f>C4</f>
         <v>0.9</v>
       </c>
@@ -5139,39 +5824,39 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="36"/>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <f>C4</f>
         <v>0.9</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="85">
         <f>D4</f>
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="67">
+        <v>133</v>
+      </c>
+      <c r="C8" s="66">
         <v>0.9</v>
       </c>
       <c r="D8" s="50">
         <f>0.55*Ref!B$18/Ref!$C$12</f>
         <v>1.3869182594347289</v>
       </c>
-      <c r="E8" s="68"/>
-    </row>
-    <row r="9" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="25" t="str">
         <f>B8</f>
@@ -5186,9 +5871,9 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="30" t="str">
         <f>B8</f>
@@ -5203,25 +5888,25 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="67">
+        <v>133</v>
+      </c>
+      <c r="C11" s="66">
         <v>0.9</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="66">
         <f>(0.55*Ref!B18/Ref!C12*(38/158.3))+(0.47*Ref!B18/Ref!C12*(120.3/158.3))</f>
         <v>1.2336109450282529</v>
       </c>
-      <c r="E11" s="68"/>
-    </row>
-    <row r="12" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>80</v>
+      <c r="E11" s="67"/>
+    </row>
+    <row r="12" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>B11</f>
@@ -5237,43 +5922,42 @@
       </c>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>83</v>
+    <row r="13" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>B11</f>
         <v>steel</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <f>C11</f>
         <v>0.9</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="54">
         <f>D11</f>
         <v>1.2336109450282529</v>
       </c>
       <c r="E13" s="41"/>
     </row>
-    <row r="14" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>64</v>
+    <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="20">
         <v>0.9</v>
       </c>
-      <c r="D14" s="67">
-        <f>(0.55*Ref!B18/Ref!C12*(38/158.3))+(0.47*Ref!B18/Ref!C12*(120.3/158.3))</f>
-        <v>1.2336109450282529</v>
+      <c r="D14" s="66" t="s">
+        <v>164</v>
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>B14</f>
@@ -5283,36 +5967,36 @@
         <f>C14</f>
         <v>0.9</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="23" t="str">
         <f>D14</f>
-        <v>1.2336109450282529</v>
+        <v>I ha</v>
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
-        <v>84</v>
+    <row r="16" spans="1:5" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>B14</f>
         <v>steel</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <f>C14</f>
         <v>0.9</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="54" t="str">
         <f>D14</f>
-        <v>1.2336109450282529</v>
+        <v>I ha</v>
       </c>
       <c r="E16" s="41"/>
     </row>
-    <row r="17" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="20">
         <v>0.9</v>
@@ -5323,9 +6007,9 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>B17</f>
@@ -5341,9 +6025,9 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="30" t="str">
         <f>B17</f>
@@ -5353,18 +6037,18 @@
         <f>C17</f>
         <v>0.9</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="54">
         <f>D17</f>
         <v>1.3869182594347289</v>
       </c>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="20">
         <v>0.9</v>
@@ -5375,9 +6059,9 @@
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="25" t="str">
         <f>B20</f>
@@ -5393,9 +6077,9 @@
       </c>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="30" t="str">
         <f>B20</f>
@@ -5405,18 +6089,18 @@
         <f>C20</f>
         <v>0.9</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="54">
         <f>D20</f>
         <v>1.3869182594347289</v>
       </c>
       <c r="E22" s="41"/>
     </row>
-    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="C23" s="22">
         <f>C4</f>
@@ -5428,21 +6112,21 @@
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="20">
         <v>1</v>
@@ -5453,12 +6137,12 @@
       </c>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="20">
         <v>1</v>
@@ -5469,39 +6153,50 @@
       </c>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20">
+        <f>14/0.028*Ref!B$18</f>
+        <v>1.8</v>
+      </c>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -5515,39 +6210,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="12" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.1640625" style="20"/>
+    <col min="11" max="16384" width="10.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="39" t="s">
@@ -5564,7 +6259,7 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -5575,15 +6270,15 @@
       <c r="D2" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="69"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="68"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -5599,9 +6294,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="20">
         <f>C4</f>
@@ -5615,15 +6310,15 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="47">
         <f>C4</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="89">
         <v>0</v>
       </c>
       <c r="E6" s="47" t="str">
@@ -5631,9 +6326,9 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="41">
@@ -5643,40 +6338,40 @@
       <c r="D7" s="42">
         <v>0</v>
       </c>
-      <c r="E7" s="82" t="str">
+      <c r="E7" s="81" t="str">
         <f>E4</f>
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="61">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D8" s="100">
+        <v>0</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="62">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D8" s="101">
-        <v>0</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="B9" s="25" t="str">
         <f>B8</f>
         <v>steel</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="101">
         <f t="shared" ref="D9" si="0">D$8</f>
         <v>0</v>
       </c>
@@ -5685,18 +6380,18 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="30" t="str">
         <f>B8</f>
         <v>steel</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D10" s="103">
+      <c r="D10" s="102">
         <f t="shared" ref="D10:E10" si="1">D$8</f>
         <v>0</v>
       </c>
@@ -5705,32 +6400,32 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="62">
+        <v>133</v>
+      </c>
+      <c r="C11" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D11" s="101">
-        <v>0</v>
-      </c>
-      <c r="E11" s="62" t="s">
+      <c r="D11" s="100">
+        <v>0</v>
+      </c>
+      <c r="E11" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-    </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>80</v>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+    </row>
+    <row r="12" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>B11</f>
@@ -5740,7 +6435,7 @@
         <f>C11</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="101">
         <f>D11</f>
         <v>0</v>
       </c>
@@ -5755,9 +6450,9 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>83</v>
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>B11</f>
@@ -5767,7 +6462,7 @@
         <f>C11</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D13" s="103">
+      <c r="D13" s="102">
         <f>D11</f>
         <v>0</v>
       </c>
@@ -5782,32 +6477,32 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>64</v>
+    <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="62">
+        <v>133</v>
+      </c>
+      <c r="C14" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D14" s="101">
-        <v>0</v>
-      </c>
-      <c r="E14" s="62" t="s">
+      <c r="D14" s="100">
+        <v>0</v>
+      </c>
+      <c r="E14" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+    </row>
+    <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>B14</f>
@@ -5817,7 +6512,7 @@
         <f>C14</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="101">
         <f>D14</f>
         <v>0</v>
       </c>
@@ -5832,9 +6527,9 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
-        <v>84</v>
+    <row r="16" spans="1:11" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>B14</f>
@@ -5844,7 +6539,7 @@
         <f>C14</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D16" s="103">
+      <c r="D16" s="102">
         <f>D14</f>
         <v>0</v>
       </c>
@@ -5859,20 +6554,20 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="62">
+        <v>133</v>
+      </c>
+      <c r="C17" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D17" s="101">
-        <v>0</v>
-      </c>
-      <c r="E17" s="62" t="s">
+      <c r="D17" s="100">
+        <v>0</v>
+      </c>
+      <c r="E17" s="61" t="s">
         <v>59</v>
       </c>
       <c r="F17" s="20"/>
@@ -5882,9 +6577,9 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>B17</f>
@@ -5894,7 +6589,7 @@
         <f>C17</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="101">
         <f>D17</f>
         <v>0</v>
       </c>
@@ -5909,9 +6604,9 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="30" t="str">
         <f>B17</f>
@@ -5921,7 +6616,7 @@
         <f>C17</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D19" s="103">
+      <c r="D19" s="102">
         <f>D17</f>
         <v>0</v>
       </c>
@@ -5936,20 +6631,20 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="62">
+        <v>133</v>
+      </c>
+      <c r="C20" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D20" s="101">
-        <v>0</v>
-      </c>
-      <c r="E20" s="62" t="s">
+      <c r="D20" s="100">
+        <v>0</v>
+      </c>
+      <c r="E20" s="61" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="20"/>
@@ -5959,9 +6654,9 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="25" t="str">
         <f>B20</f>
@@ -5971,7 +6666,7 @@
         <f>C20</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D21" s="102">
+      <c r="D21" s="101">
         <f>D20</f>
         <v>0</v>
       </c>
@@ -5986,9 +6681,9 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="30" t="str">
         <f>B20</f>
@@ -5998,7 +6693,7 @@
         <f>C20</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D22" s="103">
+      <c r="D22" s="102">
         <f>D20</f>
         <v>0</v>
       </c>
@@ -6013,15 +6708,15 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="C23" s="20">
-        <f t="shared" ref="C23:E26" si="2">C4</f>
+        <f t="shared" ref="C23:E27" si="2">C4</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D23" s="20">
@@ -6039,12 +6734,12 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" si="2"/>
@@ -6065,12 +6760,12 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="21">
         <f>C4</f>
@@ -6091,12 +6786,12 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="21">
         <f>C5</f>
@@ -6117,10 +6812,24 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="21">
+        <f>C6</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D27" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>168</v>
+      </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
@@ -6128,7 +6837,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="20"/>
@@ -6141,7 +6850,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -6152,7 +6861,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -6163,7 +6872,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
@@ -6174,7 +6883,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
@@ -6187,8 +6896,8 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -6201,7 +6910,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="40" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
@@ -6214,8 +6923,8 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
@@ -6235,39 +6944,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="20" customWidth="1"/>
-    <col min="6" max="7" width="15.83203125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="47" customWidth="1"/>
     <col min="9" max="9" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="21"/>
+    <col min="10" max="10" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>9</v>
@@ -6288,35 +6997,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="69">
         <v>0.9</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="92">
         <v>0</v>
       </c>
       <c r="E4" s="39" t="s">
@@ -6326,21 +7035,21 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="65">
+        <v>144</v>
+      </c>
+      <c r="H4" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="16">
         <v>0.9</v>
@@ -6356,16 +7065,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="65">
+        <v>144</v>
+      </c>
+      <c r="H5" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="25" t="str">
         <f>B5</f>
@@ -6387,18 +7096,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" s="65">
+        <v>144</v>
+      </c>
+      <c r="H6" s="64">
         <f>H5</f>
         <v>1.9516585240421703E-2</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="30" t="str">
         <f>B5</f>
@@ -6420,19 +7129,19 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="59">
+        <v>144</v>
+      </c>
+      <c r="H7" s="58">
         <f>H5</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="16">
         <v>0.9</v>
@@ -6448,16 +7157,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="65">
+        <v>144</v>
+      </c>
+      <c r="H8" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>80</v>
+    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="25" t="str">
         <f>B8</f>
@@ -6479,18 +7188,18 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="65">
+        <v>144</v>
+      </c>
+      <c r="H9" s="64">
         <f>H8</f>
         <v>1.9516585240421703E-2</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>83</v>
+    <row r="10" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="30" t="str">
         <f>B8</f>
@@ -6512,26 +7221,26 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="59">
+        <v>144</v>
+      </c>
+      <c r="H10" s="58">
         <f>H8</f>
         <v>1.9516585240421703E-2</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>64</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="70">
+        <v>133</v>
+      </c>
+      <c r="C11" s="69">
         <v>0.9</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="92">
         <v>0</v>
       </c>
       <c r="E11" s="39" t="s">
@@ -6541,16 +7250,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="65">
+        <v>144</v>
+      </c>
+      <c r="H11" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>B11</f>
@@ -6571,16 +7280,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="65">
+        <v>144</v>
+      </c>
+      <c r="H12" s="64">
         <f>H11</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>84</v>
+    <row r="13" spans="1:10" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>B11</f>
@@ -6601,26 +7310,26 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="59">
+        <v>144</v>
+      </c>
+      <c r="H13" s="58">
         <f>H11</f>
         <v>1.9516585240421703E-2</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="70">
+        <v>133</v>
+      </c>
+      <c r="C14" s="69">
         <v>0.9</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="93">
         <v>0</v>
       </c>
       <c r="E14" s="39" t="s">
@@ -6630,18 +7339,18 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H14" s="65">
+        <v>144</v>
+      </c>
+      <c r="H14" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>B14</f>
@@ -6663,16 +7372,16 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
-      </c>
-      <c r="H15" s="65">
+        <v>144</v>
+      </c>
+      <c r="H15" s="64">
         <f>H14</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>B14</f>
@@ -6693,26 +7402,26 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="59">
+        <v>144</v>
+      </c>
+      <c r="H16" s="58">
         <f>H14</f>
         <v>1.9516585240421703E-2</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="70">
+        <v>133</v>
+      </c>
+      <c r="C17" s="69">
         <v>0.9</v>
       </c>
-      <c r="D17" s="94">
+      <c r="D17" s="93">
         <v>0</v>
       </c>
       <c r="E17" s="39" t="s">
@@ -6722,18 +7431,18 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="65">
+        <v>144</v>
+      </c>
+      <c r="H17" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
         <v>1.9516585240421703E-2</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>B17</f>
@@ -6755,16 +7464,16 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="65">
+        <v>144</v>
+      </c>
+      <c r="H18" s="64">
         <f>H17</f>
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="30" t="str">
         <f>B17</f>
@@ -6785,21 +7494,21 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="59">
+        <v>144</v>
+      </c>
+      <c r="H19" s="58">
         <f>H17</f>
         <v>1.9516585240421703E-2</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="C20" s="10">
         <f>C4</f>
@@ -6826,12 +7535,12 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="10">
         <f>C4</f>
@@ -6860,12 +7569,12 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="10">
         <f>C4</f>
@@ -6891,7 +7600,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="20"/>
@@ -6903,7 +7612,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6911,7 +7620,103 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5">
+        <f>29/(8.98+6.499+1.036+0.048+1.2)*Ref!B18</f>
+        <v>5.8773855767606832E-3</v>
+      </c>
+      <c r="D5">
+        <f>0.5/17763</f>
+        <v>2.8148398356133537E-5</v>
+      </c>
+      <c r="E5">
+        <f>0.1/17763</f>
+        <v>5.6296796712267076E-6</v>
+      </c>
+      <c r="F5">
+        <f>0.1/17763</f>
+        <v>5.6296796712267076E-6</v>
+      </c>
+      <c r="G5">
+        <f>0.1/17763</f>
+        <v>5.6296796712267076E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6921,125 +7726,125 @@
       <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="18" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="21" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="66" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="21"/>
+    <col min="6" max="6" width="13.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="72" t="s">
+      <c r="G1" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="74"/>
+      <c r="H2" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="76"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="J2" s="75"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="76"/>
-    </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="75"/>
+    </row>
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="78">
         <v>1</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="79">
         <v>0.9</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="79">
         <v>1.05</v>
       </c>
-      <c r="F4" s="80">
-        <v>0</v>
-      </c>
-      <c r="G4" s="80"/>
+      <c r="F4" s="79">
+        <v>0</v>
+      </c>
+      <c r="G4" s="79"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="80" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="43">
         <v>1</v>
@@ -7056,18 +7861,18 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H5" s="22">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="75"/>
-    </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J5" s="74"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="25" t="str">
         <f>B5</f>
@@ -7093,15 +7898,15 @@
         <f>G5</f>
         <v>MEA</v>
       </c>
-      <c r="H6" s="95">
+      <c r="H6" s="94">
         <f>H5</f>
         <v>1E-3</v>
       </c>
-      <c r="I6" s="95"/>
-    </row>
-    <row r="7" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="94"/>
+    </row>
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="30" t="str">
         <f>B5</f>
@@ -7127,44 +7932,44 @@
         <f>G6</f>
         <v>MEA</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="95">
         <f>H5</f>
         <v>1E-3</v>
       </c>
-      <c r="I7" s="96"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>63</v>
+      <c r="I7" s="95"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="77">
+        <v>133</v>
+      </c>
+      <c r="C8" s="76">
         <v>1</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="76">
         <v>0.9</v>
       </c>
       <c r="E8" s="43">
         <v>0.62</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="76">
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="22">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="78"/>
-    </row>
-    <row r="9" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>80</v>
+      <c r="J8" s="77"/>
+    </row>
+    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="25" t="str">
         <f>B8</f>
@@ -7190,16 +7995,16 @@
         <f>G8</f>
         <v>MEA</v>
       </c>
-      <c r="H9" s="95">
+      <c r="H9" s="94">
         <f>H8</f>
         <v>1E-3</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>83</v>
+    <row r="10" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B10" s="30" t="str">
         <f>B8</f>
@@ -7225,18 +8030,18 @@
         <f>G9</f>
         <v>MEA</v>
       </c>
-      <c r="H10" s="96">
+      <c r="H10" s="95">
         <f>H8</f>
         <v>1E-3</v>
       </c>
-      <c r="I10" s="96"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>64</v>
+      <c r="I10" s="95"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="43">
         <v>1</v>
@@ -7252,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11" s="50">
         <v>0</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="25" t="str">
         <f>B11</f>
@@ -7296,9 +8101,9 @@
       </c>
       <c r="I12" s="49"/>
     </row>
-    <row r="13" spans="1:10" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>84</v>
+    <row r="13" spans="1:10" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53" t="s">
+        <v>83</v>
       </c>
       <c r="B13" s="30" t="str">
         <f>B11</f>
@@ -7324,19 +8129,19 @@
         <f>G12</f>
         <v>MEA</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="82">
         <f>H11</f>
         <v>0</v>
       </c>
-      <c r="I13" s="83"/>
+      <c r="I13" s="82"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="43">
         <v>1</v>
@@ -7353,20 +8158,20 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H14" s="22">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="75" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="J14" s="74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>B14</f>
@@ -7398,9 +8203,9 @@
       </c>
       <c r="I15" s="49"/>
     </row>
-    <row r="16" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="30" t="str">
         <f>B14</f>
@@ -7426,18 +8231,18 @@
         <f>G15</f>
         <v>MEA</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="82">
         <f>H14</f>
         <v>1E-3</v>
       </c>
-      <c r="I16" s="83"/>
-    </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="I16" s="82"/>
+    </row>
+    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="43">
         <v>1</v>
@@ -7453,18 +8258,18 @@
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H17" s="39">
         <v>0</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>B17</f>
@@ -7496,12 +8301,12 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="30" t="str">
         <f>B17</f>
@@ -7527,21 +8332,21 @@
         <f>G18</f>
         <v>MEA</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="57">
         <f>H17</f>
         <v>0</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -7560,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="10"/>
@@ -7568,9 +8373,9 @@
       </c>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -7578,18 +8383,18 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
-        <v>150</v>
-      </c>
       <c r="B22" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="21">
         <f>C6</f>
@@ -7608,7 +8413,7 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="10"/>
@@ -7616,12 +8421,12 @@
       </c>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="21">
         <f>C7</f>
@@ -7640,7 +8445,7 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H23" s="21">
         <f t="shared" si="10"/>
@@ -7648,7 +8453,7 @@
       </c>
       <c r="I23" s="21"/>
     </row>
-    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -7656,11 +8461,11 @@
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="33" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -7668,11 +8473,11 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="37" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -7680,8 +8485,8 @@
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
       <c r="J37" s="21"/>
     </row>
   </sheetData>
@@ -7690,149 +8495,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="18" style="21" customWidth="1"/>
     <col min="6" max="6" width="23" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="66" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="65" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="66" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="21"/>
+    <col min="11" max="11" width="15.42578125" style="65" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="I1" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" s="75"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="M1" s="72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="M2" s="76"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="84"/>
-      <c r="M3" s="76"/>
-    </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="83"/>
+      <c r="M3" s="75"/>
+    </row>
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="78">
         <v>1</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="79">
         <v>0.9</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="79">
         <v>1.05</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="79">
         <v>0</v>
       </c>
       <c r="G4" s="28"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
       <c r="K4" s="28"/>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="80" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -7848,27 +8653,27 @@
         <f>5.82/(0.74/0.85)</f>
         <v>6.6851351351351349</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="65">
         <f>0.22/(0.74/0.85)</f>
         <v>0.25270270270270268</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="10">
         <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="66">
+        <v>144</v>
+      </c>
+      <c r="K5" s="65">
         <f>0.49/1.43</f>
         <v>0.34265734265734266</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
@@ -7884,64 +8689,64 @@
         <f>4.95/(0.74/0.85)</f>
         <v>5.6858108108108105</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="65">
         <f>0.09/(0.74/0.85)</f>
         <v>0.10337837837837838</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" s="10">
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K6" s="26">
         <f>0.34/1.23</f>
         <v>0.27642276422764228</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="66"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="66"/>
+      <c r="K8" s="65"/>
       <c r="M8" s="21"/>
     </row>
-    <row r="16" spans="1:13" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
-      <c r="G16" s="66"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="66"/>
+      <c r="K16" s="65"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="20" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="66"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="66"/>
+      <c r="K20" s="65"/>
       <c r="M20" s="21"/>
     </row>
   </sheetData>
@@ -7949,608 +8754,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="12.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" style="21"/>
-    <col min="7" max="7" width="8.83203125" style="66"/>
-    <col min="8" max="16384" width="8.83203125" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" s="76"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="76"/>
-    </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="79">
-        <v>1</v>
-      </c>
-      <c r="D4" s="80">
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="80">
-        <v>1.05</v>
-      </c>
-      <c r="F4" s="80">
-        <v>0</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="81"/>
-    </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="43">
-        <v>1</v>
-      </c>
-      <c r="D5" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="43">
-        <f>151.9/1.119*Ref!$B$18</f>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F5" s="43">
-        <f>3.7667/1.243</f>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G5" s="22">
-        <f>0.001</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H5" s="75"/>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="25" t="str">
-        <f>B5</f>
-        <v>steel</v>
-      </c>
-      <c r="C6" s="38">
-        <f>C$5</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="38">
-        <f t="shared" ref="D6:F6" si="0">D$5</f>
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="38">
-        <f t="shared" si="0"/>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F6" s="38">
-        <f t="shared" si="0"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G6" s="95">
-        <f>G5</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="30" t="str">
-        <f>B5</f>
-        <v>steel</v>
-      </c>
-      <c r="C7" s="37">
-        <f t="shared" ref="C7:F7" si="1">C$5</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="37">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="37">
-        <f t="shared" si="1"/>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F7" s="37">
-        <f t="shared" si="1"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G7" s="96">
-        <f>G5</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="43">
-        <v>1</v>
-      </c>
-      <c r="D8" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="E8" s="43">
-        <f>151.9/1.119*Ref!$B$18</f>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F8" s="43">
-        <f>3.7667/1.243</f>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G8" s="22">
-        <f>0.001</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H8" s="78"/>
-    </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="25" t="str">
-        <f>B8</f>
-        <v>steel</v>
-      </c>
-      <c r="C9" s="38">
-        <f t="shared" ref="C9:F9" si="2">C8</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="38">
-        <f t="shared" si="2"/>
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="38">
-        <f>E8</f>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F9" s="38">
-        <f t="shared" si="2"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G9" s="95">
-        <f>G8</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="30" t="str">
-        <f>B8</f>
-        <v>steel</v>
-      </c>
-      <c r="C10" s="37">
-        <f t="shared" ref="C10:F10" si="3">C8</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="37">
-        <f t="shared" si="3"/>
-        <v>0.9</v>
-      </c>
-      <c r="E10" s="37">
-        <f t="shared" si="3"/>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F10" s="37">
-        <f t="shared" si="3"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G10" s="96">
-        <f>G8</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="43">
-        <v>1</v>
-      </c>
-      <c r="D11" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="E11" s="43">
-        <f>151.9/1.119*Ref!$B$18</f>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F11" s="43">
-        <f>3.7667/1.243</f>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G11" s="22">
-        <f>0.001</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="25" t="str">
-        <f>B11</f>
-        <v>steel</v>
-      </c>
-      <c r="C12" s="38">
-        <f t="shared" ref="C12:F12" si="4">C11</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="38">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="E12" s="38">
-        <f t="shared" si="4"/>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F12" s="38">
-        <f t="shared" si="4"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G12" s="49">
-        <f>G11</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="30" t="str">
-        <f>B11</f>
-        <v>steel</v>
-      </c>
-      <c r="C13" s="37">
-        <f t="shared" ref="C13:F13" si="5">C11</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="37">
-        <f t="shared" si="5"/>
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="37">
-        <f t="shared" si="5"/>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F13" s="37">
-        <f t="shared" si="5"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G13" s="83">
-        <f>G11</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="43">
-        <v>1</v>
-      </c>
-      <c r="D14" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="E14" s="43">
-        <f>151.9/1.119*Ref!$B$18</f>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F14" s="43">
-        <f>3.7667/1.243</f>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G14" s="22">
-        <f>0.001</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H14" s="75"/>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="25" t="str">
-        <f>B14</f>
-        <v>steel</v>
-      </c>
-      <c r="C15" s="38">
-        <f t="shared" ref="C15:F15" si="6">C14</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="38">
-        <f t="shared" si="6"/>
-        <v>0.9</v>
-      </c>
-      <c r="E15" s="38">
-        <f t="shared" si="6"/>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F15" s="38">
-        <f t="shared" si="6"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G15" s="49">
-        <f>G14</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="30" t="str">
-        <f>B14</f>
-        <v>steel</v>
-      </c>
-      <c r="C16" s="37">
-        <f t="shared" ref="C16:F16" si="7">C14</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="37">
-        <f t="shared" si="7"/>
-        <v>0.9</v>
-      </c>
-      <c r="E16" s="37">
-        <f t="shared" si="7"/>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F16" s="37">
-        <f t="shared" si="7"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G16" s="83">
-        <f>G14</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="43">
-        <v>1</v>
-      </c>
-      <c r="D17" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="E17" s="43">
-        <f>151.9/1.119*Ref!$B$18</f>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F17" s="43">
-        <f>3.7667/1.243</f>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G17" s="22">
-        <f>0.001</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="25" t="str">
-        <f>B17</f>
-        <v>steel</v>
-      </c>
-      <c r="C18" s="38">
-        <f t="shared" ref="C18:F18" si="8">C17</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="38">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="38">
-        <f t="shared" si="8"/>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F18" s="38">
-        <f t="shared" si="8"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G18" s="26">
-        <f>G17</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="30" t="str">
-        <f>B17</f>
-        <v>steel</v>
-      </c>
-      <c r="C19" s="37">
-        <f t="shared" ref="C19:F19" si="9">C17</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="37">
-        <f t="shared" si="9"/>
-        <v>0.9</v>
-      </c>
-      <c r="E19" s="37">
-        <f t="shared" si="9"/>
-        <v>0.48868632707774806</v>
-      </c>
-      <c r="F19" s="37">
-        <f t="shared" si="9"/>
-        <v>3.0303298471440061</v>
-      </c>
-      <c r="G19" s="58">
-        <f>G17</f>
-        <v>1E-3</v>
-      </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="21">
-        <f>C4</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="21">
-        <f>D4</f>
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="21">
-        <f>E4</f>
-        <v>1.05</v>
-      </c>
-      <c r="F20" s="21">
-        <f>F4</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <f>G4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="33" spans="1:8" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="174">
   <si>
     <t>scenario</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>H3PO4 Demand</t>
+  </si>
+  <si>
+    <t>mea</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1516,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,8 +1591,12 @@
       <c r="D4" s="29">
         <v>0.1</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
+      <c r="E4" s="105">
+        <v>3.3</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>59</v>
+      </c>
       <c r="G4" s="140"/>
       <c r="H4" s="140"/>
     </row>
@@ -1607,22 +1614,50 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
+      <c r="E5" s="139">
+        <v>0</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="139">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="25" t="str">
-        <f>B5</f>
+        <f t="shared" ref="B6:H6" si="0">B5</f>
         <v>steel</v>
       </c>
       <c r="C6" s="22">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D6" s="22">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>0.108</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1630,21 +1665,33 @@
         <v>81</v>
       </c>
       <c r="B7" s="30" t="str">
-        <f>B5</f>
+        <f t="shared" ref="B7:H7" si="1">B5</f>
         <v>steel</v>
       </c>
       <c r="C7" s="28">
-        <f>C5</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="D7" s="28">
-        <f>D5</f>
+        <f t="shared" si="1"/>
         <v>0.108</v>
       </c>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
+      <c r="E7" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
@@ -1660,10 +1707,18 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
+      <c r="E8" s="139">
+        <v>0</v>
+      </c>
+      <c r="F8" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="139">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>144</v>
+      </c>
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1671,16 +1726,32 @@
         <v>79</v>
       </c>
       <c r="B9" s="25" t="str">
-        <f>B8</f>
+        <f t="shared" ref="B9:H9" si="2">B8</f>
         <v>steel</v>
       </c>
       <c r="C9" s="21">
-        <f>C8</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="D9" s="21">
-        <f>D8</f>
+        <f t="shared" si="2"/>
         <v>0.108</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1688,21 +1759,33 @@
         <v>82</v>
       </c>
       <c r="B10" s="30" t="str">
-        <f>B8</f>
+        <f t="shared" ref="B10:H10" si="3">B8</f>
         <v>steel</v>
       </c>
       <c r="C10" s="29">
-        <f>C8</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="D10" s="29">
-        <f>D8</f>
+        <f t="shared" si="3"/>
         <v>0.108</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
+      <c r="E10" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
@@ -1717,22 +1800,50 @@
       <c r="D11" s="50">
         <v>0</v>
       </c>
+      <c r="E11" s="139">
+        <v>0</v>
+      </c>
+      <c r="F11" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="139">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
         <v>80</v>
       </c>
       <c r="B12" s="25" t="str">
-        <f>B11</f>
+        <f t="shared" ref="B12:H12" si="4">B11</f>
         <v>steel</v>
       </c>
       <c r="C12" s="21">
-        <f>C11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D12" s="21">
-        <f>D11</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1740,21 +1851,33 @@
         <v>83</v>
       </c>
       <c r="B13" s="30" t="str">
-        <f>B11</f>
+        <f t="shared" ref="B13:H13" si="5">B11</f>
         <v>steel</v>
       </c>
       <c r="C13" s="29">
-        <f>C11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D13" s="29">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1770,22 +1893,50 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
+      <c r="E14" s="139">
+        <v>0</v>
+      </c>
+      <c r="F14" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="139">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="25" t="str">
-        <f>B14</f>
+        <f t="shared" ref="B15:H15" si="6">B14</f>
         <v>steel</v>
       </c>
       <c r="C15" s="21">
-        <f>C14</f>
+        <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
       <c r="D15" s="21">
-        <f>D14</f>
+        <f t="shared" si="6"/>
         <v>0.108</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1793,21 +1944,33 @@
         <v>73</v>
       </c>
       <c r="B16" s="30" t="str">
-        <f>B14</f>
+        <f t="shared" ref="B16:H16" si="7">B14</f>
         <v>steel</v>
       </c>
       <c r="C16" s="29">
-        <f>C14</f>
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
       <c r="D16" s="29">
-        <f>D14</f>
+        <f t="shared" si="7"/>
         <v>0.108</v>
       </c>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
+      <c r="E16" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="28" t="str">
+        <f t="shared" si="7"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1823,22 +1986,50 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
+      <c r="E17" s="139">
+        <v>0</v>
+      </c>
+      <c r="F17" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="139">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="25" t="str">
-        <f>B17</f>
+        <f t="shared" ref="B18:H18" si="8">B17</f>
         <v>steel</v>
       </c>
       <c r="C18" s="21">
-        <f>C17</f>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="D18" s="21">
-        <f>D17</f>
+        <f t="shared" si="8"/>
         <v>0.108</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1846,21 +2037,33 @@
         <v>76</v>
       </c>
       <c r="B19" s="30" t="str">
-        <f>B17</f>
+        <f t="shared" ref="B19:H19" si="9">B17</f>
         <v>steel</v>
       </c>
       <c r="C19" s="29">
-        <f>C17</f>
+        <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
       <c r="D19" s="29">
-        <f>D17</f>
+        <f t="shared" si="9"/>
         <v>0.108</v>
       </c>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
+      <c r="E19" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>recovered steam</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="28" t="str">
+        <f t="shared" si="9"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1876,6 +2079,18 @@
       <c r="D20" s="21">
         <f>D4</f>
         <v>0.1</v>
+      </c>
+      <c r="E20" s="139">
+        <v>0</v>
+      </c>
+      <c r="F20" s="139" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="139">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2522,10 +2737,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,6 +3087,22 @@
       <c r="D23" s="43">
         <f>94*Ref!$B$18</f>
         <v>0.33839999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>22.26/64.2</f>
+        <v>0.34672897196261682</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +3116,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,6 +3611,27 @@
       <c r="F23" s="138">
         <f>14.2*Ref!$B$18</f>
         <v>5.1119999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0</v>
+      </c>
+      <c r="E24" s="29">
+        <v>100</v>
+      </c>
+      <c r="F24" s="29">
+        <f>7*Ref!$B$18</f>
+        <v>2.52E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -6214,7 +6466,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6947,8 +7199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7581,7 +7833,7 @@
         <v>0.9</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" ref="D22:H22" si="4">D4</f>
+        <f t="shared" ref="D22:H23" si="4">D4</f>
         <v>0</v>
       </c>
       <c r="E22" s="10" t="str">
@@ -7596,6 +7848,34 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
       <c r="H22" s="10">
+        <f t="shared" si="4"/>
+        <v>1.9516585240421703E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="10">
+        <f>C5</f>
+        <v>0.9</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
+      <c r="H23" s="10">
         <f t="shared" si="4"/>
         <v>1.9516585240421703E-2</v>
       </c>
@@ -7623,7 +7903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -7723,7 +8003,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8452,6 +8732,34 @@
         <v>1E-3</v>
       </c>
       <c r="I23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="21">
+        <f>1.26/64.2</f>
+        <v>1.9626168224299065E-2</v>
+      </c>
+      <c r="F24" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="26">
+        <f>0.077/64.2</f>
+        <v>1.1993769470404984E-3</v>
+      </c>
     </row>
     <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -148,6 +148,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Samantha Eleanor Tanzer - TBM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+prev 0.071/0.6</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -196,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="177">
   <si>
     <t>scenario</t>
   </si>
@@ -690,9 +714,6 @@
     <t>paper</t>
   </si>
   <si>
-    <t>I ha</t>
-  </si>
-  <si>
     <t>Energy Demand</t>
   </si>
   <si>
@@ -717,7 +738,19 @@
     <t>H3PO4 Demand</t>
   </si>
   <si>
-    <t>mea</t>
+    <t>CLK-0B</t>
+  </si>
+  <si>
+    <t>CLK-HB</t>
+  </si>
+  <si>
+    <t>PLP-0B</t>
+  </si>
+  <si>
+    <t>PLP-HB</t>
+  </si>
+  <si>
+    <t>HFO - IPCC</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1096,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1227,6 +1260,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1510,13 +1544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="139" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F1" s="139" t="s">
         <v>9</v>
@@ -1571,7 +1605,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1618,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G5" s="139">
         <v>0</v>
@@ -1711,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="139">
         <v>0</v>
@@ -1804,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="139">
         <v>0</v>
@@ -1897,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="139">
         <v>0</v>
@@ -1990,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G17" s="139">
         <v>0</v>
@@ -2084,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="139">
         <v>0</v>
@@ -2113,12 +2147,70 @@
         <v>3.4694659999999993</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G21" s="77">
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="21">
+        <f>C$4</f>
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="21">
+        <f>D$4</f>
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="21">
+        <f>E$4</f>
+        <v>3.3</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="77">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="21">
+        <f>C$4</f>
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="21">
+        <f>D$4</f>
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="21">
+        <f>E$4</f>
+        <v>3.3</v>
+      </c>
+      <c r="F23" s="139" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="77">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2139,7 +2231,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,8 +2317,9 @@
       <c r="D4" s="79">
         <v>0.9</v>
       </c>
-      <c r="E4" s="79">
-        <v>1.05</v>
+      <c r="E4" s="43">
+        <f>151.9/1.119*Ref!$B$18</f>
+        <v>0.48868632707774806</v>
       </c>
       <c r="F4" s="79">
         <v>0</v>
@@ -2676,9 +2769,9 @@
         <f>D4</f>
         <v>0.9</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="38">
         <f>E4</f>
-        <v>1.05</v>
+        <v>0.48868632707774806</v>
       </c>
       <c r="F20" s="21">
         <f>F4</f>
@@ -2690,14 +2783,117 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="65"/>
+      <c r="A21" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="21">
+        <f>C$4</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" ref="D21:G24" si="10">D$4</f>
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="38">
+        <f t="shared" si="10"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" ref="C22:G24" si="11">C$4</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="21">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="38">
+        <f t="shared" si="10"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="21">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="38">
+        <f t="shared" si="10"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="21">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="38">
+        <f t="shared" si="10"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
@@ -2737,10 +2933,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,6 +3299,70 @@
       <c r="D24">
         <f>22.26/64.2</f>
         <v>0.34672897196261682</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="24">
+        <f>C$4</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="24">
+        <f t="shared" ref="D25:D28" si="10">D$4</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="24">
+        <f t="shared" ref="C26:D28" si="11">C$4</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="24">
+        <f t="shared" si="10"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="24">
+        <f t="shared" si="10"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="24">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="24">
+        <f t="shared" si="10"/>
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -3116,7 +3376,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,11 +3894,39 @@
         <v>2.52E-2</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>163</v>
+      </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
@@ -3896,7 +4184,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:A22"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,7 +6279,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6202,8 +6490,9 @@
       <c r="C14" s="20">
         <v>0.9</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>164</v>
+      <c r="D14" s="50">
+        <f>0.55*Ref!B$18/Ref!$C$12</f>
+        <v>1.3869182594347289</v>
       </c>
       <c r="E14" s="20"/>
     </row>
@@ -6219,9 +6508,9 @@
         <f>C14</f>
         <v>0.9</v>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="D15" s="23">
         <f>D14</f>
-        <v>I ha</v>
+        <v>1.3869182594347289</v>
       </c>
       <c r="E15" s="20"/>
     </row>
@@ -6237,9 +6526,9 @@
         <f>C14</f>
         <v>0.9</v>
       </c>
-      <c r="D16" s="54" t="str">
+      <c r="D16" s="54">
         <f>D14</f>
-        <v>I ha</v>
+        <v>1.3869182594347289</v>
       </c>
       <c r="E16" s="41"/>
     </row>
@@ -6383,7 +6672,7 @@
       <c r="C25" s="20">
         <v>1</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="49">
         <f>180*Ref!B$18</f>
         <v>0.64800000000000002</v>
       </c>
@@ -6399,7 +6688,7 @@
       <c r="C26" s="20">
         <v>1</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="49">
         <f>180*Ref!B$18</f>
         <v>0.64800000000000002</v>
       </c>
@@ -6422,25 +6711,71 @@
       <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="23">
+        <f>C$4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D28" s="23">
+        <f t="shared" ref="D28:D31" si="1">D$4</f>
+        <v>1.3869182594347289</v>
+      </c>
       <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="23">
+        <f t="shared" ref="C29:D31" si="2">C$4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D29" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3869182594347289</v>
+      </c>
       <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="23">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="D30" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3869182594347289</v>
+      </c>
       <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="A31" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="23">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="D31" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3869182594347289</v>
+      </c>
       <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -6466,15 +6801,15 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="12" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="20" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
@@ -7080,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
@@ -7090,11 +7425,24 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" ref="C28:C31" si="3">C7</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" ref="D28" si="4">D9</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="20" t="str">
+        <f t="shared" ref="E28" si="5">E9</f>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -7103,9 +7451,24 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="A29" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="3"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D29" s="20">
+        <f t="shared" ref="D29" si="6">D10</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="20" t="str">
+        <f t="shared" ref="E29" si="7">E10</f>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -7114,9 +7477,23 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="3"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D30" s="20">
+        <v>1</v>
+      </c>
+      <c r="E30" s="20" t="str">
+        <f t="shared" ref="E30" si="8">E11</f>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -7125,9 +7502,23 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+      <c r="A31" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="3"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="20" t="str">
+        <f t="shared" ref="E31" si="9">E12</f>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -7199,8 +7590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7880,19 +8271,134 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="10">
+        <f>C$4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" ref="D24:H27" si="5">D$4</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="5"/>
+        <v>1.9516585240421703E-2</v>
+      </c>
+    </row>
     <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="47"/>
+      <c r="A25" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" ref="C25:H27" si="6">C$4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="5"/>
+        <v>1.9516585240421703E-2</v>
+      </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="5"/>
+        <v>1.9516585240421703E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>dry wood chips (EU no swiss)</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="5"/>
+        <v>1.9516585240421703E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7901,10 +8407,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7928,16 +8434,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="G1" s="98" t="s">
         <v>171</v>
-      </c>
-      <c r="G1" s="98" t="s">
-        <v>172</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>2</v>
@@ -7969,7 +8475,7 @@
         <v>163</v>
       </c>
       <c r="C5">
-        <f>29/(8.98+6.499+1.036+0.048+1.2)*Ref!B18</f>
+        <f>29/(8.98+6.499+1.036+0.048+1.2)*Ref!B$18</f>
         <v>5.8773855767606832E-3</v>
       </c>
       <c r="D5">
@@ -7986,6 +8492,62 @@
       </c>
       <c r="G5">
         <f>0.1/17763</f>
+        <v>5.6296796712267076E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="141">
+        <f>29/(8.98+6.499+1.036+0.048+1.2)*Ref!B$18</f>
+        <v>5.8773855767606832E-3</v>
+      </c>
+      <c r="D6" s="141">
+        <f t="shared" ref="D6:D7" si="0">0.5/17763</f>
+        <v>2.8148398356133537E-5</v>
+      </c>
+      <c r="E6" s="141">
+        <f t="shared" ref="E6:G7" si="1">0.1/17763</f>
+        <v>5.6296796712267076E-6</v>
+      </c>
+      <c r="F6" s="141">
+        <f t="shared" si="1"/>
+        <v>5.6296796712267076E-6</v>
+      </c>
+      <c r="G6" s="141">
+        <f t="shared" si="1"/>
+        <v>5.6296796712267076E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="141">
+        <f>29/(8.98+6.499+1.036+0.048+1.2)*Ref!B$18</f>
+        <v>5.8773855767606832E-3</v>
+      </c>
+      <c r="D7" s="141">
+        <f t="shared" si="0"/>
+        <v>2.8148398356133537E-5</v>
+      </c>
+      <c r="E7" s="141">
+        <f t="shared" si="1"/>
+        <v>5.6296796712267076E-6</v>
+      </c>
+      <c r="F7" s="141">
+        <f t="shared" si="1"/>
+        <v>5.6296796712267076E-6</v>
+      </c>
+      <c r="G7" s="141">
+        <f t="shared" si="1"/>
         <v>5.6296796712267076E-6</v>
       </c>
     </row>
@@ -8003,7 +8565,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8106,18 +8668,23 @@
       <c r="D4" s="79">
         <v>0.9</v>
       </c>
-      <c r="E4" s="79">
-        <v>1.05</v>
-      </c>
-      <c r="F4" s="79">
-        <v>0</v>
-      </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="43">
+        <f>151.9/1.119*Ref!$B$18</f>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F4" s="43">
+        <f>3.7667/1.243</f>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="22">
+        <f>0.001</f>
+        <v>1E-3</v>
+      </c>
       <c r="I4" s="28"/>
-      <c r="J4" s="80" t="s">
-        <v>54</v>
-      </c>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
@@ -8638,18 +9205,18 @@
       </c>
       <c r="E20" s="21">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.48868632707774806</v>
       </c>
       <c r="F20" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.0303298471440061</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>148</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I20" s="21"/>
     </row>
@@ -8754,7 +9321,7 @@
         <v>3.2</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="H24" s="26">
         <f>0.077/64.2</f>
@@ -8762,16 +9329,132 @@
       </c>
     </row>
     <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="65"/>
+      <c r="A25" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="21">
+        <f>C$4</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="21">
+        <f t="shared" ref="D25:F28" si="11">D$4</f>
+        <v>0.9</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="11"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="11"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G25" s="21" t="str">
+        <f t="shared" ref="G25:H28" si="12">G$4</f>
+        <v>MEA</v>
+      </c>
+      <c r="H25" s="21">
+        <f t="shared" si="12"/>
+        <v>1E-3</v>
+      </c>
       <c r="I25" s="65"/>
       <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="21">
+        <f t="shared" ref="C26:C28" si="13">C$4</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="21">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="11"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="11"/>
+        <v>3.0303298471440061</v>
+      </c>
+      <c r="G26" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>MEA</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="12"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="21">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="21">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" si="11"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F27" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="G27" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>MEA</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="12"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D28" s="21">
+        <f t="shared" si="11"/>
+        <v>0.9</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="11"/>
+        <v>0.48868632707774806</v>
+      </c>
+      <c r="F28" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="G28" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>MEA</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" si="12"/>
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="33" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
@@ -8807,11 +9490,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9015,19 +9698,92 @@
         <v>0.27642276422764228</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="21">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F7" s="21">
+        <f>5.82/(0.74/0.85)</f>
+        <v>6.6851351351351349</v>
+      </c>
+      <c r="G7" s="65">
+        <f>0.22/(0.74/0.85)</f>
+        <v>0.25270270270270268</v>
+      </c>
+      <c r="H7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="65">
+        <f>0.49/1.43</f>
+        <v>0.34265734265734266</v>
+      </c>
+    </row>
     <row r="8" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="65"/>
+      <c r="A8" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="21">
+        <f>6.22*Ref!$B$18</f>
+        <v>2.2391999999999999E-2</v>
+      </c>
+      <c r="F8" s="21">
+        <f>4.95/(0.74/0.85)</f>
+        <v>5.6858108108108105</v>
+      </c>
+      <c r="G8" s="65">
+        <f>0.09/(0.74/0.85)</f>
+        <v>0.10337837837837838</v>
+      </c>
+      <c r="H8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="26">
+        <f>0.34/1.23</f>
+        <v>0.27642276422764228</v>
+      </c>
       <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="16" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1736F-5D6C-884D-A5F5-7B90035F0428}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="598" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="3860" yWindow="460" windowWidth="24940" windowHeight="17540" tabRatio="598" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet name="CO2 Storage" sheetId="13" r:id="rId12"/>
     <sheet name="Ref" sheetId="7" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,12 +43,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>S.E. Tanzer</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -76,12 +77,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="O8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -119,12 +120,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samantha Eleanor Tanzer - TBM</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -177,12 +178,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -756,7 +757,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1265,8 +1266,8 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1543,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1553,18 +1554,18 @@
       <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="17.85546875" style="139" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="1" width="19.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="17.83203125" style="139" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -1608,13 +1609,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>3</v>
       </c>
@@ -1634,7 +1635,7 @@
       <c r="G4" s="140"/>
       <c r="H4" s="140"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>77</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>78</v>
       </c>
@@ -1694,7 +1695,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>81</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>62</v>
       </c>
@@ -1755,7 +1756,7 @@
       </c>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="46" t="s">
         <v>79</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>82</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>63</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>80</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>83</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>73</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>76</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>dry wood chips (EU no swiss)</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>162</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>174</v>
       </c>
@@ -2164,15 +2165,15 @@
         <v>163</v>
       </c>
       <c r="C22" s="21">
-        <f>C$4</f>
+        <f t="shared" ref="C22:E23" si="10">C$4</f>
         <v>0.05</v>
       </c>
       <c r="D22" s="21">
-        <f>D$4</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="E22" s="21">
-        <f>E$4</f>
+        <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
       <c r="F22" s="77" t="s">
@@ -2185,7 +2186,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>175</v>
       </c>
@@ -2193,15 +2194,15 @@
         <v>163</v>
       </c>
       <c r="C23" s="21">
-        <f>C$4</f>
+        <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
       <c r="D23" s="21">
-        <f>D$4</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="E23" s="21">
-        <f>E$4</f>
+        <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
       <c r="F23" s="139" t="s">
@@ -2215,7 +2216,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A26:G49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:G49">
     <sortCondition ref="A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2224,7 +2225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,16 +2235,16 @@
       <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="21" customWidth="1"/>
-    <col min="4" max="6" width="8.85546875" style="21"/>
-    <col min="7" max="7" width="8.85546875" style="65"/>
-    <col min="8" max="16384" width="8.85546875" style="21"/>
+    <col min="1" max="2" width="12.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="21"/>
+    <col min="7" max="7" width="8.83203125" style="65"/>
+    <col min="8" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>38</v>
       </c>
@@ -2291,7 +2292,7 @@
       </c>
       <c r="H2" s="75"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
@@ -2307,7 +2308,7 @@
       <c r="G3" s="83"/>
       <c r="H3" s="75"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
@@ -2327,7 +2328,7 @@
       <c r="G4" s="28"/>
       <c r="H4" s="80"/>
     </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>77</v>
       </c>
@@ -2354,7 +2355,7 @@
       </c>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>78</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>81</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
         <v>62</v>
       </c>
@@ -2439,7 +2440,7 @@
       </c>
       <c r="H8" s="77"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>79</v>
       </c>
@@ -2469,7 +2470,7 @@
       </c>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>82</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
         <v>63</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>80</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>83</v>
       </c>
@@ -2583,7 +2584,7 @@
       </c>
       <c r="H13" s="29"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>71</v>
       </c>
@@ -2610,7 +2611,7 @@
       </c>
       <c r="H14" s="74"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>72</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>73</v>
       </c>
@@ -2668,7 +2669,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
@@ -2695,7 +2696,7 @@
       </c>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>75</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>76</v>
       </c>
@@ -2754,7 +2755,7 @@
       </c>
       <c r="H19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>172</v>
       </c>
@@ -2811,7 +2812,7 @@
       </c>
       <c r="H21" s="21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>173</v>
       </c>
@@ -2819,7 +2820,7 @@
         <v>135</v>
       </c>
       <c r="C22" s="21">
-        <f t="shared" ref="C22:G24" si="11">C$4</f>
+        <f t="shared" ref="C22:C24" si="11">C$4</f>
         <v>1</v>
       </c>
       <c r="D22" s="21">
@@ -2839,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>174</v>
       </c>
@@ -2867,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>175</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -2905,7 +2906,7 @@
       <c r="G25" s="65"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="33" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2915,7 +2916,7 @@
       <c r="G33" s="65"/>
       <c r="H33" s="21"/>
     </row>
-    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -2932,16 +2933,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>38</v>
       </c>
@@ -2967,7 +2968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
@@ -2977,7 +2978,7 @@
       </c>
       <c r="D3" s="75"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>77</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>78</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>81</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
         <v>62</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>79</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>82</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
         <v>63</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>80</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>83</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>71</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>72</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>73</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
@@ -3200,7 +3201,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>75</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>76</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -3250,12 +3251,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>149</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>0.33839999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>150</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>0.33839999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>162</v>
       </c>
@@ -3301,7 +3302,7 @@
         <v>0.34672897196261682</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>172</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>173</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>135</v>
       </c>
       <c r="C26" s="24">
-        <f t="shared" ref="C26:D28" si="11">C$4</f>
+        <f t="shared" ref="C26:C28" si="11">C$4</f>
         <v>0</v>
       </c>
       <c r="D26" s="24">
@@ -3333,7 +3334,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>174</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>175</v>
       </c>
@@ -3372,23 +3373,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
-    <col min="3" max="4" width="8.85546875" style="21"/>
-    <col min="5" max="5" width="12.85546875" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="21"/>
+    <col min="2" max="2" width="10.83203125" style="21" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="21"/>
+    <col min="5" max="5" width="12.83203125" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>38</v>
       </c>
@@ -3423,13 +3424,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>77</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>78</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>81</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>62</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>79</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>82</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
         <v>63</v>
       </c>
@@ -3611,7 +3612,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>80</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>83</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>71</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>72</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>73</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>75</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>76</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>146</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>149</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>5.1119999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>150</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>5.1119999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>162</v>
       </c>
@@ -3894,7 +3895,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>172</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>173</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>174</v>
       </c>
@@ -3920,7 +3921,7 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>175</v>
       </c>
@@ -3928,13 +3929,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -3946,33 +3947,33 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -3981,7 +3982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>5.3537967341839917E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>7.1573391630231102E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>1.2496698492013921E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>1.963482644775587E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>8.9938431337556905E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>8.0375122691175155E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>4.1190030040748338E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>1.2498170786115822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -4090,24 +4091,24 @@
         <v>1.4276255911483892E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="20"/>
       <c r="B16" s="16" t="s">
         <v>25</v>
@@ -4115,7 +4116,7 @@
       <c r="C16" s="16"/>
       <c r="H16" s="87"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
@@ -4124,7 +4125,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>27</v>
       </c>
@@ -4136,7 +4137,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="87"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>28</v>
       </c>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>37</v>
       </c>
@@ -4156,7 +4157,7 @@
       </c>
       <c r="E20" s="87"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>0.90718581887127947</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
         <v>131</v>
       </c>
@@ -4177,7 +4178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4187,28 +4188,28 @@
       <selection pane="bottomRight" activeCell="A21" sqref="A21:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="122" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="107" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="122" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="34"/>
-    <col min="12" max="12" width="15.28515625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="111"/>
-    <col min="14" max="14" width="8.85546875" style="114"/>
-    <col min="16" max="16" width="8.85546875" style="111"/>
-    <col min="17" max="18" width="8.85546875" style="103"/>
-    <col min="20" max="22" width="8.85546875" style="34"/>
+    <col min="1" max="1" width="18.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="122" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="122" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="34"/>
+    <col min="12" max="12" width="15.33203125" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="111"/>
+    <col min="14" max="14" width="8.83203125" style="114"/>
+    <col min="16" max="16" width="8.83203125" style="111"/>
+    <col min="17" max="18" width="8.83203125" style="103"/>
+    <col min="20" max="22" width="8.83203125" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>118</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>117</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="98" t="s">
         <v>125</v>
       </c>
@@ -4551,7 +4552,7 @@
       </c>
       <c r="Q8" s="137"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="98" t="s">
         <v>126</v>
       </c>
@@ -4588,7 +4589,7 @@
       </c>
       <c r="Q9" s="137"/>
     </row>
-    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>77</v>
       </c>
@@ -4718,7 +4719,7 @@
       <c r="Q11" s="136"/>
       <c r="R11" s="136"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>78</v>
       </c>
@@ -4780,7 +4781,7 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>81</v>
       </c>
@@ -4841,7 +4842,7 @@
       <c r="Q13" s="105"/>
       <c r="R13" s="105"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>62</v>
       </c>
@@ -4901,7 +4902,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>79</v>
       </c>
@@ -4963,7 +4964,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="1:23" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>82</v>
       </c>
@@ -5024,7 +5025,7 @@
       <c r="Q16" s="105"/>
       <c r="R16" s="105"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>63</v>
       </c>
@@ -5084,7 +5085,7 @@
       <c r="U17"/>
       <c r="V17"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
         <v>80</v>
       </c>
@@ -5146,7 +5147,7 @@
       <c r="U18"/>
       <c r="V18"/>
     </row>
-    <row r="19" spans="1:23" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>83</v>
       </c>
@@ -5210,7 +5211,7 @@
       <c r="U19" s="29"/>
       <c r="V19" s="29"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -5285,199 +5286,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F46" s="21"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F47" s="21"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F48" s="21"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="21"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="21"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="21"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="21"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="21"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" s="21"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="21"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F56" s="21"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="21"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58" s="21"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="21"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F60" s="21"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="21"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62" s="21"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="21"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F64" s="21"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="21"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66" s="21"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F67" s="21"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F68" s="21"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="21"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F70" s="21"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F71" s="21"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F72" s="21"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F73" s="21"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F74" s="21"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F75" s="21"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F76" s="21"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F77" s="21"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F78" s="21"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F79" s="21"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F80" s="21"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F81" s="21"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F82" s="21"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F83" s="21"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F84" s="21"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F85" s="21"/>
     </row>
   </sheetData>
@@ -5488,31 +5489,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" style="107" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="107" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="107" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="107" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5613,7 +5614,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>100</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>101</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>99</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>73</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>76</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -6275,26 +6276,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15" style="21" customWidth="1"/>
     <col min="3" max="3" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.140625" style="20"/>
+    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6311,7 +6312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -6320,13 +6321,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>100</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>101</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>99</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>77</v>
       </c>
@@ -6394,7 +6395,7 @@
       </c>
       <c r="E8" s="67"/>
     </row>
-    <row r="9" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>78</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>81</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>1.3869182594347289</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>62</v>
       </c>
@@ -6444,7 +6445,7 @@
       </c>
       <c r="E11" s="67"/>
     </row>
-    <row r="12" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
         <v>79</v>
       </c>
@@ -6462,7 +6463,7 @@
       </c>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>82</v>
       </c>
@@ -6480,7 +6481,7 @@
       </c>
       <c r="E13" s="41"/>
     </row>
-    <row r="14" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="52" t="s">
         <v>63</v>
       </c>
@@ -6496,7 +6497,7 @@
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>80</v>
       </c>
@@ -6514,7 +6515,7 @@
       </c>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>83</v>
       </c>
@@ -6532,7 +6533,7 @@
       </c>
       <c r="E16" s="41"/>
     </row>
-    <row r="17" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>71</v>
       </c>
@@ -6548,7 +6549,7 @@
       </c>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>72</v>
       </c>
@@ -6566,7 +6567,7 @@
       </c>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>73</v>
       </c>
@@ -6584,7 +6585,7 @@
       </c>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>74</v>
       </c>
@@ -6600,7 +6601,7 @@
       </c>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>75</v>
       </c>
@@ -6618,7 +6619,7 @@
       </c>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>76</v>
       </c>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="E22" s="41"/>
     </row>
-    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -6653,7 +6654,7 @@
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>146</v>
       </c>
@@ -6662,7 +6663,7 @@
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>149</v>
       </c>
@@ -6678,7 +6679,7 @@
       </c>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>150</v>
       </c>
@@ -6694,7 +6695,7 @@
       </c>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>162</v>
       </c>
@@ -6710,7 +6711,7 @@
       </c>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>172</v>
       </c>
@@ -6727,7 +6728,7 @@
       </c>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>173</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>135</v>
       </c>
       <c r="C29" s="23">
-        <f t="shared" ref="C29:D31" si="2">C$4</f>
+        <f t="shared" ref="C29:C31" si="2">C$4</f>
         <v>0.9</v>
       </c>
       <c r="D29" s="23">
@@ -6744,7 +6745,7 @@
       </c>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>174</v>
       </c>
@@ -6761,7 +6762,7 @@
       </c>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>175</v>
       </c>
@@ -6778,12 +6779,12 @@
       </c>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -6797,29 +6798,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="21" customWidth="1"/>
     <col min="2" max="2" width="12" style="21" customWidth="1"/>
     <col min="3" max="3" width="15" style="20" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.140625" style="20"/>
+    <col min="11" max="16384" width="10.1640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -6846,7 +6847,7 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -6859,13 +6860,13 @@
       </c>
       <c r="H2" s="68"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>100</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>101</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>99</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>77</v>
       </c>
@@ -6947,7 +6948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>78</v>
       </c>
@@ -6967,7 +6968,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>81</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>62</v>
       </c>
@@ -7010,7 +7011,7 @@
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
     </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
         <v>79</v>
       </c>
@@ -7037,7 +7038,7 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>82</v>
       </c>
@@ -7064,7 +7065,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="52" t="s">
         <v>63</v>
       </c>
@@ -7087,7 +7088,7 @@
       <c r="J14" s="61"/>
       <c r="K14" s="61"/>
     </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
         <v>80</v>
       </c>
@@ -7114,7 +7115,7 @@
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
         <v>83</v>
       </c>
@@ -7141,7 +7142,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>71</v>
       </c>
@@ -7164,7 +7165,7 @@
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>72</v>
       </c>
@@ -7191,7 +7192,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>73</v>
       </c>
@@ -7218,7 +7219,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>74</v>
       </c>
@@ -7241,7 +7242,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>75</v>
       </c>
@@ -7268,7 +7269,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>76</v>
       </c>
@@ -7295,7 +7296,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -7321,7 +7322,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>146</v>
       </c>
@@ -7347,7 +7348,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>149</v>
       </c>
@@ -7373,7 +7374,7 @@
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>150</v>
       </c>
@@ -7399,7 +7400,7 @@
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>162</v>
       </c>
@@ -7424,7 +7425,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>172</v>
       </c>
@@ -7450,7 +7451,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>173</v>
       </c>
@@ -7476,7 +7477,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>174</v>
       </c>
@@ -7501,7 +7502,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>175</v>
       </c>
@@ -7526,7 +7527,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
@@ -7539,8 +7540,8 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -7553,7 +7554,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="40" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
@@ -7566,8 +7567,8 @@
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
@@ -7587,28 +7588,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="20" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="47" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="20" customWidth="1"/>
+    <col min="6" max="7" width="15.83203125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="47" customWidth="1"/>
     <col min="9" max="9" width="19" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="21"/>
+    <col min="10" max="10" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
@@ -7655,13 +7656,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
@@ -7687,7 +7688,7 @@
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>77</v>
       </c>
@@ -7715,7 +7716,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>78</v>
       </c>
@@ -7748,7 +7749,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>81</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>62</v>
       </c>
@@ -7807,7 +7808,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>79</v>
       </c>
@@ -7840,7 +7841,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>82</v>
       </c>
@@ -7873,7 +7874,7 @@
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
         <v>63</v>
       </c>
@@ -7900,7 +7901,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>80</v>
       </c>
@@ -7930,7 +7931,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>83</v>
       </c>
@@ -7962,7 +7963,7 @@
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>71</v>
       </c>
@@ -7991,7 +7992,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>72</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>73</v>
       </c>
@@ -8054,7 +8055,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="41"/>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
@@ -8083,7 +8084,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>75</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>76</v>
       </c>
@@ -8146,7 +8147,7 @@
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>149</v>
       </c>
@@ -8212,7 +8213,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>150</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>162</v>
       </c>
@@ -8271,7 +8272,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>172</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>173</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>135</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25:H27" si="6">C$4</f>
+        <f t="shared" ref="C25:C27" si="6">C$4</f>
         <v>0.9</v>
       </c>
       <c r="D25" s="10">
@@ -8336,7 +8337,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>174</v>
       </c>
@@ -8368,7 +8369,7 @@
         <v>1.9516585240421703E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>175</v>
       </c>
@@ -8406,24 +8407,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8452,22 +8453,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>162</v>
       </c>
@@ -8495,7 +8496,7 @@
         <v>5.6296796712267076E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>174</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>5.6296796712267076E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>175</v>
       </c>
@@ -8558,31 +8559,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="18" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="65" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="21"/>
+    <col min="6" max="6" width="13.83203125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="65" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
@@ -8614,7 +8615,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>38</v>
       </c>
@@ -8640,7 +8641,7 @@
       </c>
       <c r="J2" s="75"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
@@ -8658,7 +8659,7 @@
       <c r="I3" s="83"/>
       <c r="J3" s="75"/>
     </row>
-    <row r="4" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
@@ -8686,7 +8687,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="80"/>
     </row>
-    <row r="5" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>77</v>
       </c>
@@ -8717,7 +8718,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="74"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>78</v>
       </c>
@@ -8751,7 +8752,7 @@
       </c>
       <c r="I6" s="94"/>
     </row>
-    <row r="7" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>81</v>
       </c>
@@ -8785,7 +8786,7 @@
       </c>
       <c r="I7" s="95"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
         <v>62</v>
       </c>
@@ -8814,7 +8815,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="77"/>
     </row>
-    <row r="9" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>79</v>
       </c>
@@ -8849,7 +8850,7 @@
       <c r="I9" s="94"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>82</v>
       </c>
@@ -8883,7 +8884,7 @@
       </c>
       <c r="I10" s="95"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
         <v>63</v>
       </c>
@@ -8914,7 +8915,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>80</v>
       </c>
@@ -8948,7 +8949,7 @@
       </c>
       <c r="I12" s="49"/>
     </row>
-    <row r="13" spans="1:10" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>83</v>
       </c>
@@ -8983,7 +8984,7 @@
       <c r="I13" s="82"/>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>71</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>72</v>
       </c>
@@ -9050,7 +9051,7 @@
       </c>
       <c r="I15" s="49"/>
     </row>
-    <row r="16" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>73</v>
       </c>
@@ -9084,7 +9085,7 @@
       </c>
       <c r="I16" s="82"/>
     </row>
-    <row r="17" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>75</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>76</v>
       </c>
@@ -9188,7 +9189,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>134</v>
       </c>
@@ -9203,11 +9204,11 @@
         <f t="shared" ref="D20:H23" si="10">D4</f>
         <v>0.9</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="38">
         <f t="shared" si="10"/>
         <v>0.48868632707774806</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="38">
         <f t="shared" si="10"/>
         <v>3.0303298471440061</v>
       </c>
@@ -9220,15 +9221,15 @@
       </c>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>146</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="21" t="s">
         <v>148</v>
       </c>
@@ -9236,7 +9237,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>149</v>
       </c>
@@ -9251,11 +9252,11 @@
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="38">
         <f t="shared" si="10"/>
         <v>0.48868632707774806</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="38">
         <f t="shared" si="10"/>
         <v>3.0303298471440061</v>
       </c>
@@ -9268,7 +9269,7 @@
       </c>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>150</v>
       </c>
@@ -9283,11 +9284,11 @@
         <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="38">
         <f t="shared" si="10"/>
         <v>0.48868632707774806</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="38">
         <f t="shared" si="10"/>
         <v>3.0303298471440061</v>
       </c>
@@ -9300,7 +9301,7 @@
       </c>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>162</v>
       </c>
@@ -9313,22 +9314,22 @@
       <c r="D24" s="21">
         <v>0.9</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="38">
         <f>1.26/64.2</f>
         <v>1.9626168224299065E-2</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="38">
         <v>3.2</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="49">
         <f>0.077/64.2</f>
         <v>1.1993769470404984E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>172</v>
       </c>
@@ -9343,11 +9344,11 @@
         <f t="shared" ref="D25:F28" si="11">D$4</f>
         <v>0.9</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="38">
         <f t="shared" si="11"/>
         <v>0.48868632707774806</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="38">
         <f t="shared" si="11"/>
         <v>3.0303298471440061</v>
       </c>
@@ -9362,7 +9363,7 @@
       <c r="I25" s="65"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>173</v>
       </c>
@@ -9377,11 +9378,11 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="38">
         <f t="shared" si="11"/>
         <v>0.48868632707774806</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="38">
         <f t="shared" si="11"/>
         <v>3.0303298471440061</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>174</v>
       </c>
@@ -9409,7 +9410,7 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="38">
         <f t="shared" si="11"/>
         <v>0.48868632707774806</v>
       </c>
@@ -9425,7 +9426,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>175</v>
       </c>
@@ -9440,7 +9441,7 @@
         <f t="shared" si="11"/>
         <v>0.9</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="38">
         <f t="shared" si="11"/>
         <v>0.48868632707774806</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -9468,7 +9469,7 @@
       <c r="I33" s="65"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="37" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -9487,33 +9488,33 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="21" customWidth="1"/>
     <col min="5" max="5" width="18" style="21" customWidth="1"/>
     <col min="6" max="6" width="23" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="65" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="65" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="65" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="21"/>
+    <col min="11" max="11" width="15.5" style="65" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>38</v>
       </c>
@@ -9579,7 +9580,7 @@
       </c>
       <c r="M2" s="75"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
@@ -9601,7 +9602,7 @@
       <c r="K3" s="83"/>
       <c r="M3" s="75"/>
     </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
@@ -9626,7 +9627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>149</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>0.34265734265734266</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>150</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>0.27642276422764228</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>172</v>
       </c>
@@ -9737,7 +9738,7 @@
         <v>0.34265734265734266</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>173</v>
       </c>
@@ -9777,15 +9778,15 @@
       </c>
       <c r="M8" s="21"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
     </row>
-    <row r="16" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -9799,7 +9800,7 @@
       <c r="K16" s="65"/>
       <c r="M16" s="21"/>
     </row>
-    <row r="20" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>

--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB1736F-5D6C-884D-A5F5-7B90035F0428}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14BA20D-18EF-9441-97AA-E0A1555A74D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="460" windowWidth="24940" windowHeight="17540" tabRatio="598" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="3180" windowWidth="28640" windowHeight="17540" tabRatio="598" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
     <sheet name="Charcoal" sheetId="22" r:id="rId2"/>
     <sheet name="Syngas" sheetId="20" r:id="rId3"/>
     <sheet name="Oxygen" sheetId="8" r:id="rId4"/>
-    <sheet name="Electricity" sheetId="9" r:id="rId5"/>
-    <sheet name="Heat" sheetId="18" r:id="rId6"/>
-    <sheet name="WWT" sheetId="26" r:id="rId7"/>
-    <sheet name="CO2 Capture" sheetId="12" r:id="rId8"/>
-    <sheet name="CLC Capture" sheetId="25" r:id="rId9"/>
-    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId10"/>
-    <sheet name="CO2 Compress" sheetId="24" r:id="rId11"/>
-    <sheet name="CO2 Storage" sheetId="13" r:id="rId12"/>
-    <sheet name="Ref" sheetId="7" r:id="rId13"/>
+    <sheet name="Power" sheetId="9" r:id="rId5"/>
+    <sheet name="Power Aux" sheetId="28" r:id="rId6"/>
+    <sheet name="Heat" sheetId="18" r:id="rId7"/>
+    <sheet name="WWT" sheetId="26" r:id="rId8"/>
+    <sheet name="CO2 Capture" sheetId="12" r:id="rId9"/>
+    <sheet name="CLC Capture" sheetId="25" r:id="rId10"/>
+    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId11"/>
+    <sheet name="CO2 Compress" sheetId="24" r:id="rId12"/>
+    <sheet name="CO2 Storage" sheetId="13" r:id="rId13"/>
+    <sheet name="Ref" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -133,7 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samantha Eleanor Tanzer - TBM:</t>
         </r>
@@ -142,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 prev 0.071/0.6</t>
@@ -157,7 +160,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samantha Eleanor Tanzer - TBM:</t>
         </r>
@@ -166,7 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 prev 0.071/0.6</t>
@@ -221,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="179">
   <si>
     <t>scenario</t>
   </si>
@@ -532,9 +535,6 @@
     <t>t MEA/ t syngas</t>
   </si>
   <si>
-    <t>Pipeline Distance</t>
-  </si>
-  <si>
     <t>from 2018 update report</t>
   </si>
   <si>
@@ -752,6 +752,15 @@
   </si>
   <si>
     <t>HFO - IPCC</t>
+  </si>
+  <si>
+    <t>Offshore Distance</t>
+  </si>
+  <si>
+    <t>Onshore Distance</t>
+  </si>
+  <si>
+    <t>km pipeline</t>
   </si>
 </sst>
 </file>
@@ -764,7 +773,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,19 +924,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1097,7 +1093,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1258,7 +1254,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1560,7 +1555,7 @@
     <col min="2" max="2" width="11.83203125" style="21" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="17.83203125" style="139" customWidth="1"/>
+    <col min="5" max="8" width="17.83203125" style="138" customWidth="1"/>
     <col min="9" max="9" width="25.5" style="21" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="21"/>
   </cols>
@@ -1570,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>5</v>
@@ -1578,16 +1573,16 @@
       <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="139" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="139" t="s">
+      <c r="E1" s="138" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="139" t="s">
+      <c r="G1" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="139" t="s">
+      <c r="H1" s="138" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="21" t="s">
@@ -1605,8 +1600,8 @@
       <c r="D2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="139" t="s">
-        <v>165</v>
+      <c r="E2" s="138" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1632,15 +1627,15 @@
       <c r="F4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="50">
         <v>0.05</v>
@@ -1649,17 +1644,17 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
-      <c r="E5" s="139">
-        <v>0</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="139">
+      <c r="E5" s="138">
+        <v>0</v>
+      </c>
+      <c r="F5" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="138">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1733,7 +1728,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="50">
         <v>0.05</v>
@@ -1742,17 +1737,17 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
-      <c r="E8" s="139">
-        <v>0</v>
-      </c>
-      <c r="F8" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="139">
+      <c r="E8" s="138">
+        <v>0</v>
+      </c>
+      <c r="F8" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="138">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="21"/>
     </row>
@@ -1827,7 +1822,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="50">
         <v>0</v>
@@ -1835,17 +1830,17 @@
       <c r="D11" s="50">
         <v>0</v>
       </c>
-      <c r="E11" s="139">
-        <v>0</v>
-      </c>
-      <c r="F11" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="139">
+      <c r="E11" s="138">
+        <v>0</v>
+      </c>
+      <c r="F11" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="138">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -1919,7 +1914,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="50">
         <v>0.05</v>
@@ -1928,17 +1923,17 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
-      <c r="E14" s="139">
-        <v>0</v>
-      </c>
-      <c r="F14" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="139">
+      <c r="E14" s="138">
+        <v>0</v>
+      </c>
+      <c r="F14" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="138">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2012,7 +2007,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="50">
         <v>0.05</v>
@@ -2021,17 +2016,17 @@
         <f>30*Ref!$B$18</f>
         <v>0.108</v>
       </c>
-      <c r="E17" s="139">
-        <v>0</v>
-      </c>
-      <c r="F17" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="139">
+      <c r="E17" s="138">
+        <v>0</v>
+      </c>
+      <c r="F17" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="138">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2102,10 +2097,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -2115,25 +2110,25 @@
         <f>D4</f>
         <v>0.1</v>
       </c>
-      <c r="E20" s="139">
-        <v>0</v>
-      </c>
-      <c r="F20" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="139">
+      <c r="E20" s="138">
+        <v>0</v>
+      </c>
+      <c r="F20" s="138" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="138">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="C21" s="21">
         <f>C5</f>
@@ -2148,21 +2143,21 @@
         <v>3.4694659999999993</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21" s="77">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C22" s="21">
         <f t="shared" ref="C22:E23" si="10">C$4</f>
@@ -2177,21 +2172,21 @@
         <v>3.3</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" s="77">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="21">
         <f t="shared" si="10"/>
@@ -2205,14 +2200,14 @@
         <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
+      <c r="F23" s="138" t="s">
+        <v>175</v>
       </c>
       <c r="G23" s="77">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2225,6 +2220,340 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="18" style="21" customWidth="1"/>
+    <col min="6" max="6" width="23" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="65" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="65" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="K1" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" s="75"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="83"/>
+      <c r="M3" s="75"/>
+    </row>
+    <row r="4" spans="1:13" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="78">
+        <v>1</v>
+      </c>
+      <c r="D4" s="79">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="79">
+        <v>1.05</v>
+      </c>
+      <c r="F4" s="79">
+        <v>0</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="28"/>
+      <c r="M4" s="80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="21">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F5" s="21">
+        <f>5.82/(0.74/0.85)</f>
+        <v>6.6851351351351349</v>
+      </c>
+      <c r="G5" s="65">
+        <f>0.22/(0.74/0.85)</f>
+        <v>0.25270270270270268</v>
+      </c>
+      <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="65">
+        <f>0.49/1.43</f>
+        <v>0.34265734265734266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="21">
+        <f>6.22*Ref!$B$18</f>
+        <v>2.2391999999999999E-2</v>
+      </c>
+      <c r="F6" s="21">
+        <f>4.95/(0.74/0.85)</f>
+        <v>5.6858108108108105</v>
+      </c>
+      <c r="G6" s="65">
+        <f>0.09/(0.74/0.85)</f>
+        <v>0.10337837837837838</v>
+      </c>
+      <c r="H6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K6" s="26">
+        <f>0.34/1.23</f>
+        <v>0.27642276422764228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E7" s="21">
+        <f>5*Ref!$B$18</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F7" s="21">
+        <f>5.82/(0.74/0.85)</f>
+        <v>6.6851351351351349</v>
+      </c>
+      <c r="G7" s="65">
+        <f>0.22/(0.74/0.85)</f>
+        <v>0.25270270270270268</v>
+      </c>
+      <c r="H7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="65">
+        <f>0.49/1.43</f>
+        <v>0.34265734265734266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="21">
+        <f>6.22*Ref!$B$18</f>
+        <v>2.2391999999999999E-2</v>
+      </c>
+      <c r="F8" s="21">
+        <f>4.95/(0.74/0.85)</f>
+        <v>5.6858108108108105</v>
+      </c>
+      <c r="G8" s="65">
+        <f>0.09/(0.74/0.85)</f>
+        <v>0.10337837837837838</v>
+      </c>
+      <c r="H8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="26">
+        <f>0.34/1.23</f>
+        <v>0.27642276422764228</v>
+      </c>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="16" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="65"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="20" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="65"/>
+      <c r="M20" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
@@ -2249,7 +2578,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>44</v>
@@ -2333,7 +2662,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="43">
         <v>1</v>
@@ -2418,7 +2747,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="43">
         <v>1</v>
@@ -2504,7 +2833,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="43">
         <v>1</v>
@@ -2589,7 +2918,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="43">
         <v>1</v>
@@ -2674,7 +3003,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="43">
         <v>1</v>
@@ -2757,10 +3086,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -2785,10 +3114,10 @@
     </row>
     <row r="21" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="21">
         <f>C$4</f>
@@ -2814,10 +3143,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="21">
         <f t="shared" ref="C22:C24" si="11">C$4</f>
@@ -2842,10 +3171,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="21">
         <f t="shared" si="11"/>
@@ -2870,10 +3199,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="21">
         <f t="shared" si="11"/>
@@ -2932,7 +3261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -2947,10 +3276,10 @@
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D1" s="71" t="s">
         <v>6</v>
@@ -2962,7 +3291,7 @@
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="74" t="s">
         <v>50</v>
@@ -2995,7 +3324,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="43">
         <v>0</v>
@@ -3044,7 +3373,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="43">
         <v>0</v>
@@ -3093,7 +3422,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="43">
         <v>0</v>
@@ -3142,7 +3471,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="43">
         <v>0</v>
@@ -3191,7 +3520,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="43">
         <v>0</v>
@@ -3237,10 +3566,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="24">
         <f>C4</f>
@@ -3253,15 +3582,15 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3273,10 +3602,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3288,10 +3617,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="C24">
         <f>0</f>
@@ -3304,10 +3633,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="24">
         <f>C$4</f>
@@ -3320,10 +3649,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="24">
         <f t="shared" ref="C26:C28" si="11">C$4</f>
@@ -3336,10 +3665,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="24">
         <f t="shared" si="11"/>
@@ -3352,10 +3681,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="24">
         <f t="shared" si="11"/>
@@ -3372,29 +3701,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="21" customWidth="1"/>
-    <col min="3" max="4" width="8.83203125" style="21"/>
-    <col min="5" max="5" width="12.83203125" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="21"/>
+    <col min="3" max="3" width="8.83203125" style="21"/>
+    <col min="4" max="4" width="16.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>55</v>
@@ -3403,13 +3735,16 @@
         <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
         <v>38</v>
       </c>
@@ -3420,17 +3755,23 @@
       <c r="D2" s="21" t="s">
         <v>58</v>
       </c>
+      <c r="E2" s="21" t="s">
+        <v>178</v>
+      </c>
       <c r="F2" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
     </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
@@ -3444,16 +3785,19 @@
         <v>100</v>
       </c>
       <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
         <f>7*Ref!$B$18</f>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="39">
         <v>0.01</v>
@@ -3465,11 +3809,14 @@
         <v>100</v>
       </c>
       <c r="F5" s="21">
-        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <f>G4</f>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>78</v>
       </c>
@@ -3478,7 +3825,7 @@
         <v>steel</v>
       </c>
       <c r="C6" s="21">
-        <f t="shared" ref="C6:F19" si="0">C$5</f>
+        <f t="shared" ref="C6:G19" si="0">C$5</f>
         <v>0.01</v>
       </c>
       <c r="D6" s="38">
@@ -3491,10 +3838,14 @@
       </c>
       <c r="F6" s="21">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>81</v>
       </c>
@@ -3516,15 +3867,19 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="21">
         <f>0.01</f>
@@ -3537,11 +3892,14 @@
         <v>100</v>
       </c>
       <c r="F8" s="21">
-        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <f>G7</f>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
         <v>79</v>
       </c>
@@ -3563,10 +3921,14 @@
       </c>
       <c r="F9" s="21">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
         <v>82</v>
       </c>
@@ -3587,15 +3949,19 @@
       </c>
       <c r="F10" s="29">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="21">
         <f>0.01</f>
@@ -3608,11 +3974,14 @@
         <v>100</v>
       </c>
       <c r="F11" s="21">
-        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <f>G10</f>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>80</v>
       </c>
@@ -3634,10 +4003,14 @@
       </c>
       <c r="F12" s="21">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>83</v>
       </c>
@@ -3659,15 +4032,19 @@
       </c>
       <c r="F13" s="29">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="21">
         <f>0.01</f>
@@ -3680,11 +4057,14 @@
         <v>100</v>
       </c>
       <c r="F14" s="21">
-        <f>F13</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <f>G13</f>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>72</v>
       </c>
@@ -3706,10 +4086,14 @@
       </c>
       <c r="F15" s="21">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>73</v>
       </c>
@@ -3731,15 +4115,19 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="21">
         <v>0.01</v>
@@ -3751,11 +4139,14 @@
         <v>100</v>
       </c>
       <c r="F17" s="21">
-        <f>F16</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <f>G16</f>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>75</v>
       </c>
@@ -3777,10 +4168,14 @@
       </c>
       <c r="F18" s="21">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>76</v>
       </c>
@@ -3802,15 +4197,19 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="0"/>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -3824,25 +4223,25 @@
         <f>E4</f>
         <v>100</v>
       </c>
-      <c r="F20" s="21">
-        <f>F4</f>
+      <c r="G20" s="21">
+        <f>G4</f>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="21">
         <v>6.0000000000000001E-3</v>
@@ -3850,17 +4249,17 @@
       <c r="E22" s="21">
         <v>100</v>
       </c>
-      <c r="F22" s="138">
+      <c r="G22" s="38">
         <f>14.2*Ref!$B$18</f>
         <v>5.1119999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="21">
         <v>6.0000000000000001E-3</v>
@@ -3869,17 +4268,18 @@
       <c r="E23" s="26">
         <v>100</v>
       </c>
-      <c r="F23" s="138">
+      <c r="F23" s="26"/>
+      <c r="G23" s="38">
         <f>14.2*Ref!$B$18</f>
         <v>5.1119999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="C24" s="29">
         <v>0.01</v>
@@ -3890,46 +4290,111 @@
       <c r="E24" s="29">
         <v>100</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="29"/>
+      <c r="G24" s="29">
         <f>7*Ref!$B$18</f>
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="64">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>100</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" ref="G25:G28" si="1">G24</f>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="B26" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="64">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>100</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" ref="F26:F28" si="2">F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="1"/>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="B27" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D27" s="64">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <v>100</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="1"/>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>175</v>
-      </c>
       <c r="B28" s="27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="64">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
+        <v>100</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="1"/>
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -3946,7 +4411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -4168,7 +4633,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4214,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -4229,34 +4694,34 @@
         <v>87</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" s="127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="N1" s="114" t="s">
         <v>114</v>
-      </c>
-      <c r="M1" s="111" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="114" t="s">
-        <v>115</v>
       </c>
       <c r="O1" t="s">
         <v>4</v>
       </c>
       <c r="P1" s="111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T1" s="34" t="s">
         <v>95</v>
@@ -4265,7 +4730,7 @@
         <v>97</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W1" t="s">
         <v>2</v>
@@ -4276,40 +4741,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="123" t="s">
-        <v>108</v>
-      </c>
       <c r="K2" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L2" s="96" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M2" s="112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" s="115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>98</v>
       </c>
       <c r="P2" s="108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="104"/>
       <c r="R2" s="104"/>
@@ -4320,7 +4785,7 @@
         <v>96</v>
       </c>
       <c r="V2" s="96" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -4332,16 +4797,16 @@
       <c r="G3" s="3"/>
       <c r="H3" s="34"/>
       <c r="I3" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4351,7 +4816,7 @@
         <v>2.5226450000000002</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="120">
         <v>1.65</v>
@@ -4382,10 +4847,10 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>119</v>
       </c>
       <c r="D5">
         <f>13.1*28.6/1000</f>
@@ -4396,7 +4861,7 @@
         <v>3.4621428571428576</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="34"/>
@@ -4422,11 +4887,11 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4436,7 +4901,7 @@
         <v>2.8461538461538463</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="34"/>
@@ -4465,16 +4930,16 @@
       </c>
       <c r="Q6" s="137"/>
       <c r="W6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4484,7 +4949,7 @@
         <v>2.8461538461538463</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="34"/>
@@ -4512,16 +4977,16 @@
       </c>
       <c r="Q7" s="137"/>
       <c r="W7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="98"/>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4531,7 +4996,7 @@
         <v>2.7472527472527473</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="34"/>
@@ -4554,11 +5019,11 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="98"/>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4568,7 +5033,7 @@
         <v>2.9325513196480935</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="34"/>
@@ -4594,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="29">
         <f>D5</f>
@@ -4665,7 +5130,7 @@
         <v>77</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>C$9</f>
@@ -4847,7 +5312,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" t="str">
         <f>C$9</f>
@@ -5030,7 +5495,7 @@
         <v>63</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="str">
         <f>C$9</f>
@@ -5213,10 +5678,10 @@
     </row>
     <row r="20" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="27" t="str">
         <f>C10</f>
@@ -5518,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -5539,13 +6004,13 @@
         <v>87</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J1" s="127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K1" s="129" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
@@ -5584,13 +6049,13 @@
         <v>86</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J2" s="96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K2" s="108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>70</v>
@@ -5621,7 +6086,7 @@
       <c r="F3" s="129"/>
       <c r="J3" s="34"/>
       <c r="K3" s="129" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -5644,7 +6109,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" s="27">
         <v>1.81</v>
@@ -5694,7 +6159,7 @@
         <v>0.32173913043478264</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I5" s="27">
         <v>1.81</v>
@@ -5745,7 +6210,7 @@
         <v>1.52</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I6" s="27">
         <v>1.81</v>
@@ -5844,7 +6309,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>59</v>
@@ -5856,13 +6321,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G8" s="43">
         <v>1.52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="39">
         <v>1.81</v>
@@ -6049,7 +6514,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>59</v>
@@ -6061,13 +6526,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="43">
         <v>1.52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I11" s="39">
         <v>1.81</v>
@@ -6251,10 +6716,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="I14">
         <v>1.81</v>
@@ -6300,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>30</v>
@@ -6384,7 +6849,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="66">
         <v>0.9</v>
@@ -6434,7 +6899,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="66">
         <v>0.9</v>
@@ -6486,7 +6951,7 @@
         <v>63</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="20">
         <v>0.9</v>
@@ -6538,7 +7003,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="20">
         <v>0.9</v>
@@ -6590,7 +7055,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="20">
         <v>0.9</v>
@@ -6639,10 +7104,10 @@
     </row>
     <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="C23" s="22">
         <f>C4</f>
@@ -6656,7 +7121,7 @@
     </row>
     <row r="24" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="20"/>
@@ -6665,10 +7130,10 @@
     </row>
     <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="20">
         <v>1</v>
@@ -6681,10 +7146,10 @@
     </row>
     <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="20">
         <v>1</v>
@@ -6697,10 +7162,10 @@
     </row>
     <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="C27" s="20">
         <v>1</v>
@@ -6713,10 +7178,10 @@
     </row>
     <row r="28" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="23">
         <f>C$4</f>
@@ -6730,10 +7195,10 @@
     </row>
     <row r="29" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="23">
         <f t="shared" ref="C29:C31" si="2">C$4</f>
@@ -6747,10 +7212,10 @@
     </row>
     <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="23">
         <f t="shared" si="2"/>
@@ -6764,10 +7229,10 @@
     </row>
     <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="23">
         <f t="shared" si="2"/>
@@ -6801,8 +7266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6825,7 +7290,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="68" t="s">
         <v>29</v>
@@ -6876,7 +7341,7 @@
       </c>
       <c r="D4" s="10">
         <f>D8</f>
-        <v>0</v>
+        <v>0.81059390048154101</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>59</v>
@@ -6936,13 +7401,14 @@
         <v>77</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="61">
         <v>0.56599999999999995</v>
       </c>
       <c r="D8" s="100">
-        <v>0</v>
+        <f>(2.9763+0.6597)/(2.9763+0.6597+0.8496)</f>
+        <v>0.81059390048154101</v>
       </c>
       <c r="E8" s="61" t="s">
         <v>59</v>
@@ -6961,7 +7427,7 @@
       </c>
       <c r="D9" s="101">
         <f t="shared" ref="D9" si="0">D$8</f>
-        <v>0</v>
+        <v>0.81059390048154101</v>
       </c>
       <c r="E9" s="21" t="str">
         <f>E8</f>
@@ -6981,7 +7447,7 @@
       </c>
       <c r="D10" s="102">
         <f t="shared" ref="D10:E10" si="1">D$8</f>
-        <v>0</v>
+        <v>0.81059390048154101</v>
       </c>
       <c r="E10" s="41" t="str">
         <f t="shared" si="1"/>
@@ -6993,7 +7459,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="61">
         <v>0.56599999999999995</v>
@@ -7070,7 +7536,7 @@
         <v>63</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="61">
         <v>0.56599999999999995</v>
@@ -7147,7 +7613,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="61">
         <v>0.56599999999999995</v>
@@ -7224,7 +7690,7 @@
         <v>74</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="61">
         <v>0.56599999999999995</v>
@@ -7298,17 +7764,16 @@
     </row>
     <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="C23" s="20">
-        <f t="shared" ref="C23:E27" si="2">C4</f>
+        <f t="shared" ref="C23:E26" si="2">C4</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D23" s="20">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E23" s="20" t="str">
@@ -7324,10 +7789,10 @@
     </row>
     <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" si="2"/>
@@ -7350,10 +7815,10 @@
     </row>
     <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="21">
         <f>C4</f>
@@ -7376,10 +7841,10 @@
     </row>
     <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="21">
         <f>C5</f>
@@ -7402,21 +7867,20 @@
     </row>
     <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="C27" s="21">
         <f>C6</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D27" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
@@ -7427,21 +7891,20 @@
     </row>
     <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="21">
         <f t="shared" ref="C28:C31" si="3">C7</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D28" s="20">
-        <f t="shared" ref="D28" si="4">D9</f>
         <v>0</v>
       </c>
       <c r="E28" s="20" t="str">
-        <f t="shared" ref="E28" si="5">E9</f>
+        <f t="shared" ref="E28" si="4">E9</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F28" s="20"/>
@@ -7453,21 +7916,20 @@
     </row>
     <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="21">
         <f t="shared" si="3"/>
         <v>0.56599999999999995</v>
       </c>
       <c r="D29" s="20">
-        <f t="shared" ref="D29" si="6">D10</f>
         <v>0</v>
       </c>
       <c r="E29" s="20" t="str">
-        <f t="shared" ref="E29" si="7">E10</f>
+        <f t="shared" ref="E29" si="5">E10</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F29" s="20"/>
@@ -7479,10 +7941,10 @@
     </row>
     <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="21">
         <f t="shared" si="3"/>
@@ -7492,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="20" t="str">
-        <f t="shared" ref="E30" si="8">E11</f>
+        <f t="shared" ref="E30" si="6">E11</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F30" s="20"/>
@@ -7504,10 +7966,10 @@
     </row>
     <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="21">
         <f t="shared" si="3"/>
@@ -7517,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="20" t="str">
-        <f t="shared" ref="E31" si="9">E12</f>
+        <f t="shared" ref="E31" si="7">E12</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F31" s="20"/>
@@ -7588,6 +8050,679 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4B2801-7AA7-1B40-897D-136340C88BD2}">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="12" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="19" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.1640625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="68"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20">
+        <f>C8</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D4" s="10">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="20">
+        <f>C4</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20" t="str">
+        <f>E4</f>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="47">
+        <f>C4</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D6" s="89">
+        <v>0</v>
+      </c>
+      <c r="E6" s="47" t="str">
+        <f>E4</f>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="41">
+        <f>C4</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0</v>
+      </c>
+      <c r="E7" s="81" t="str">
+        <f>E4</f>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="61">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D8" s="100">
+        <v>0</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="25" t="str">
+        <f>B8</f>
+        <v>steel</v>
+      </c>
+      <c r="C9" s="61">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D9" s="101">
+        <f t="shared" ref="D9:E10" si="0">D$8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="21" t="str">
+        <f>E8</f>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="30" t="str">
+        <f>B8</f>
+        <v>steel</v>
+      </c>
+      <c r="C10" s="62">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D10" s="102">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>natural gas - IPCC</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="61">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D11" s="100">
+        <v>0</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+    </row>
+    <row r="12" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="25" t="str">
+        <f>B11</f>
+        <v>steel</v>
+      </c>
+      <c r="C12" s="20">
+        <f>C11</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D12" s="101">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="20" t="str">
+        <f>E11</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="30" t="str">
+        <f>B11</f>
+        <v>steel</v>
+      </c>
+      <c r="C13" s="41">
+        <f>C11</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D13" s="102">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="41" t="str">
+        <f>E11</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="61">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D14" s="100">
+        <v>0</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+    </row>
+    <row r="15" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="25" t="str">
+        <f>B14</f>
+        <v>steel</v>
+      </c>
+      <c r="C15" s="20">
+        <f>C14</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D15" s="101">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="20" t="str">
+        <f>E14</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="30" t="str">
+        <f>B14</f>
+        <v>steel</v>
+      </c>
+      <c r="C16" s="41">
+        <f>C14</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D16" s="102">
+        <f>D14</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="41" t="str">
+        <f>E14</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="61">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D17" s="100">
+        <v>0</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="25" t="str">
+        <f>B17</f>
+        <v>steel</v>
+      </c>
+      <c r="C18" s="20">
+        <f>C17</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D18" s="101">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="20" t="str">
+        <f>E17</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="30" t="str">
+        <f>B17</f>
+        <v>steel</v>
+      </c>
+      <c r="C19" s="41">
+        <f>C17</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D19" s="102">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="41" t="str">
+        <f>E17</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="61">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D20" s="100">
+        <v>0</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="25" t="str">
+        <f>B20</f>
+        <v>steel</v>
+      </c>
+      <c r="C21" s="20">
+        <f>C20</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D21" s="101">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="20" t="str">
+        <f>E20</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="30" t="str">
+        <f>B20</f>
+        <v>steel</v>
+      </c>
+      <c r="C22" s="41">
+        <f>C20</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D22" s="102">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="41" t="str">
+        <f>E20</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="21">
+        <f t="shared" ref="C23:C26" si="1">C6</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D23" s="20">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="20" t="str">
+        <f>E8</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" si="1"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D24" s="20">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="20" t="str">
+        <f>E9</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="21">
+        <f t="shared" si="1"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0</v>
+      </c>
+      <c r="E25" s="20" t="str">
+        <f>E10</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="21">
+        <f t="shared" si="1"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20" t="str">
+        <f>E11</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="36" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
@@ -7614,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="68" t="s">
         <v>29</v>
@@ -7679,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
@@ -7693,7 +8828,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="16">
         <v>0.9</v>
@@ -7709,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
@@ -7740,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H6" s="64">
         <f>H5</f>
@@ -7773,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="58">
         <f>H5</f>
@@ -7785,7 +8920,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="16">
         <v>0.9</v>
@@ -7801,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
@@ -7832,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H9" s="64">
         <f>H8</f>
@@ -7865,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="58">
         <f>H8</f>
@@ -7879,7 +9014,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="69">
         <v>0.9</v>
@@ -7894,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
@@ -7924,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H12" s="64">
         <f>H11</f>
@@ -7954,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H13" s="58">
         <f>H11</f>
@@ -7968,7 +9103,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="69">
         <v>0.9</v>
@@ -7983,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
@@ -8016,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H15" s="64">
         <f>H14</f>
@@ -8046,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="58">
         <f>H14</f>
@@ -8060,7 +9195,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="69">
         <v>0.9</v>
@@ -8075,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="64">
         <f>(25.3/4.6668)*Ref!B$18</f>
@@ -8108,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H18" s="64">
         <f>H17</f>
@@ -8138,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H19" s="58">
         <f>H17</f>
@@ -8149,10 +9284,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="10">
         <f>C4</f>
@@ -8181,10 +9316,10 @@
     </row>
     <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="10">
         <f>C4</f>
@@ -8215,10 +9350,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="10">
         <f>C4</f>
@@ -8246,10 +9381,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="C23" s="10">
         <f>C5</f>
@@ -8274,10 +9409,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="10">
         <f>C$4</f>
@@ -8306,10 +9441,10 @@
     </row>
     <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="10">
         <f t="shared" ref="C25:C27" si="6">C$4</f>
@@ -8339,10 +9474,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="6"/>
@@ -8371,10 +9506,10 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="6"/>
@@ -8406,7 +9541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -8429,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="G1" s="98" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="98" t="s">
-        <v>171</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>2</v>
@@ -8470,10 +9605,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
         <v>162</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
       </c>
       <c r="C5">
         <f>29/(8.98+6.499+1.036+0.048+1.2)*Ref!B$18</f>
@@ -8498,56 +9633,56 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="141">
+        <v>162</v>
+      </c>
+      <c r="C6" s="140">
         <f>29/(8.98+6.499+1.036+0.048+1.2)*Ref!B$18</f>
         <v>5.8773855767606832E-3</v>
       </c>
-      <c r="D6" s="141">
+      <c r="D6" s="140">
         <f t="shared" ref="D6:D7" si="0">0.5/17763</f>
         <v>2.8148398356133537E-5</v>
       </c>
-      <c r="E6" s="141">
+      <c r="E6" s="140">
         <f t="shared" ref="E6:G7" si="1">0.1/17763</f>
         <v>5.6296796712267076E-6</v>
       </c>
-      <c r="F6" s="141">
+      <c r="F6" s="140">
         <f t="shared" si="1"/>
         <v>5.6296796712267076E-6</v>
       </c>
-      <c r="G6" s="141">
+      <c r="G6" s="140">
         <f t="shared" si="1"/>
         <v>5.6296796712267076E-6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="141">
+        <v>162</v>
+      </c>
+      <c r="C7" s="140">
         <f>29/(8.98+6.499+1.036+0.048+1.2)*Ref!B$18</f>
         <v>5.8773855767606832E-3</v>
       </c>
-      <c r="D7" s="141">
+      <c r="D7" s="140">
         <f t="shared" si="0"/>
         <v>2.8148398356133537E-5</v>
       </c>
-      <c r="E7" s="141">
+      <c r="E7" s="140">
         <f t="shared" si="1"/>
         <v>5.6296796712267076E-6</v>
       </c>
-      <c r="F7" s="141">
+      <c r="F7" s="140">
         <f t="shared" si="1"/>
         <v>5.6296796712267076E-6</v>
       </c>
-      <c r="G7" s="141">
+      <c r="G7" s="140">
         <f t="shared" si="1"/>
         <v>5.6296796712267076E-6</v>
       </c>
@@ -8558,11 +9693,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8588,7 +9723,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="70" t="s">
         <v>44</v>
@@ -8603,13 +9738,13 @@
         <v>46</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H1" s="71" t="s">
         <v>65</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J1" s="71" t="s">
         <v>47</v>
@@ -8637,7 +9772,7 @@
         <v>89</v>
       </c>
       <c r="I2" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J2" s="75"/>
     </row>
@@ -8678,7 +9813,7 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="22">
         <f>0.001</f>
@@ -8692,7 +9827,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="43">
         <v>1</v>
@@ -8709,7 +9844,7 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="22">
         <f>0.001</f>
@@ -8791,7 +9926,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="76">
         <v>1</v>
@@ -8806,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" s="22">
         <f>0.001</f>
@@ -8889,7 +10024,7 @@
         <v>63</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="43">
         <v>1</v>
@@ -8905,14 +10040,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H11" s="50">
         <v>0</v>
       </c>
       <c r="I11" s="50"/>
       <c r="J11" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -8989,7 +10124,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="43">
         <v>1</v>
@@ -9006,7 +10141,7 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" s="22">
         <f>0.001</f>
@@ -9014,7 +10149,7 @@
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -9090,7 +10225,7 @@
         <v>74</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="43">
         <v>1</v>
@@ -9106,13 +10241,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="39">
         <v>0</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
@@ -9149,7 +10284,7 @@
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -9186,15 +10321,15 @@
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="C20" s="21">
         <f>C4</f>
@@ -9213,7 +10348,7 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="10"/>
@@ -9223,7 +10358,7 @@
     </row>
     <row r="21" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -9231,7 +10366,7 @@
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="65"/>
@@ -9239,10 +10374,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="21">
         <f>C6</f>
@@ -9261,7 +10396,7 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="10"/>
@@ -9271,10 +10406,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="21">
         <f>C7</f>
@@ -9293,7 +10428,7 @@
         <v>3.0303298471440061</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H23" s="21">
         <f t="shared" si="10"/>
@@ -9303,10 +10438,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>163</v>
       </c>
       <c r="C24" s="21">
         <v>1</v>
@@ -9322,7 +10457,7 @@
         <v>3.2</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H24" s="49">
         <f>0.077/64.2</f>
@@ -9331,10 +10466,10 @@
     </row>
     <row r="25" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="21">
         <f>C$4</f>
@@ -9365,10 +10500,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="21">
         <f t="shared" ref="C26:C28" si="13">C$4</f>
@@ -9397,10 +10532,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="21">
         <f t="shared" si="13"/>
@@ -9428,10 +10563,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="21">
         <f t="shared" si="13"/>
@@ -9485,338 +10620,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="18" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="65" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="65" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="M2" s="75"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="83"/>
-      <c r="M3" s="75"/>
-    </row>
-    <row r="4" spans="1:13" s="29" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="78">
-        <v>1</v>
-      </c>
-      <c r="D4" s="79">
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="79">
-        <v>1.05</v>
-      </c>
-      <c r="F4" s="79">
-        <v>0</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="28"/>
-      <c r="M4" s="80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="E5" s="21">
-        <f>5*Ref!$B$18</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F5" s="21">
-        <f>5.82/(0.74/0.85)</f>
-        <v>6.6851351351351349</v>
-      </c>
-      <c r="G5" s="65">
-        <f>0.22/(0.74/0.85)</f>
-        <v>0.25270270270270268</v>
-      </c>
-      <c r="H5" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K5" s="65">
-        <f>0.49/1.43</f>
-        <v>0.34265734265734266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="21">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="21">
-        <f>6.22*Ref!$B$18</f>
-        <v>2.2391999999999999E-2</v>
-      </c>
-      <c r="F6" s="21">
-        <f>4.95/(0.74/0.85)</f>
-        <v>5.6858108108108105</v>
-      </c>
-      <c r="G6" s="65">
-        <f>0.09/(0.74/0.85)</f>
-        <v>0.10337837837837838</v>
-      </c>
-      <c r="H6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="10">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K6" s="26">
-        <f>0.34/1.23</f>
-        <v>0.27642276422764228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="E7" s="21">
-        <f>5*Ref!$B$18</f>
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F7" s="21">
-        <f>5.82/(0.74/0.85)</f>
-        <v>6.6851351351351349</v>
-      </c>
-      <c r="G7" s="65">
-        <f>0.22/(0.74/0.85)</f>
-        <v>0.25270270270270268</v>
-      </c>
-      <c r="H7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="65">
-        <f>0.49/1.43</f>
-        <v>0.34265734265734266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="21">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0.85</v>
-      </c>
-      <c r="E8" s="21">
-        <f>6.22*Ref!$B$18</f>
-        <v>2.2391999999999999E-2</v>
-      </c>
-      <c r="F8" s="21">
-        <f>4.95/(0.74/0.85)</f>
-        <v>5.6858108108108105</v>
-      </c>
-      <c r="G8" s="65">
-        <f>0.09/(0.74/0.85)</f>
-        <v>0.10337837837837838</v>
-      </c>
-      <c r="H8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="26">
-        <f>0.34/1.23</f>
-        <v>0.27642276422764228</v>
-      </c>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-    </row>
-    <row r="16" spans="1:13" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="65"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="20" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="65"/>
-      <c r="M20" s="21"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/data/shared/shared_var.xlsx
+++ b/data/shared/shared_var.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14BA20D-18EF-9441-97AA-E0A1555A74D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF8F39-2562-AB46-A606-544DC2BAE3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="3180" windowWidth="28640" windowHeight="17540" tabRatio="598" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="28640" windowHeight="17540" tabRatio="598" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="2" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="180">
   <si>
     <t>scenario</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>km pipeline</t>
+  </si>
+  <si>
+    <t>BBF_IEAGHG</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1096,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1257,6 +1260,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3705,7 +3709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -7264,10 +7268,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7336,320 +7340,309 @@
         <v>3</v>
       </c>
       <c r="C4" s="20">
-        <f>C8</f>
+        <f>C9</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D4" s="10">
-        <f>D8</f>
-        <v>0.81059390048154101</v>
+        <v>0</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="68">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D5" s="141">
+        <f>(2.9763+0.6597)/(2.9763+0.6597+0.8496)</f>
+        <v>0.81059390048154101</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C6" s="20">
         <f>C4</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20" t="str">
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="str">
         <f>E4</f>
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C7" s="47">
         <f>C4</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D6" s="89">
-        <v>0</v>
-      </c>
-      <c r="E6" s="47" t="str">
+      <c r="D7" s="89">
+        <v>0</v>
+      </c>
+      <c r="E7" s="47" t="str">
         <f>E4</f>
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="8" spans="1:11" s="41" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="41">
+      <c r="B8" s="29"/>
+      <c r="C8" s="41">
         <f>C4</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D7" s="42">
-        <v>0</v>
-      </c>
-      <c r="E7" s="81" t="str">
+      <c r="D8" s="42">
+        <v>0</v>
+      </c>
+      <c r="E8" s="81" t="str">
         <f>E4</f>
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+    <row r="9" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B9" s="32" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" s="61">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D8" s="100">
-        <f>(2.9763+0.6597)/(2.9763+0.6597+0.8496)</f>
-        <v>0.81059390048154101</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="25" t="str">
-        <f>B8</f>
-        <v>steel</v>
       </c>
       <c r="C9" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D9" s="101">
-        <f t="shared" ref="D9" si="0">D$8</f>
-        <v>0.81059390048154101</v>
-      </c>
-      <c r="E9" s="21" t="str">
-        <f>E8</f>
+      <c r="D9" s="100">
+        <v>0</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="25" t="str">
+        <f>B9</f>
+        <v>steel</v>
+      </c>
+      <c r="C10" s="61">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D10" s="101">
+        <f t="shared" ref="D10" si="0">D$9</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="21" t="str">
+        <f>E9</f>
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="11" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="30" t="str">
-        <f>B8</f>
+      <c r="B11" s="30" t="str">
+        <f>B9</f>
         <v>steel</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C11" s="62">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D10" s="102">
-        <f t="shared" ref="D10:E10" si="1">D$8</f>
-        <v>0.81059390048154101</v>
-      </c>
-      <c r="E10" s="41" t="str">
+      <c r="D11" s="102">
+        <f t="shared" ref="D11:E11" si="1">D$9</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="41" t="str">
         <f t="shared" si="1"/>
         <v>natural gas - IPCC</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="12" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B12" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C12" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D11" s="100">
-        <v>0</v>
-      </c>
-      <c r="E11" s="61" t="s">
+      <c r="D12" s="100">
+        <v>0</v>
+      </c>
+      <c r="E12" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-    </row>
-    <row r="12" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+    </row>
+    <row r="13" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="25" t="str">
-        <f>B11</f>
+      <c r="B13" s="25" t="str">
+        <f>B12</f>
         <v>steel</v>
       </c>
-      <c r="C12" s="20">
-        <f>C11</f>
+      <c r="C13" s="20">
+        <f>C12</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D12" s="101">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="20" t="str">
-        <f>E11</f>
+      <c r="D13" s="101">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="str">
+        <f>E12</f>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="30" t="str">
-        <f>B11</f>
+      <c r="B14" s="30" t="str">
+        <f>B12</f>
         <v>steel</v>
       </c>
-      <c r="C13" s="41">
-        <f>C11</f>
+      <c r="C14" s="41">
+        <f>C12</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D13" s="102">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="41" t="str">
-        <f>E11</f>
+      <c r="D14" s="102">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="41" t="str">
+        <f>E12</f>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B15" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C15" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D14" s="100">
-        <v>0</v>
-      </c>
-      <c r="E14" s="61" t="s">
+      <c r="D15" s="100">
+        <v>0</v>
+      </c>
+      <c r="E15" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-    </row>
-    <row r="15" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+    </row>
+    <row r="16" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="25" t="str">
-        <f>B14</f>
+      <c r="B16" s="25" t="str">
+        <f>B15</f>
         <v>steel</v>
       </c>
-      <c r="C15" s="20">
-        <f>C14</f>
+      <c r="C16" s="20">
+        <f>C15</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D15" s="101">
-        <f>D14</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="20" t="str">
-        <f>E14</f>
+      <c r="D16" s="101">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="20" t="str">
+        <f>E15</f>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" s="56" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="30" t="str">
-        <f>B14</f>
+      <c r="B17" s="30" t="str">
+        <f>B15</f>
         <v>steel</v>
       </c>
-      <c r="C16" s="41">
-        <f>C14</f>
+      <c r="C17" s="41">
+        <f>C15</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D16" s="102">
-        <f>D14</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="41" t="str">
-        <f>E14</f>
+      <c r="D17" s="102">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="41" t="str">
+        <f>E15</f>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="61">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D17" s="100">
-        <v>0</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="25" t="str">
-        <f>B17</f>
-        <v>steel</v>
-      </c>
-      <c r="C18" s="20">
-        <f>C17</f>
+        <v>71</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D18" s="101">
-        <f>D17</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="20" t="str">
-        <f>E17</f>
-        <v>natural gas - IPCC</v>
+      <c r="D18" s="100">
+        <v>0</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>59</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
@@ -7658,75 +7651,75 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+    <row r="19" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="25" t="str">
+        <f>B18</f>
+        <v>steel</v>
+      </c>
+      <c r="C19" s="20">
+        <f>C18</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D19" s="101">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20" t="str">
+        <f>E18</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="30" t="str">
-        <f>B17</f>
+      <c r="B20" s="30" t="str">
+        <f>B18</f>
         <v>steel</v>
       </c>
-      <c r="C19" s="41">
-        <f>C17</f>
+      <c r="C20" s="41">
+        <f>C18</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D19" s="102">
-        <f>D17</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="41" t="str">
-        <f>E17</f>
+      <c r="D20" s="102">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="41" t="str">
+        <f>E18</f>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-    </row>
-    <row r="20" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B21" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C21" s="61">
         <v>0.56599999999999995</v>
       </c>
-      <c r="D20" s="100">
-        <v>0</v>
-      </c>
-      <c r="E20" s="61" t="s">
+      <c r="D21" s="100">
+        <v>0</v>
+      </c>
+      <c r="E21" s="61" t="s">
         <v>59</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="25" t="str">
-        <f>B20</f>
-        <v>steel</v>
-      </c>
-      <c r="C21" s="20">
-        <f>C20</f>
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D21" s="101">
-        <f>D20</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="20" t="str">
-        <f>E20</f>
-        <v>natural gas - IPCC</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -7735,75 +7728,76 @@
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:11" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="25" t="str">
+        <f>B21</f>
+        <v>steel</v>
+      </c>
+      <c r="C22" s="20">
+        <f>C21</f>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D22" s="101">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="20" t="str">
+        <f>E21</f>
+        <v>natural gas - IPCC</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" s="29" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="30" t="str">
-        <f>B20</f>
+      <c r="B23" s="30" t="str">
+        <f>B21</f>
         <v>steel</v>
       </c>
-      <c r="C22" s="41">
-        <f>C20</f>
+      <c r="C23" s="41">
+        <f>C21</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="D22" s="102">
-        <f>D20</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="41" t="str">
-        <f>E20</f>
+      <c r="D23" s="102">
+        <f>D21</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="41" t="str">
+        <f>E21</f>
         <v>natural gas - IPCC</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-    </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+    </row>
+    <row r="24" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>133</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C23" s="20">
-        <f t="shared" ref="C23:E26" si="2">C4</f>
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>natural gas - IPCC</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>134</v>
       </c>
       <c r="C24" s="20">
-        <f t="shared" si="2"/>
+        <f>C4</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D24" s="20">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f>E4</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F24" s="20"/>
@@ -7813,23 +7807,23 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>148</v>
+    <row r="25" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>145</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="21">
-        <f>C4</f>
+      <c r="C25" s="20">
+        <f>C6</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D25" s="20">
-        <f t="shared" si="2"/>
+        <f>D6</f>
         <v>0</v>
       </c>
       <c r="E25" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f>E6</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F25" s="20"/>
@@ -7841,21 +7835,21 @@
     </row>
     <row r="26" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>134</v>
       </c>
       <c r="C26" s="21">
-        <f>C5</f>
+        <f>C4</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D26" s="20">
-        <f t="shared" si="2"/>
+        <f>D7</f>
         <v>0</v>
       </c>
       <c r="E26" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f>E7</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F26" s="20"/>
@@ -7867,20 +7861,22 @@
     </row>
     <row r="27" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="C27" s="21">
         <f>C6</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D27" s="20">
-        <v>1</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>166</v>
+        <f t="shared" ref="D27:E27" si="2">D8</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>natural gas - IPCC</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
@@ -7889,23 +7885,22 @@
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>134</v>
+        <v>161</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>162</v>
       </c>
       <c r="C28" s="21">
-        <f t="shared" ref="C28:C31" si="3">C7</f>
+        <f>C7</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="20" t="str">
-        <f t="shared" ref="E28" si="4">E9</f>
-        <v>natural gas - IPCC</v>
+        <v>1</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>166</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
@@ -7914,22 +7909,22 @@
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>134</v>
       </c>
       <c r="C29" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C29:C32" si="3">C8</f>
         <v>0.56599999999999995</v>
       </c>
       <c r="D29" s="20">
         <v>0</v>
       </c>
       <c r="E29" s="20" t="str">
-        <f t="shared" ref="E29" si="5">E10</f>
+        <f t="shared" ref="E29" si="4">E10</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F29" s="20"/>
@@ -7941,20 +7936,20 @@
     </row>
     <row r="30" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>162</v>
+        <v>172</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="C30" s="21">
         <f t="shared" si="3"/>
         <v>0.56599999999999995</v>
       </c>
       <c r="D30" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="20" t="str">
-        <f t="shared" ref="E30" si="6">E11</f>
+        <f t="shared" ref="E30" si="5">E11</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F30" s="20"/>
@@ -7966,7 +7961,7 @@
     </row>
     <row r="31" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>162</v>
@@ -7979,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="20" t="str">
-        <f t="shared" ref="E31" si="7">E12</f>
+        <f t="shared" ref="E31" si="6">E12</f>
         <v>natural gas - IPCC</v>
       </c>
       <c r="F31" s="20"/>
@@ -7989,12 +7984,24 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+    <row r="32" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="3"/>
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20" t="str">
+        <f t="shared" ref="E32" si="7">E13</f>
+        <v>natural gas - IPCC</v>
+      </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -8002,46 +8009,59 @@
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="40" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
+    <row r="33" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="41" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:11" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
